--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(バッチ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(バッチ)_サンプル.xlsx
@@ -4761,47 +4761,17 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
+    <t>処理済フラグ="0"(未処理)</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
     <t>請求日を指定する際に設定する。
-請求日の指定有無フラグが"0"の場合は設定せず、"1"の場合に必須で設定する
-(請求日のフォーマットは"yyyymmdd"の形式とする)。</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>処理済フラグ="0"(未処理)</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>-</t>
+請求日の指定有無フラグが"1"(指定あり)の場合に設定される。
+設定されない場合、請求年月に応じた請求日をDBから取得して使用する。</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -6283,6 +6253,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6316,7 +6289,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6331,9 +6310,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6547,15 +6523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6572,6 +6539,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19012,7 +18982,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>コード変換やハイフン編集などの編集仕様は帳票設計書や外部インターフェース設計書に記述し、システム機能設計書には参照先を記述する。</a:t>
+            <a:t>コード変換やハイフン編集などの編集仕様は帳票設計書や外部インタフェース設計書に記述し、システム機能設計書には参照先を記述する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19425,15 +19395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19444,7 +19414,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="733425" y="2314576"/>
+          <a:off x="752475" y="2324101"/>
           <a:ext cx="885824" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -19470,15 +19440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19489,7 +19459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2057399" y="2143125"/>
+          <a:off x="2076449" y="2152650"/>
           <a:ext cx="2990850" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -21147,13 +21117,13 @@
       <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1">
-      <c r="D11" s="403" t="s">
+      <c r="D11" s="405" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="404"/>
-      <c r="F11" s="404"/>
-      <c r="G11" s="404"/>
-      <c r="H11" s="405"/>
+      <c r="E11" s="406"/>
+      <c r="F11" s="406"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="407"/>
       <c r="I11" s="361" t="s">
         <v>282</v>
       </c>
@@ -21185,13 +21155,13 @@
       <c r="AI11" s="51"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1">
-      <c r="D12" s="403" t="s">
+      <c r="D12" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="404"/>
-      <c r="H12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="406"/>
+      <c r="H12" s="407"/>
       <c r="I12" s="361" t="s">
         <v>283</v>
       </c>
@@ -21223,13 +21193,13 @@
       <c r="AI12" s="51"/>
     </row>
     <row r="13" spans="1:38" s="19" customFormat="1">
-      <c r="D13" s="403" t="s">
+      <c r="D13" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="404"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="404"/>
-      <c r="H13" s="405"/>
+      <c r="E13" s="406"/>
+      <c r="F13" s="406"/>
+      <c r="G13" s="406"/>
+      <c r="H13" s="407"/>
       <c r="I13" s="361" t="s">
         <v>284</v>
       </c>
@@ -21317,16 +21287,16 @@
       <c r="D23" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="371" t="s">
+      <c r="E23" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="372"/>
-      <c r="G23" s="373"/>
-      <c r="H23" s="374" t="s">
+      <c r="F23" s="373"/>
+      <c r="G23" s="374"/>
+      <c r="H23" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="375"/>
-      <c r="J23" s="376"/>
+      <c r="I23" s="376"/>
+      <c r="J23" s="377"/>
       <c r="K23" s="355" t="s">
         <v>90</v>
       </c>
@@ -21371,29 +21341,29 @@
       <c r="K24" s="361" t="s">
         <v>324</v>
       </c>
-      <c r="L24" s="452"/>
-      <c r="M24" s="452"/>
-      <c r="N24" s="452"/>
-      <c r="O24" s="452"/>
-      <c r="P24" s="452"/>
-      <c r="Q24" s="452"/>
-      <c r="R24" s="452"/>
-      <c r="S24" s="452"/>
-      <c r="T24" s="452"/>
-      <c r="U24" s="452"/>
-      <c r="V24" s="452"/>
-      <c r="W24" s="452"/>
-      <c r="X24" s="452"/>
-      <c r="Y24" s="452"/>
-      <c r="Z24" s="452"/>
-      <c r="AA24" s="452"/>
-      <c r="AB24" s="452"/>
-      <c r="AC24" s="452"/>
-      <c r="AD24" s="452"/>
-      <c r="AE24" s="452"/>
-      <c r="AF24" s="452"/>
-      <c r="AG24" s="452"/>
-      <c r="AH24" s="453"/>
+      <c r="L24" s="454"/>
+      <c r="M24" s="454"/>
+      <c r="N24" s="454"/>
+      <c r="O24" s="454"/>
+      <c r="P24" s="454"/>
+      <c r="Q24" s="454"/>
+      <c r="R24" s="454"/>
+      <c r="S24" s="454"/>
+      <c r="T24" s="454"/>
+      <c r="U24" s="454"/>
+      <c r="V24" s="454"/>
+      <c r="W24" s="454"/>
+      <c r="X24" s="454"/>
+      <c r="Y24" s="454"/>
+      <c r="Z24" s="454"/>
+      <c r="AA24" s="454"/>
+      <c r="AB24" s="454"/>
+      <c r="AC24" s="454"/>
+      <c r="AD24" s="454"/>
+      <c r="AE24" s="454"/>
+      <c r="AF24" s="454"/>
+      <c r="AG24" s="454"/>
+      <c r="AH24" s="455"/>
     </row>
     <row r="25" spans="3:34" ht="22.5" customHeight="1">
       <c r="D25" s="45">
@@ -21412,29 +21382,29 @@
       <c r="K25" s="361" t="s">
         <v>598</v>
       </c>
-      <c r="L25" s="452"/>
-      <c r="M25" s="452"/>
-      <c r="N25" s="452"/>
-      <c r="O25" s="452"/>
-      <c r="P25" s="452"/>
-      <c r="Q25" s="452"/>
-      <c r="R25" s="452"/>
-      <c r="S25" s="452"/>
-      <c r="T25" s="452"/>
-      <c r="U25" s="452"/>
-      <c r="V25" s="452"/>
-      <c r="W25" s="452"/>
-      <c r="X25" s="452"/>
-      <c r="Y25" s="452"/>
-      <c r="Z25" s="452"/>
-      <c r="AA25" s="452"/>
-      <c r="AB25" s="452"/>
-      <c r="AC25" s="452"/>
-      <c r="AD25" s="452"/>
-      <c r="AE25" s="452"/>
-      <c r="AF25" s="452"/>
-      <c r="AG25" s="452"/>
-      <c r="AH25" s="453"/>
+      <c r="L25" s="454"/>
+      <c r="M25" s="454"/>
+      <c r="N25" s="454"/>
+      <c r="O25" s="454"/>
+      <c r="P25" s="454"/>
+      <c r="Q25" s="454"/>
+      <c r="R25" s="454"/>
+      <c r="S25" s="454"/>
+      <c r="T25" s="454"/>
+      <c r="U25" s="454"/>
+      <c r="V25" s="454"/>
+      <c r="W25" s="454"/>
+      <c r="X25" s="454"/>
+      <c r="Y25" s="454"/>
+      <c r="Z25" s="454"/>
+      <c r="AA25" s="454"/>
+      <c r="AB25" s="454"/>
+      <c r="AC25" s="454"/>
+      <c r="AD25" s="454"/>
+      <c r="AE25" s="454"/>
+      <c r="AF25" s="454"/>
+      <c r="AG25" s="454"/>
+      <c r="AH25" s="455"/>
     </row>
     <row r="26" spans="3:34">
       <c r="D26" s="151"/>
@@ -21541,63 +21511,63 @@
       <c r="C33" s="42"/>
     </row>
     <row r="34" spans="3:36">
-      <c r="D34" s="443" t="s">
+      <c r="D34" s="445" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="392" t="s">
+      <c r="E34" s="394" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="393"/>
-      <c r="G34" s="393"/>
-      <c r="H34" s="393"/>
-      <c r="I34" s="393"/>
-      <c r="J34" s="394"/>
-      <c r="K34" s="445" t="s">
+      <c r="F34" s="395"/>
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="396"/>
+      <c r="K34" s="447" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="393"/>
-      <c r="M34" s="393"/>
-      <c r="N34" s="394"/>
-      <c r="O34" s="446" t="s">
+      <c r="L34" s="395"/>
+      <c r="M34" s="395"/>
+      <c r="N34" s="396"/>
+      <c r="O34" s="448" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="449" t="s">
+      <c r="P34" s="451" t="s">
         <v>65</v>
       </c>
-      <c r="Q34" s="450"/>
-      <c r="R34" s="450"/>
-      <c r="S34" s="450"/>
-      <c r="T34" s="450"/>
-      <c r="U34" s="451"/>
-      <c r="V34" s="408" t="s">
+      <c r="Q34" s="452"/>
+      <c r="R34" s="452"/>
+      <c r="S34" s="452"/>
+      <c r="T34" s="452"/>
+      <c r="U34" s="453"/>
+      <c r="V34" s="410" t="s">
         <v>22</v>
       </c>
-      <c r="W34" s="408"/>
-      <c r="X34" s="408"/>
-      <c r="Y34" s="408"/>
-      <c r="Z34" s="408"/>
-      <c r="AA34" s="408"/>
-      <c r="AB34" s="408"/>
-      <c r="AC34" s="408"/>
-      <c r="AD34" s="408"/>
-      <c r="AE34" s="408"/>
-      <c r="AF34" s="408"/>
-      <c r="AG34" s="408"/>
-      <c r="AH34" s="408"/>
+      <c r="W34" s="410"/>
+      <c r="X34" s="410"/>
+      <c r="Y34" s="410"/>
+      <c r="Z34" s="410"/>
+      <c r="AA34" s="410"/>
+      <c r="AB34" s="410"/>
+      <c r="AC34" s="410"/>
+      <c r="AD34" s="410"/>
+      <c r="AE34" s="410"/>
+      <c r="AF34" s="410"/>
+      <c r="AG34" s="410"/>
+      <c r="AH34" s="410"/>
     </row>
     <row r="35" spans="3:36" s="19" customFormat="1">
-      <c r="D35" s="444"/>
-      <c r="E35" s="395"/>
-      <c r="F35" s="396"/>
-      <c r="G35" s="396"/>
-      <c r="H35" s="396"/>
-      <c r="I35" s="396"/>
-      <c r="J35" s="397"/>
-      <c r="K35" s="395"/>
-      <c r="L35" s="396"/>
-      <c r="M35" s="396"/>
-      <c r="N35" s="397"/>
-      <c r="O35" s="433"/>
+      <c r="D35" s="446"/>
+      <c r="E35" s="397"/>
+      <c r="F35" s="398"/>
+      <c r="G35" s="398"/>
+      <c r="H35" s="398"/>
+      <c r="I35" s="398"/>
+      <c r="J35" s="399"/>
+      <c r="K35" s="397"/>
+      <c r="L35" s="398"/>
+      <c r="M35" s="398"/>
+      <c r="N35" s="399"/>
+      <c r="O35" s="435"/>
       <c r="P35" s="50" t="s">
         <v>66</v>
       </c>
@@ -21610,23 +21580,23 @@
       <c r="S35" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="T35" s="447" t="s">
+      <c r="T35" s="449" t="s">
         <v>70</v>
       </c>
-      <c r="U35" s="448"/>
-      <c r="V35" s="408"/>
-      <c r="W35" s="408"/>
-      <c r="X35" s="408"/>
-      <c r="Y35" s="408"/>
-      <c r="Z35" s="408"/>
-      <c r="AA35" s="408"/>
-      <c r="AB35" s="408"/>
-      <c r="AC35" s="408"/>
-      <c r="AD35" s="408"/>
-      <c r="AE35" s="408"/>
-      <c r="AF35" s="408"/>
-      <c r="AG35" s="408"/>
-      <c r="AH35" s="408"/>
+      <c r="U35" s="450"/>
+      <c r="V35" s="410"/>
+      <c r="W35" s="410"/>
+      <c r="X35" s="410"/>
+      <c r="Y35" s="410"/>
+      <c r="Z35" s="410"/>
+      <c r="AA35" s="410"/>
+      <c r="AB35" s="410"/>
+      <c r="AC35" s="410"/>
+      <c r="AD35" s="410"/>
+      <c r="AE35" s="410"/>
+      <c r="AF35" s="410"/>
+      <c r="AG35" s="410"/>
+      <c r="AH35" s="410"/>
     </row>
     <row r="36" spans="3:36" s="19" customFormat="1">
       <c r="D36" s="45">
@@ -21661,10 +21631,10 @@
       <c r="S36" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T36" s="441" t="s">
+      <c r="T36" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U36" s="442"/>
+      <c r="U36" s="444"/>
       <c r="V36" s="212"/>
       <c r="W36" s="213"/>
       <c r="X36" s="213"/>
@@ -21712,10 +21682,10 @@
       <c r="S37" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T37" s="441" t="s">
+      <c r="T37" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U37" s="442"/>
+      <c r="U37" s="444"/>
       <c r="V37" s="212"/>
       <c r="W37" s="213"/>
       <c r="X37" s="213"/>
@@ -21763,10 +21733,10 @@
       <c r="S38" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T38" s="441" t="s">
+      <c r="T38" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U38" s="442"/>
+      <c r="U38" s="444"/>
       <c r="V38" s="212"/>
       <c r="W38" s="213"/>
       <c r="X38" s="213"/>
@@ -21814,10 +21784,10 @@
       <c r="S39" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T39" s="441" t="s">
+      <c r="T39" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U39" s="442"/>
+      <c r="U39" s="444"/>
       <c r="V39" s="212"/>
       <c r="W39" s="213"/>
       <c r="X39" s="213"/>
@@ -21865,10 +21835,10 @@
       <c r="S40" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T40" s="441" t="s">
+      <c r="T40" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U40" s="442"/>
+      <c r="U40" s="444"/>
       <c r="V40" s="212"/>
       <c r="W40" s="213"/>
       <c r="X40" s="213"/>
@@ -21897,120 +21867,120 @@
       <c r="E45" s="42"/>
     </row>
     <row r="46" spans="3:36" s="19" customFormat="1">
-      <c r="E46" s="430" t="s">
+      <c r="E46" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="430"/>
-      <c r="G46" s="430"/>
-      <c r="H46" s="430"/>
-      <c r="I46" s="430"/>
-      <c r="J46" s="430"/>
-      <c r="K46" s="430"/>
-      <c r="L46" s="430"/>
-      <c r="M46" s="430"/>
-      <c r="N46" s="430"/>
-      <c r="O46" s="430"/>
-      <c r="P46" s="430"/>
-      <c r="Q46" s="430"/>
-      <c r="R46" s="430"/>
-      <c r="S46" s="430"/>
-      <c r="T46" s="430"/>
-      <c r="U46" s="430"/>
-      <c r="V46" s="430"/>
-      <c r="W46" s="430"/>
-      <c r="X46" s="430"/>
-      <c r="Y46" s="430"/>
-      <c r="Z46" s="430"/>
-      <c r="AA46" s="430"/>
-      <c r="AB46" s="430"/>
-      <c r="AC46" s="430"/>
-      <c r="AD46" s="430"/>
-      <c r="AE46" s="430"/>
-      <c r="AF46" s="430"/>
-      <c r="AG46" s="430"/>
-      <c r="AH46" s="430"/>
+      <c r="F46" s="432"/>
+      <c r="G46" s="432"/>
+      <c r="H46" s="432"/>
+      <c r="I46" s="432"/>
+      <c r="J46" s="432"/>
+      <c r="K46" s="432"/>
+      <c r="L46" s="432"/>
+      <c r="M46" s="432"/>
+      <c r="N46" s="432"/>
+      <c r="O46" s="432"/>
+      <c r="P46" s="432"/>
+      <c r="Q46" s="432"/>
+      <c r="R46" s="432"/>
+      <c r="S46" s="432"/>
+      <c r="T46" s="432"/>
+      <c r="U46" s="432"/>
+      <c r="V46" s="432"/>
+      <c r="W46" s="432"/>
+      <c r="X46" s="432"/>
+      <c r="Y46" s="432"/>
+      <c r="Z46" s="432"/>
+      <c r="AA46" s="432"/>
+      <c r="AB46" s="432"/>
+      <c r="AC46" s="432"/>
+      <c r="AD46" s="432"/>
+      <c r="AE46" s="432"/>
+      <c r="AF46" s="432"/>
+      <c r="AG46" s="432"/>
+      <c r="AH46" s="432"/>
       <c r="AI46" s="100"/>
       <c r="AJ46" s="99"/>
     </row>
     <row r="47" spans="3:36" s="19" customFormat="1">
-      <c r="E47" s="431" t="s">
+      <c r="E47" s="433" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="420" t="s">
+      <c r="F47" s="422" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="420"/>
-      <c r="H47" s="420"/>
-      <c r="I47" s="420"/>
-      <c r="J47" s="420"/>
-      <c r="K47" s="420"/>
-      <c r="L47" s="420" t="s">
+      <c r="G47" s="422"/>
+      <c r="H47" s="422"/>
+      <c r="I47" s="422"/>
+      <c r="J47" s="422"/>
+      <c r="K47" s="422"/>
+      <c r="L47" s="422" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="420"/>
-      <c r="N47" s="420"/>
-      <c r="O47" s="420"/>
-      <c r="P47" s="420"/>
-      <c r="Q47" s="433" t="s">
+      <c r="M47" s="422"/>
+      <c r="N47" s="422"/>
+      <c r="O47" s="422"/>
+      <c r="P47" s="422"/>
+      <c r="Q47" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="R47" s="431" t="s">
+      <c r="R47" s="433" t="s">
         <v>62</v>
       </c>
-      <c r="S47" s="431"/>
-      <c r="T47" s="431"/>
-      <c r="U47" s="431"/>
-      <c r="V47" s="431"/>
-      <c r="W47" s="430" t="s">
+      <c r="S47" s="433"/>
+      <c r="T47" s="433"/>
+      <c r="U47" s="433"/>
+      <c r="V47" s="433"/>
+      <c r="W47" s="432" t="s">
         <v>22</v>
       </c>
-      <c r="X47" s="430"/>
-      <c r="Y47" s="430"/>
-      <c r="Z47" s="430"/>
-      <c r="AA47" s="430"/>
-      <c r="AB47" s="430"/>
-      <c r="AC47" s="430"/>
-      <c r="AD47" s="430"/>
-      <c r="AE47" s="430"/>
-      <c r="AF47" s="430"/>
-      <c r="AG47" s="430"/>
-      <c r="AH47" s="430"/>
+      <c r="X47" s="432"/>
+      <c r="Y47" s="432"/>
+      <c r="Z47" s="432"/>
+      <c r="AA47" s="432"/>
+      <c r="AB47" s="432"/>
+      <c r="AC47" s="432"/>
+      <c r="AD47" s="432"/>
+      <c r="AE47" s="432"/>
+      <c r="AF47" s="432"/>
+      <c r="AG47" s="432"/>
+      <c r="AH47" s="432"/>
       <c r="AI47" s="101"/>
       <c r="AJ47" s="99"/>
     </row>
     <row r="48" spans="3:36" s="19" customFormat="1">
-      <c r="E48" s="432"/>
-      <c r="F48" s="430"/>
-      <c r="G48" s="430"/>
-      <c r="H48" s="430"/>
-      <c r="I48" s="430"/>
-      <c r="J48" s="430"/>
-      <c r="K48" s="430"/>
-      <c r="L48" s="430"/>
-      <c r="M48" s="430"/>
-      <c r="N48" s="430"/>
-      <c r="O48" s="430"/>
-      <c r="P48" s="430"/>
-      <c r="Q48" s="434"/>
-      <c r="R48" s="432" t="s">
+      <c r="E48" s="434"/>
+      <c r="F48" s="432"/>
+      <c r="G48" s="432"/>
+      <c r="H48" s="432"/>
+      <c r="I48" s="432"/>
+      <c r="J48" s="432"/>
+      <c r="K48" s="432"/>
+      <c r="L48" s="432"/>
+      <c r="M48" s="432"/>
+      <c r="N48" s="432"/>
+      <c r="O48" s="432"/>
+      <c r="P48" s="432"/>
+      <c r="Q48" s="436"/>
+      <c r="R48" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="S48" s="432"/>
-      <c r="T48" s="432"/>
-      <c r="U48" s="432"/>
-      <c r="V48" s="432"/>
-      <c r="W48" s="430"/>
-      <c r="X48" s="430"/>
-      <c r="Y48" s="430"/>
-      <c r="Z48" s="430"/>
-      <c r="AA48" s="430"/>
-      <c r="AB48" s="430"/>
-      <c r="AC48" s="430"/>
-      <c r="AD48" s="430"/>
-      <c r="AE48" s="430"/>
-      <c r="AF48" s="430"/>
-      <c r="AG48" s="430"/>
-      <c r="AH48" s="430"/>
+      <c r="S48" s="434"/>
+      <c r="T48" s="434"/>
+      <c r="U48" s="434"/>
+      <c r="V48" s="434"/>
+      <c r="W48" s="432"/>
+      <c r="X48" s="432"/>
+      <c r="Y48" s="432"/>
+      <c r="Z48" s="432"/>
+      <c r="AA48" s="432"/>
+      <c r="AB48" s="432"/>
+      <c r="AC48" s="432"/>
+      <c r="AD48" s="432"/>
+      <c r="AE48" s="432"/>
+      <c r="AF48" s="432"/>
+      <c r="AG48" s="432"/>
+      <c r="AH48" s="432"/>
       <c r="AI48" s="101"/>
       <c r="AJ48" s="99"/>
     </row>
@@ -22018,7 +21988,7 @@
       <c r="E49" s="46">
         <v>1</v>
       </c>
-      <c r="F49" s="435" t="s">
+      <c r="F49" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G49" s="364"/>
@@ -22026,17 +21996,17 @@
       <c r="I49" s="364"/>
       <c r="J49" s="364"/>
       <c r="K49" s="364"/>
-      <c r="L49" s="436" t="s">
+      <c r="L49" s="438" t="s">
         <v>287</v>
       </c>
-      <c r="M49" s="437"/>
-      <c r="N49" s="437"/>
-      <c r="O49" s="437"/>
-      <c r="P49" s="437"/>
+      <c r="M49" s="439"/>
+      <c r="N49" s="439"/>
+      <c r="O49" s="439"/>
+      <c r="P49" s="439"/>
       <c r="Q49" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R49" s="435" t="s">
+      <c r="R49" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S49" s="364"/>
@@ -22062,7 +22032,7 @@
       <c r="E50" s="46">
         <v>2</v>
       </c>
-      <c r="F50" s="435" t="s">
+      <c r="F50" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G50" s="364"/>
@@ -22070,17 +22040,17 @@
       <c r="I50" s="364"/>
       <c r="J50" s="364"/>
       <c r="K50" s="364"/>
-      <c r="L50" s="436" t="s">
+      <c r="L50" s="438" t="s">
         <v>288</v>
       </c>
-      <c r="M50" s="437"/>
-      <c r="N50" s="437"/>
-      <c r="O50" s="437"/>
-      <c r="P50" s="437"/>
+      <c r="M50" s="439"/>
+      <c r="N50" s="439"/>
+      <c r="O50" s="439"/>
+      <c r="P50" s="439"/>
       <c r="Q50" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R50" s="435" t="s">
+      <c r="R50" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S50" s="364"/>
@@ -22106,7 +22076,7 @@
       <c r="E51" s="46">
         <v>3</v>
       </c>
-      <c r="F51" s="435" t="s">
+      <c r="F51" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="364"/>
@@ -22114,17 +22084,17 @@
       <c r="I51" s="364"/>
       <c r="J51" s="364"/>
       <c r="K51" s="364"/>
-      <c r="L51" s="436" t="s">
+      <c r="L51" s="438" t="s">
         <v>289</v>
       </c>
-      <c r="M51" s="437"/>
-      <c r="N51" s="437"/>
-      <c r="O51" s="437"/>
-      <c r="P51" s="437"/>
+      <c r="M51" s="439"/>
+      <c r="N51" s="439"/>
+      <c r="O51" s="439"/>
+      <c r="P51" s="439"/>
       <c r="Q51" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R51" s="435" t="s">
+      <c r="R51" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S51" s="364"/>
@@ -22150,7 +22120,7 @@
       <c r="E52" s="46">
         <v>4</v>
       </c>
-      <c r="F52" s="435" t="s">
+      <c r="F52" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G52" s="364"/>
@@ -22158,17 +22128,17 @@
       <c r="I52" s="364"/>
       <c r="J52" s="364"/>
       <c r="K52" s="364"/>
-      <c r="L52" s="436" t="s">
+      <c r="L52" s="438" t="s">
         <v>290</v>
       </c>
-      <c r="M52" s="437"/>
-      <c r="N52" s="437"/>
-      <c r="O52" s="437"/>
-      <c r="P52" s="437"/>
+      <c r="M52" s="439"/>
+      <c r="N52" s="439"/>
+      <c r="O52" s="439"/>
+      <c r="P52" s="439"/>
       <c r="Q52" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R52" s="435" t="s">
+      <c r="R52" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S52" s="364"/>
@@ -22194,7 +22164,7 @@
       <c r="E53" s="46">
         <v>5</v>
       </c>
-      <c r="F53" s="435" t="s">
+      <c r="F53" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G53" s="364"/>
@@ -22202,17 +22172,17 @@
       <c r="I53" s="364"/>
       <c r="J53" s="364"/>
       <c r="K53" s="364"/>
-      <c r="L53" s="436" t="s">
+      <c r="L53" s="438" t="s">
         <v>291</v>
       </c>
-      <c r="M53" s="437"/>
-      <c r="N53" s="437"/>
-      <c r="O53" s="437"/>
-      <c r="P53" s="437"/>
+      <c r="M53" s="439"/>
+      <c r="N53" s="439"/>
+      <c r="O53" s="439"/>
+      <c r="P53" s="439"/>
       <c r="Q53" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R53" s="435" t="s">
+      <c r="R53" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S53" s="364"/>
@@ -22238,7 +22208,7 @@
       <c r="E54" s="46">
         <v>6</v>
       </c>
-      <c r="F54" s="435" t="s">
+      <c r="F54" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G54" s="364"/>
@@ -22246,17 +22216,17 @@
       <c r="I54" s="364"/>
       <c r="J54" s="364"/>
       <c r="K54" s="364"/>
-      <c r="L54" s="436" t="s">
+      <c r="L54" s="438" t="s">
         <v>292</v>
       </c>
-      <c r="M54" s="437"/>
-      <c r="N54" s="437"/>
-      <c r="O54" s="437"/>
-      <c r="P54" s="437"/>
+      <c r="M54" s="439"/>
+      <c r="N54" s="439"/>
+      <c r="O54" s="439"/>
+      <c r="P54" s="439"/>
       <c r="Q54" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R54" s="435" t="s">
+      <c r="R54" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S54" s="364"/>
@@ -22282,7 +22252,7 @@
       <c r="E55" s="46">
         <v>7</v>
       </c>
-      <c r="F55" s="435" t="s">
+      <c r="F55" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G55" s="364"/>
@@ -22290,17 +22260,17 @@
       <c r="I55" s="364"/>
       <c r="J55" s="364"/>
       <c r="K55" s="364"/>
-      <c r="L55" s="436" t="s">
+      <c r="L55" s="438" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="437"/>
-      <c r="N55" s="437"/>
-      <c r="O55" s="437"/>
-      <c r="P55" s="437"/>
+      <c r="M55" s="439"/>
+      <c r="N55" s="439"/>
+      <c r="O55" s="439"/>
+      <c r="P55" s="439"/>
       <c r="Q55" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R55" s="435" t="s">
+      <c r="R55" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S55" s="364"/>
@@ -22326,7 +22296,7 @@
       <c r="E56" s="46">
         <v>8</v>
       </c>
-      <c r="F56" s="435" t="s">
+      <c r="F56" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G56" s="364"/>
@@ -22334,17 +22304,17 @@
       <c r="I56" s="364"/>
       <c r="J56" s="364"/>
       <c r="K56" s="364"/>
-      <c r="L56" s="436" t="s">
+      <c r="L56" s="438" t="s">
         <v>294</v>
       </c>
-      <c r="M56" s="437"/>
-      <c r="N56" s="437"/>
-      <c r="O56" s="437"/>
-      <c r="P56" s="437"/>
+      <c r="M56" s="439"/>
+      <c r="N56" s="439"/>
+      <c r="O56" s="439"/>
+      <c r="P56" s="439"/>
       <c r="Q56" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R56" s="435" t="s">
+      <c r="R56" s="437" t="s">
         <v>354</v>
       </c>
       <c r="S56" s="364"/>
@@ -22569,44 +22539,44 @@
     </row>
     <row r="67" spans="2:35">
       <c r="D67" s="42"/>
-      <c r="E67" s="382" t="s">
+      <c r="E67" s="467" t="s">
         <v>468</v>
       </c>
-      <c r="F67" s="382"/>
-      <c r="G67" s="383" t="s">
+      <c r="F67" s="467"/>
+      <c r="G67" s="386" t="s">
         <v>472</v>
       </c>
-      <c r="H67" s="383"/>
-      <c r="I67" s="383"/>
-      <c r="J67" s="383"/>
-      <c r="K67" s="383"/>
-      <c r="L67" s="383"/>
-      <c r="M67" s="382" t="s">
+      <c r="H67" s="386"/>
+      <c r="I67" s="386"/>
+      <c r="J67" s="386"/>
+      <c r="K67" s="386"/>
+      <c r="L67" s="386"/>
+      <c r="M67" s="467" t="s">
         <v>469</v>
       </c>
-      <c r="N67" s="382"/>
-      <c r="O67" s="383" t="s">
+      <c r="N67" s="467"/>
+      <c r="O67" s="386" t="s">
         <v>471</v>
       </c>
-      <c r="P67" s="383"/>
-      <c r="Q67" s="383"/>
-      <c r="R67" s="383"/>
-      <c r="S67" s="383"/>
-      <c r="T67" s="383"/>
-      <c r="U67" s="383"/>
-      <c r="V67" s="383"/>
-      <c r="W67" s="383"/>
-      <c r="X67" s="383"/>
-      <c r="Y67" s="383"/>
-      <c r="Z67" s="383"/>
-      <c r="AA67" s="383"/>
-      <c r="AB67" s="383"/>
-      <c r="AC67" s="383"/>
-      <c r="AD67" s="383"/>
-      <c r="AE67" s="383"/>
-      <c r="AF67" s="383"/>
-      <c r="AG67" s="383"/>
-      <c r="AH67" s="383"/>
+      <c r="P67" s="386"/>
+      <c r="Q67" s="386"/>
+      <c r="R67" s="386"/>
+      <c r="S67" s="386"/>
+      <c r="T67" s="386"/>
+      <c r="U67" s="386"/>
+      <c r="V67" s="386"/>
+      <c r="W67" s="386"/>
+      <c r="X67" s="386"/>
+      <c r="Y67" s="386"/>
+      <c r="Z67" s="386"/>
+      <c r="AA67" s="386"/>
+      <c r="AB67" s="386"/>
+      <c r="AC67" s="386"/>
+      <c r="AD67" s="386"/>
+      <c r="AE67" s="386"/>
+      <c r="AF67" s="386"/>
+      <c r="AG67" s="386"/>
+      <c r="AH67" s="386"/>
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="97"/>
@@ -23174,38 +23144,38 @@
       <c r="D92" s="136"/>
       <c r="E92" s="136"/>
       <c r="F92" s="136"/>
-      <c r="G92" s="371" t="s">
+      <c r="G92" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="372"/>
-      <c r="I92" s="373"/>
-      <c r="J92" s="374" t="s">
+      <c r="H92" s="373"/>
+      <c r="I92" s="374"/>
+      <c r="J92" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="375"/>
-      <c r="L92" s="376"/>
-      <c r="M92" s="425" t="s">
+      <c r="K92" s="376"/>
+      <c r="L92" s="377"/>
+      <c r="M92" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="N92" s="426"/>
-      <c r="O92" s="426"/>
-      <c r="P92" s="427"/>
-      <c r="Q92" s="429" t="s">
+      <c r="N92" s="428"/>
+      <c r="O92" s="428"/>
+      <c r="P92" s="429"/>
+      <c r="Q92" s="431" t="s">
         <v>79</v>
       </c>
-      <c r="R92" s="429"/>
-      <c r="S92" s="429"/>
-      <c r="T92" s="429"/>
-      <c r="U92" s="429"/>
-      <c r="V92" s="429"/>
-      <c r="W92" s="429"/>
-      <c r="X92" s="429"/>
-      <c r="Y92" s="429"/>
-      <c r="Z92" s="429"/>
-      <c r="AA92" s="429"/>
-      <c r="AB92" s="429"/>
-      <c r="AC92" s="429"/>
-      <c r="AD92" s="429"/>
+      <c r="R92" s="431"/>
+      <c r="S92" s="431"/>
+      <c r="T92" s="431"/>
+      <c r="U92" s="431"/>
+      <c r="V92" s="431"/>
+      <c r="W92" s="431"/>
+      <c r="X92" s="431"/>
+      <c r="Y92" s="431"/>
+      <c r="Z92" s="431"/>
+      <c r="AA92" s="431"/>
+      <c r="AB92" s="431"/>
+      <c r="AC92" s="431"/>
+      <c r="AD92" s="431"/>
       <c r="AE92" s="136"/>
       <c r="AF92" s="136"/>
     </row>
@@ -23224,28 +23194,28 @@
       </c>
       <c r="K93" s="213"/>
       <c r="L93" s="214"/>
-      <c r="M93" s="388" t="s">
+      <c r="M93" s="390" t="s">
         <v>312</v>
       </c>
-      <c r="N93" s="389"/>
-      <c r="O93" s="389"/>
-      <c r="P93" s="390"/>
-      <c r="Q93" s="428" t="s">
+      <c r="N93" s="391"/>
+      <c r="O93" s="391"/>
+      <c r="P93" s="392"/>
+      <c r="Q93" s="430" t="s">
         <v>340</v>
       </c>
-      <c r="R93" s="428"/>
-      <c r="S93" s="428"/>
-      <c r="T93" s="428"/>
-      <c r="U93" s="428"/>
-      <c r="V93" s="428"/>
-      <c r="W93" s="428"/>
-      <c r="X93" s="428"/>
-      <c r="Y93" s="428"/>
-      <c r="Z93" s="428"/>
-      <c r="AA93" s="428"/>
-      <c r="AB93" s="428"/>
-      <c r="AC93" s="428"/>
-      <c r="AD93" s="428"/>
+      <c r="R93" s="430"/>
+      <c r="S93" s="430"/>
+      <c r="T93" s="430"/>
+      <c r="U93" s="430"/>
+      <c r="V93" s="430"/>
+      <c r="W93" s="430"/>
+      <c r="X93" s="430"/>
+      <c r="Y93" s="430"/>
+      <c r="Z93" s="430"/>
+      <c r="AA93" s="430"/>
+      <c r="AB93" s="430"/>
+      <c r="AC93" s="430"/>
+      <c r="AD93" s="430"/>
       <c r="AE93" s="136"/>
       <c r="AF93" s="136"/>
     </row>
@@ -23708,43 +23678,43 @@
     <row r="109" spans="1:70">
       <c r="C109" s="42"/>
       <c r="D109" s="44"/>
-      <c r="F109" s="382" t="s">
+      <c r="F109" s="467" t="s">
         <v>468</v>
       </c>
-      <c r="G109" s="382"/>
-      <c r="H109" s="383" t="s">
+      <c r="G109" s="467"/>
+      <c r="H109" s="386" t="s">
         <v>473</v>
       </c>
-      <c r="I109" s="383"/>
-      <c r="J109" s="383"/>
-      <c r="K109" s="383"/>
-      <c r="L109" s="383"/>
-      <c r="M109" s="383"/>
-      <c r="N109" s="382" t="s">
+      <c r="I109" s="386"/>
+      <c r="J109" s="386"/>
+      <c r="K109" s="386"/>
+      <c r="L109" s="386"/>
+      <c r="M109" s="386"/>
+      <c r="N109" s="467" t="s">
         <v>469</v>
       </c>
-      <c r="O109" s="382"/>
-      <c r="P109" s="462" t="s">
+      <c r="O109" s="467"/>
+      <c r="P109" s="461" t="s">
         <v>474</v>
       </c>
-      <c r="Q109" s="454"/>
-      <c r="R109" s="454"/>
-      <c r="S109" s="454"/>
-      <c r="T109" s="454"/>
-      <c r="U109" s="454"/>
-      <c r="V109" s="454"/>
-      <c r="W109" s="454"/>
-      <c r="X109" s="454"/>
-      <c r="Y109" s="454"/>
-      <c r="Z109" s="454"/>
-      <c r="AA109" s="454"/>
-      <c r="AB109" s="454"/>
-      <c r="AC109" s="454"/>
-      <c r="AD109" s="454"/>
-      <c r="AE109" s="454"/>
-      <c r="AF109" s="454"/>
-      <c r="AG109" s="454"/>
-      <c r="AH109" s="455"/>
+      <c r="Q109" s="456"/>
+      <c r="R109" s="456"/>
+      <c r="S109" s="456"/>
+      <c r="T109" s="456"/>
+      <c r="U109" s="456"/>
+      <c r="V109" s="456"/>
+      <c r="W109" s="456"/>
+      <c r="X109" s="456"/>
+      <c r="Y109" s="456"/>
+      <c r="Z109" s="456"/>
+      <c r="AA109" s="456"/>
+      <c r="AB109" s="456"/>
+      <c r="AC109" s="456"/>
+      <c r="AD109" s="456"/>
+      <c r="AE109" s="456"/>
+      <c r="AF109" s="456"/>
+      <c r="AG109" s="456"/>
+      <c r="AH109" s="457"/>
       <c r="AI109" s="147"/>
       <c r="BM109" s="98"/>
       <c r="BN109" s="98"/>
@@ -23868,32 +23838,32 @@
       <c r="C113" s="42"/>
       <c r="D113" s="44"/>
       <c r="E113" s="44"/>
-      <c r="F113" s="466" t="s">
+      <c r="F113" s="465" t="s">
         <v>438</v>
       </c>
-      <c r="G113" s="382" t="s">
+      <c r="G113" s="467" t="s">
         <v>439</v>
       </c>
-      <c r="H113" s="382"/>
-      <c r="I113" s="382"/>
-      <c r="J113" s="382"/>
-      <c r="K113" s="382" t="s">
+      <c r="H113" s="467"/>
+      <c r="I113" s="467"/>
+      <c r="J113" s="467"/>
+      <c r="K113" s="467" t="s">
         <v>440</v>
       </c>
-      <c r="L113" s="382"/>
-      <c r="M113" s="382"/>
-      <c r="N113" s="382"/>
-      <c r="O113" s="430" t="s">
+      <c r="L113" s="467"/>
+      <c r="M113" s="467"/>
+      <c r="N113" s="467"/>
+      <c r="O113" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="P113" s="430"/>
-      <c r="Q113" s="430"/>
-      <c r="R113" s="430"/>
-      <c r="S113" s="430"/>
-      <c r="T113" s="430"/>
-      <c r="U113" s="430"/>
-      <c r="V113" s="430"/>
-      <c r="W113" s="430"/>
+      <c r="P113" s="432"/>
+      <c r="Q113" s="432"/>
+      <c r="R113" s="432"/>
+      <c r="S113" s="432"/>
+      <c r="T113" s="432"/>
+      <c r="U113" s="432"/>
+      <c r="V113" s="432"/>
+      <c r="W113" s="432"/>
       <c r="X113" s="468" t="s">
         <v>25</v>
       </c>
@@ -23917,22 +23887,22 @@
       <c r="C114" s="42"/>
       <c r="D114" s="44"/>
       <c r="E114" s="44"/>
-      <c r="F114" s="467"/>
-      <c r="G114" s="382"/>
-      <c r="H114" s="382"/>
-      <c r="I114" s="382"/>
-      <c r="J114" s="382"/>
-      <c r="K114" s="382"/>
-      <c r="L114" s="382"/>
-      <c r="M114" s="382"/>
-      <c r="N114" s="382"/>
-      <c r="O114" s="432" t="s">
+      <c r="F114" s="466"/>
+      <c r="G114" s="467"/>
+      <c r="H114" s="467"/>
+      <c r="I114" s="467"/>
+      <c r="J114" s="467"/>
+      <c r="K114" s="467"/>
+      <c r="L114" s="467"/>
+      <c r="M114" s="467"/>
+      <c r="N114" s="467"/>
+      <c r="O114" s="434" t="s">
         <v>498</v>
       </c>
-      <c r="P114" s="430"/>
-      <c r="Q114" s="430"/>
-      <c r="R114" s="430"/>
-      <c r="S114" s="430"/>
+      <c r="P114" s="432"/>
+      <c r="Q114" s="432"/>
+      <c r="R114" s="432"/>
+      <c r="S114" s="432"/>
       <c r="T114" s="369" t="s">
         <v>11</v>
       </c>
@@ -23946,10 +23916,10 @@
       <c r="AB114" s="472"/>
       <c r="AC114" s="472"/>
       <c r="AD114" s="473"/>
-      <c r="AE114" s="422"/>
-      <c r="AF114" s="423"/>
-      <c r="AG114" s="423"/>
-      <c r="AH114" s="424"/>
+      <c r="AE114" s="424"/>
+      <c r="AF114" s="425"/>
+      <c r="AG114" s="425"/>
+      <c r="AH114" s="426"/>
       <c r="AN114" s="17"/>
       <c r="BR114" s="17"/>
     </row>
@@ -23961,44 +23931,44 @@
       <c r="F115" s="146">
         <v>1</v>
       </c>
-      <c r="G115" s="465" t="s">
+      <c r="G115" s="464" t="s">
         <v>483</v>
       </c>
-      <c r="H115" s="465"/>
-      <c r="I115" s="465"/>
-      <c r="J115" s="465"/>
-      <c r="K115" s="465" t="s">
+      <c r="H115" s="464"/>
+      <c r="I115" s="464"/>
+      <c r="J115" s="464"/>
+      <c r="K115" s="464" t="s">
         <v>482</v>
       </c>
-      <c r="L115" s="465"/>
-      <c r="M115" s="465"/>
-      <c r="N115" s="465"/>
-      <c r="O115" s="421" t="s">
+      <c r="L115" s="464"/>
+      <c r="M115" s="464"/>
+      <c r="N115" s="464"/>
+      <c r="O115" s="423" t="s">
         <v>486</v>
       </c>
-      <c r="P115" s="380"/>
-      <c r="Q115" s="380"/>
-      <c r="R115" s="380"/>
-      <c r="S115" s="380"/>
-      <c r="T115" s="435" t="s">
+      <c r="P115" s="381"/>
+      <c r="Q115" s="381"/>
+      <c r="R115" s="381"/>
+      <c r="S115" s="381"/>
+      <c r="T115" s="437" t="s">
         <v>480</v>
       </c>
       <c r="U115" s="364"/>
       <c r="V115" s="364"/>
       <c r="W115" s="364"/>
-      <c r="X115" s="388" t="s">
+      <c r="X115" s="390" t="s">
         <v>487</v>
       </c>
-      <c r="Y115" s="389"/>
-      <c r="Z115" s="389"/>
-      <c r="AA115" s="389"/>
-      <c r="AB115" s="389"/>
-      <c r="AC115" s="389"/>
-      <c r="AD115" s="390"/>
-      <c r="AE115" s="388"/>
-      <c r="AF115" s="457"/>
-      <c r="AG115" s="457"/>
-      <c r="AH115" s="458"/>
+      <c r="Y115" s="391"/>
+      <c r="Z115" s="391"/>
+      <c r="AA115" s="391"/>
+      <c r="AB115" s="391"/>
+      <c r="AC115" s="391"/>
+      <c r="AD115" s="392"/>
+      <c r="AE115" s="390"/>
+      <c r="AF115" s="459"/>
+      <c r="AG115" s="459"/>
+      <c r="AH115" s="460"/>
       <c r="AN115" s="17"/>
       <c r="BR115" s="17"/>
     </row>
@@ -24010,44 +23980,44 @@
       <c r="F116" s="146">
         <v>2</v>
       </c>
-      <c r="G116" s="465" t="s">
+      <c r="G116" s="464" t="s">
         <v>484</v>
       </c>
-      <c r="H116" s="465"/>
-      <c r="I116" s="465"/>
-      <c r="J116" s="465"/>
-      <c r="K116" s="465" t="s">
+      <c r="H116" s="464"/>
+      <c r="I116" s="464"/>
+      <c r="J116" s="464"/>
+      <c r="K116" s="464" t="s">
         <v>476</v>
       </c>
-      <c r="L116" s="465"/>
-      <c r="M116" s="465"/>
-      <c r="N116" s="465"/>
-      <c r="O116" s="421" t="s">
+      <c r="L116" s="464"/>
+      <c r="M116" s="464"/>
+      <c r="N116" s="464"/>
+      <c r="O116" s="423" t="s">
         <v>478</v>
       </c>
-      <c r="P116" s="380"/>
-      <c r="Q116" s="380"/>
-      <c r="R116" s="380"/>
-      <c r="S116" s="380"/>
-      <c r="T116" s="435" t="s">
+      <c r="P116" s="381"/>
+      <c r="Q116" s="381"/>
+      <c r="R116" s="381"/>
+      <c r="S116" s="381"/>
+      <c r="T116" s="437" t="s">
         <v>479</v>
       </c>
       <c r="U116" s="364"/>
       <c r="V116" s="364"/>
       <c r="W116" s="364"/>
-      <c r="X116" s="388" t="s">
+      <c r="X116" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y116" s="389"/>
-      <c r="Z116" s="389"/>
-      <c r="AA116" s="389"/>
-      <c r="AB116" s="389"/>
-      <c r="AC116" s="389"/>
-      <c r="AD116" s="390"/>
-      <c r="AE116" s="388"/>
-      <c r="AF116" s="457"/>
-      <c r="AG116" s="457"/>
-      <c r="AH116" s="458"/>
+      <c r="Y116" s="391"/>
+      <c r="Z116" s="391"/>
+      <c r="AA116" s="391"/>
+      <c r="AB116" s="391"/>
+      <c r="AC116" s="391"/>
+      <c r="AD116" s="392"/>
+      <c r="AE116" s="390"/>
+      <c r="AF116" s="459"/>
+      <c r="AG116" s="459"/>
+      <c r="AH116" s="460"/>
       <c r="AN116" s="17"/>
       <c r="BR116" s="17"/>
     </row>
@@ -24059,46 +24029,46 @@
       <c r="F117" s="146">
         <v>3</v>
       </c>
-      <c r="G117" s="465" t="s">
+      <c r="G117" s="464" t="s">
         <v>485</v>
       </c>
-      <c r="H117" s="465"/>
-      <c r="I117" s="465"/>
-      <c r="J117" s="465"/>
-      <c r="K117" s="465" t="s">
+      <c r="H117" s="464"/>
+      <c r="I117" s="464"/>
+      <c r="J117" s="464"/>
+      <c r="K117" s="464" t="s">
         <v>477</v>
       </c>
-      <c r="L117" s="465"/>
-      <c r="M117" s="465"/>
-      <c r="N117" s="465"/>
-      <c r="O117" s="421" t="s">
+      <c r="L117" s="464"/>
+      <c r="M117" s="464"/>
+      <c r="N117" s="464"/>
+      <c r="O117" s="423" t="s">
         <v>481</v>
       </c>
-      <c r="P117" s="380"/>
-      <c r="Q117" s="380"/>
-      <c r="R117" s="380"/>
-      <c r="S117" s="380"/>
-      <c r="T117" s="435" t="s">
+      <c r="P117" s="381"/>
+      <c r="Q117" s="381"/>
+      <c r="R117" s="381"/>
+      <c r="S117" s="381"/>
+      <c r="T117" s="437" t="s">
         <v>481</v>
       </c>
       <c r="U117" s="364"/>
       <c r="V117" s="364"/>
       <c r="W117" s="364"/>
-      <c r="X117" s="388" t="s">
+      <c r="X117" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y117" s="389"/>
-      <c r="Z117" s="389"/>
-      <c r="AA117" s="389"/>
-      <c r="AB117" s="389"/>
-      <c r="AC117" s="389"/>
-      <c r="AD117" s="390"/>
-      <c r="AE117" s="388" t="s">
+      <c r="Y117" s="391"/>
+      <c r="Z117" s="391"/>
+      <c r="AA117" s="391"/>
+      <c r="AB117" s="391"/>
+      <c r="AC117" s="391"/>
+      <c r="AD117" s="392"/>
+      <c r="AE117" s="390" t="s">
         <v>488</v>
       </c>
-      <c r="AF117" s="457"/>
-      <c r="AG117" s="457"/>
-      <c r="AH117" s="458"/>
+      <c r="AF117" s="459"/>
+      <c r="AG117" s="459"/>
+      <c r="AH117" s="460"/>
       <c r="AN117" s="17"/>
       <c r="BR117" s="17"/>
     </row>
@@ -24312,43 +24282,43 @@
     <row r="126" spans="2:70">
       <c r="C126" s="42"/>
       <c r="D126" s="44"/>
-      <c r="F126" s="459" t="s">
+      <c r="F126" s="383" t="s">
         <v>367</v>
       </c>
-      <c r="G126" s="460"/>
-      <c r="H126" s="461"/>
-      <c r="I126" s="462" t="s">
+      <c r="G126" s="384"/>
+      <c r="H126" s="385"/>
+      <c r="I126" s="461" t="s">
         <v>371</v>
       </c>
-      <c r="J126" s="463"/>
-      <c r="K126" s="463"/>
-      <c r="L126" s="463"/>
-      <c r="M126" s="464"/>
-      <c r="N126" s="459" t="s">
+      <c r="J126" s="462"/>
+      <c r="K126" s="462"/>
+      <c r="L126" s="462"/>
+      <c r="M126" s="463"/>
+      <c r="N126" s="383" t="s">
         <v>332</v>
       </c>
-      <c r="O126" s="460"/>
-      <c r="P126" s="461"/>
-      <c r="Q126" s="462" t="s">
+      <c r="O126" s="384"/>
+      <c r="P126" s="385"/>
+      <c r="Q126" s="461" t="s">
         <v>372</v>
       </c>
-      <c r="R126" s="463"/>
-      <c r="S126" s="463"/>
-      <c r="T126" s="463"/>
-      <c r="U126" s="463"/>
-      <c r="V126" s="463"/>
-      <c r="W126" s="463"/>
-      <c r="X126" s="463"/>
-      <c r="Y126" s="463"/>
-      <c r="Z126" s="463"/>
-      <c r="AA126" s="463"/>
-      <c r="AB126" s="463"/>
-      <c r="AC126" s="463"/>
-      <c r="AD126" s="463"/>
-      <c r="AE126" s="463"/>
-      <c r="AF126" s="463"/>
-      <c r="AG126" s="463"/>
-      <c r="AH126" s="464"/>
+      <c r="R126" s="462"/>
+      <c r="S126" s="462"/>
+      <c r="T126" s="462"/>
+      <c r="U126" s="462"/>
+      <c r="V126" s="462"/>
+      <c r="W126" s="462"/>
+      <c r="X126" s="462"/>
+      <c r="Y126" s="462"/>
+      <c r="Z126" s="462"/>
+      <c r="AA126" s="462"/>
+      <c r="AB126" s="462"/>
+      <c r="AC126" s="462"/>
+      <c r="AD126" s="462"/>
+      <c r="AE126" s="462"/>
+      <c r="AF126" s="462"/>
+      <c r="AG126" s="462"/>
+      <c r="AH126" s="463"/>
       <c r="BM126" s="98"/>
       <c r="BN126" s="98"/>
       <c r="BO126" s="98"/>
@@ -24470,32 +24440,32 @@
       <c r="C130" s="42"/>
       <c r="D130" s="44"/>
       <c r="E130" s="44"/>
-      <c r="F130" s="466" t="s">
+      <c r="F130" s="465" t="s">
         <v>438</v>
       </c>
-      <c r="G130" s="382" t="s">
+      <c r="G130" s="467" t="s">
         <v>439</v>
       </c>
-      <c r="H130" s="382"/>
-      <c r="I130" s="382"/>
-      <c r="J130" s="382"/>
-      <c r="K130" s="382" t="s">
+      <c r="H130" s="467"/>
+      <c r="I130" s="467"/>
+      <c r="J130" s="467"/>
+      <c r="K130" s="467" t="s">
         <v>440</v>
       </c>
-      <c r="L130" s="382"/>
-      <c r="M130" s="382"/>
-      <c r="N130" s="382"/>
-      <c r="O130" s="430" t="s">
+      <c r="L130" s="467"/>
+      <c r="M130" s="467"/>
+      <c r="N130" s="467"/>
+      <c r="O130" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="P130" s="430"/>
-      <c r="Q130" s="430"/>
-      <c r="R130" s="430"/>
-      <c r="S130" s="430"/>
-      <c r="T130" s="430"/>
-      <c r="U130" s="430"/>
-      <c r="V130" s="430"/>
-      <c r="W130" s="430"/>
+      <c r="P130" s="432"/>
+      <c r="Q130" s="432"/>
+      <c r="R130" s="432"/>
+      <c r="S130" s="432"/>
+      <c r="T130" s="432"/>
+      <c r="U130" s="432"/>
+      <c r="V130" s="432"/>
+      <c r="W130" s="432"/>
       <c r="X130" s="468" t="s">
         <v>25</v>
       </c>
@@ -24519,22 +24489,22 @@
       <c r="C131" s="42"/>
       <c r="D131" s="44"/>
       <c r="E131" s="44"/>
-      <c r="F131" s="467"/>
-      <c r="G131" s="382"/>
-      <c r="H131" s="382"/>
-      <c r="I131" s="382"/>
-      <c r="J131" s="382"/>
-      <c r="K131" s="382"/>
-      <c r="L131" s="382"/>
-      <c r="M131" s="382"/>
-      <c r="N131" s="382"/>
-      <c r="O131" s="432" t="s">
+      <c r="F131" s="466"/>
+      <c r="G131" s="467"/>
+      <c r="H131" s="467"/>
+      <c r="I131" s="467"/>
+      <c r="J131" s="467"/>
+      <c r="K131" s="467"/>
+      <c r="L131" s="467"/>
+      <c r="M131" s="467"/>
+      <c r="N131" s="467"/>
+      <c r="O131" s="434" t="s">
         <v>498</v>
       </c>
-      <c r="P131" s="430"/>
-      <c r="Q131" s="430"/>
-      <c r="R131" s="430"/>
-      <c r="S131" s="430"/>
+      <c r="P131" s="432"/>
+      <c r="Q131" s="432"/>
+      <c r="R131" s="432"/>
+      <c r="S131" s="432"/>
       <c r="T131" s="369" t="s">
         <v>11</v>
       </c>
@@ -24548,10 +24518,10 @@
       <c r="AB131" s="472"/>
       <c r="AC131" s="472"/>
       <c r="AD131" s="473"/>
-      <c r="AE131" s="422"/>
-      <c r="AF131" s="423"/>
-      <c r="AG131" s="423"/>
-      <c r="AH131" s="424"/>
+      <c r="AE131" s="424"/>
+      <c r="AF131" s="425"/>
+      <c r="AG131" s="425"/>
+      <c r="AH131" s="426"/>
       <c r="BM131" s="98"/>
       <c r="BN131" s="98"/>
       <c r="BO131" s="98"/>
@@ -24563,44 +24533,44 @@
       <c r="F132" s="146">
         <v>1</v>
       </c>
-      <c r="G132" s="465" t="s">
+      <c r="G132" s="464" t="s">
         <v>509</v>
       </c>
-      <c r="H132" s="465"/>
-      <c r="I132" s="465"/>
-      <c r="J132" s="465"/>
-      <c r="K132" s="465" t="s">
+      <c r="H132" s="464"/>
+      <c r="I132" s="464"/>
+      <c r="J132" s="464"/>
+      <c r="K132" s="464" t="s">
         <v>489</v>
       </c>
-      <c r="L132" s="465"/>
-      <c r="M132" s="465"/>
-      <c r="N132" s="465"/>
-      <c r="O132" s="421" t="s">
+      <c r="L132" s="464"/>
+      <c r="M132" s="464"/>
+      <c r="N132" s="464"/>
+      <c r="O132" s="423" t="s">
         <v>495</v>
       </c>
-      <c r="P132" s="380"/>
-      <c r="Q132" s="380"/>
-      <c r="R132" s="380"/>
-      <c r="S132" s="380"/>
-      <c r="T132" s="435" t="s">
+      <c r="P132" s="381"/>
+      <c r="Q132" s="381"/>
+      <c r="R132" s="381"/>
+      <c r="S132" s="381"/>
+      <c r="T132" s="437" t="s">
         <v>499</v>
       </c>
       <c r="U132" s="364"/>
       <c r="V132" s="364"/>
       <c r="W132" s="364"/>
-      <c r="X132" s="388" t="s">
+      <c r="X132" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y132" s="389"/>
-      <c r="Z132" s="389"/>
-      <c r="AA132" s="389"/>
-      <c r="AB132" s="389"/>
-      <c r="AC132" s="389"/>
-      <c r="AD132" s="390"/>
-      <c r="AE132" s="388"/>
-      <c r="AF132" s="457"/>
-      <c r="AG132" s="457"/>
-      <c r="AH132" s="458"/>
+      <c r="Y132" s="391"/>
+      <c r="Z132" s="391"/>
+      <c r="AA132" s="391"/>
+      <c r="AB132" s="391"/>
+      <c r="AC132" s="391"/>
+      <c r="AD132" s="392"/>
+      <c r="AE132" s="390"/>
+      <c r="AF132" s="459"/>
+      <c r="AG132" s="459"/>
+      <c r="AH132" s="460"/>
       <c r="BM132" s="98"/>
       <c r="BN132" s="98"/>
       <c r="BO132" s="98"/>
@@ -24612,44 +24582,44 @@
       <c r="F133" s="146">
         <v>2</v>
       </c>
-      <c r="G133" s="465" t="s">
+      <c r="G133" s="464" t="s">
         <v>510</v>
       </c>
-      <c r="H133" s="465"/>
-      <c r="I133" s="465"/>
-      <c r="J133" s="465"/>
-      <c r="K133" s="465" t="s">
+      <c r="H133" s="464"/>
+      <c r="I133" s="464"/>
+      <c r="J133" s="464"/>
+      <c r="K133" s="464" t="s">
         <v>490</v>
       </c>
-      <c r="L133" s="465"/>
-      <c r="M133" s="465"/>
-      <c r="N133" s="465"/>
-      <c r="O133" s="421" t="s">
+      <c r="L133" s="464"/>
+      <c r="M133" s="464"/>
+      <c r="N133" s="464"/>
+      <c r="O133" s="423" t="s">
         <v>445</v>
       </c>
-      <c r="P133" s="380"/>
-      <c r="Q133" s="380"/>
-      <c r="R133" s="380"/>
-      <c r="S133" s="380"/>
-      <c r="T133" s="435" t="s">
+      <c r="P133" s="381"/>
+      <c r="Q133" s="381"/>
+      <c r="R133" s="381"/>
+      <c r="S133" s="381"/>
+      <c r="T133" s="437" t="s">
         <v>500</v>
       </c>
       <c r="U133" s="364"/>
       <c r="V133" s="364"/>
       <c r="W133" s="364"/>
-      <c r="X133" s="388" t="s">
+      <c r="X133" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y133" s="389"/>
-      <c r="Z133" s="389"/>
-      <c r="AA133" s="389"/>
-      <c r="AB133" s="389"/>
-      <c r="AC133" s="389"/>
-      <c r="AD133" s="390"/>
-      <c r="AE133" s="388"/>
-      <c r="AF133" s="457"/>
-      <c r="AG133" s="457"/>
-      <c r="AH133" s="458"/>
+      <c r="Y133" s="391"/>
+      <c r="Z133" s="391"/>
+      <c r="AA133" s="391"/>
+      <c r="AB133" s="391"/>
+      <c r="AC133" s="391"/>
+      <c r="AD133" s="392"/>
+      <c r="AE133" s="390"/>
+      <c r="AF133" s="459"/>
+      <c r="AG133" s="459"/>
+      <c r="AH133" s="460"/>
       <c r="BM133" s="98"/>
       <c r="BN133" s="98"/>
       <c r="BO133" s="98"/>
@@ -24661,44 +24631,44 @@
       <c r="F134" s="146">
         <v>3</v>
       </c>
-      <c r="G134" s="465" t="s">
+      <c r="G134" s="464" t="s">
         <v>511</v>
       </c>
-      <c r="H134" s="465"/>
-      <c r="I134" s="465"/>
-      <c r="J134" s="465"/>
-      <c r="K134" s="465" t="s">
+      <c r="H134" s="464"/>
+      <c r="I134" s="464"/>
+      <c r="J134" s="464"/>
+      <c r="K134" s="464" t="s">
         <v>491</v>
       </c>
-      <c r="L134" s="465"/>
-      <c r="M134" s="465"/>
-      <c r="N134" s="465"/>
-      <c r="O134" s="421" t="s">
+      <c r="L134" s="464"/>
+      <c r="M134" s="464"/>
+      <c r="N134" s="464"/>
+      <c r="O134" s="423" t="s">
         <v>496</v>
       </c>
-      <c r="P134" s="380"/>
-      <c r="Q134" s="380"/>
-      <c r="R134" s="380"/>
-      <c r="S134" s="380"/>
-      <c r="T134" s="435" t="s">
+      <c r="P134" s="381"/>
+      <c r="Q134" s="381"/>
+      <c r="R134" s="381"/>
+      <c r="S134" s="381"/>
+      <c r="T134" s="437" t="s">
         <v>501</v>
       </c>
       <c r="U134" s="364"/>
       <c r="V134" s="364"/>
       <c r="W134" s="364"/>
-      <c r="X134" s="388" t="s">
+      <c r="X134" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y134" s="389"/>
-      <c r="Z134" s="389"/>
-      <c r="AA134" s="389"/>
-      <c r="AB134" s="389"/>
-      <c r="AC134" s="389"/>
-      <c r="AD134" s="390"/>
-      <c r="AE134" s="388"/>
-      <c r="AF134" s="457"/>
-      <c r="AG134" s="457"/>
-      <c r="AH134" s="458"/>
+      <c r="Y134" s="391"/>
+      <c r="Z134" s="391"/>
+      <c r="AA134" s="391"/>
+      <c r="AB134" s="391"/>
+      <c r="AC134" s="391"/>
+      <c r="AD134" s="392"/>
+      <c r="AE134" s="390"/>
+      <c r="AF134" s="459"/>
+      <c r="AG134" s="459"/>
+      <c r="AH134" s="460"/>
       <c r="BM134" s="98"/>
       <c r="BN134" s="98"/>
       <c r="BO134" s="98"/>
@@ -24710,44 +24680,44 @@
       <c r="F135" s="146">
         <v>4</v>
       </c>
-      <c r="G135" s="465" t="s">
+      <c r="G135" s="464" t="s">
         <v>512</v>
       </c>
-      <c r="H135" s="465"/>
-      <c r="I135" s="465"/>
-      <c r="J135" s="465"/>
-      <c r="K135" s="465" t="s">
+      <c r="H135" s="464"/>
+      <c r="I135" s="464"/>
+      <c r="J135" s="464"/>
+      <c r="K135" s="464" t="s">
         <v>492</v>
       </c>
-      <c r="L135" s="465"/>
-      <c r="M135" s="465"/>
-      <c r="N135" s="465"/>
-      <c r="O135" s="421" t="s">
+      <c r="L135" s="464"/>
+      <c r="M135" s="464"/>
+      <c r="N135" s="464"/>
+      <c r="O135" s="423" t="s">
         <v>445</v>
       </c>
-      <c r="P135" s="380"/>
-      <c r="Q135" s="380"/>
-      <c r="R135" s="380"/>
-      <c r="S135" s="380"/>
-      <c r="T135" s="435" t="s">
+      <c r="P135" s="381"/>
+      <c r="Q135" s="381"/>
+      <c r="R135" s="381"/>
+      <c r="S135" s="381"/>
+      <c r="T135" s="437" t="s">
         <v>502</v>
       </c>
       <c r="U135" s="364"/>
       <c r="V135" s="364"/>
       <c r="W135" s="364"/>
-      <c r="X135" s="388" t="s">
+      <c r="X135" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y135" s="389"/>
-      <c r="Z135" s="389"/>
-      <c r="AA135" s="389"/>
-      <c r="AB135" s="389"/>
-      <c r="AC135" s="389"/>
-      <c r="AD135" s="390"/>
-      <c r="AE135" s="388"/>
-      <c r="AF135" s="457"/>
-      <c r="AG135" s="457"/>
-      <c r="AH135" s="458"/>
+      <c r="Y135" s="391"/>
+      <c r="Z135" s="391"/>
+      <c r="AA135" s="391"/>
+      <c r="AB135" s="391"/>
+      <c r="AC135" s="391"/>
+      <c r="AD135" s="392"/>
+      <c r="AE135" s="390"/>
+      <c r="AF135" s="459"/>
+      <c r="AG135" s="459"/>
+      <c r="AH135" s="460"/>
       <c r="BM135" s="98"/>
       <c r="BN135" s="98"/>
       <c r="BO135" s="98"/>
@@ -24759,44 +24729,44 @@
       <c r="F136" s="146">
         <v>5</v>
       </c>
-      <c r="G136" s="465" t="s">
+      <c r="G136" s="464" t="s">
         <v>513</v>
       </c>
-      <c r="H136" s="465"/>
-      <c r="I136" s="465"/>
-      <c r="J136" s="465"/>
-      <c r="K136" s="465" t="s">
+      <c r="H136" s="464"/>
+      <c r="I136" s="464"/>
+      <c r="J136" s="464"/>
+      <c r="K136" s="464" t="s">
         <v>493</v>
       </c>
-      <c r="L136" s="465"/>
-      <c r="M136" s="465"/>
-      <c r="N136" s="465"/>
-      <c r="O136" s="421" t="s">
+      <c r="L136" s="464"/>
+      <c r="M136" s="464"/>
+      <c r="N136" s="464"/>
+      <c r="O136" s="423" t="s">
         <v>495</v>
       </c>
-      <c r="P136" s="380"/>
-      <c r="Q136" s="380"/>
-      <c r="R136" s="380"/>
-      <c r="S136" s="380"/>
-      <c r="T136" s="435" t="s">
+      <c r="P136" s="381"/>
+      <c r="Q136" s="381"/>
+      <c r="R136" s="381"/>
+      <c r="S136" s="381"/>
+      <c r="T136" s="437" t="s">
         <v>503</v>
       </c>
       <c r="U136" s="364"/>
       <c r="V136" s="364"/>
       <c r="W136" s="364"/>
-      <c r="X136" s="388" t="s">
+      <c r="X136" s="390" t="s">
         <v>506</v>
       </c>
-      <c r="Y136" s="389"/>
-      <c r="Z136" s="389"/>
-      <c r="AA136" s="389"/>
-      <c r="AB136" s="389"/>
-      <c r="AC136" s="389"/>
-      <c r="AD136" s="390"/>
-      <c r="AE136" s="388"/>
-      <c r="AF136" s="457"/>
-      <c r="AG136" s="457"/>
-      <c r="AH136" s="458"/>
+      <c r="Y136" s="391"/>
+      <c r="Z136" s="391"/>
+      <c r="AA136" s="391"/>
+      <c r="AB136" s="391"/>
+      <c r="AC136" s="391"/>
+      <c r="AD136" s="392"/>
+      <c r="AE136" s="390"/>
+      <c r="AF136" s="459"/>
+      <c r="AG136" s="459"/>
+      <c r="AH136" s="460"/>
       <c r="BM136" s="98"/>
       <c r="BN136" s="98"/>
       <c r="BO136" s="98"/>
@@ -24808,44 +24778,44 @@
       <c r="F137" s="146">
         <v>6</v>
       </c>
-      <c r="G137" s="465" t="s">
+      <c r="G137" s="464" t="s">
         <v>515</v>
       </c>
-      <c r="H137" s="465"/>
-      <c r="I137" s="465"/>
-      <c r="J137" s="465"/>
-      <c r="K137" s="465" t="s">
+      <c r="H137" s="464"/>
+      <c r="I137" s="464"/>
+      <c r="J137" s="464"/>
+      <c r="K137" s="464" t="s">
         <v>514</v>
       </c>
-      <c r="L137" s="465"/>
-      <c r="M137" s="465"/>
-      <c r="N137" s="465"/>
-      <c r="O137" s="421" t="s">
+      <c r="L137" s="464"/>
+      <c r="M137" s="464"/>
+      <c r="N137" s="464"/>
+      <c r="O137" s="423" t="s">
         <v>445</v>
       </c>
-      <c r="P137" s="380"/>
-      <c r="Q137" s="380"/>
-      <c r="R137" s="380"/>
-      <c r="S137" s="380"/>
-      <c r="T137" s="435" t="s">
+      <c r="P137" s="381"/>
+      <c r="Q137" s="381"/>
+      <c r="R137" s="381"/>
+      <c r="S137" s="381"/>
+      <c r="T137" s="437" t="s">
         <v>504</v>
       </c>
       <c r="U137" s="364"/>
       <c r="V137" s="364"/>
       <c r="W137" s="364"/>
-      <c r="X137" s="388" t="s">
+      <c r="X137" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y137" s="389"/>
-      <c r="Z137" s="389"/>
-      <c r="AA137" s="389"/>
-      <c r="AB137" s="389"/>
-      <c r="AC137" s="389"/>
-      <c r="AD137" s="390"/>
-      <c r="AE137" s="388"/>
-      <c r="AF137" s="457"/>
-      <c r="AG137" s="457"/>
-      <c r="AH137" s="458"/>
+      <c r="Y137" s="391"/>
+      <c r="Z137" s="391"/>
+      <c r="AA137" s="391"/>
+      <c r="AB137" s="391"/>
+      <c r="AC137" s="391"/>
+      <c r="AD137" s="392"/>
+      <c r="AE137" s="390"/>
+      <c r="AF137" s="459"/>
+      <c r="AG137" s="459"/>
+      <c r="AH137" s="460"/>
       <c r="BM137" s="98"/>
       <c r="BN137" s="98"/>
       <c r="BO137" s="98"/>
@@ -24857,46 +24827,46 @@
       <c r="F138" s="146">
         <v>7</v>
       </c>
-      <c r="G138" s="465" t="s">
+      <c r="G138" s="464" t="s">
         <v>516</v>
       </c>
-      <c r="H138" s="465"/>
-      <c r="I138" s="465"/>
-      <c r="J138" s="465"/>
-      <c r="K138" s="465" t="s">
+      <c r="H138" s="464"/>
+      <c r="I138" s="464"/>
+      <c r="J138" s="464"/>
+      <c r="K138" s="464" t="s">
         <v>494</v>
       </c>
-      <c r="L138" s="465"/>
-      <c r="M138" s="465"/>
-      <c r="N138" s="465"/>
-      <c r="O138" s="421" t="s">
+      <c r="L138" s="464"/>
+      <c r="M138" s="464"/>
+      <c r="N138" s="464"/>
+      <c r="O138" s="423" t="s">
         <v>497</v>
       </c>
-      <c r="P138" s="380"/>
-      <c r="Q138" s="380"/>
-      <c r="R138" s="380"/>
-      <c r="S138" s="380"/>
-      <c r="T138" s="435" t="s">
+      <c r="P138" s="381"/>
+      <c r="Q138" s="381"/>
+      <c r="R138" s="381"/>
+      <c r="S138" s="381"/>
+      <c r="T138" s="437" t="s">
         <v>505</v>
       </c>
       <c r="U138" s="364"/>
       <c r="V138" s="364"/>
       <c r="W138" s="364"/>
-      <c r="X138" s="388" t="s">
+      <c r="X138" s="390" t="s">
         <v>507</v>
       </c>
-      <c r="Y138" s="389"/>
-      <c r="Z138" s="389"/>
-      <c r="AA138" s="389"/>
-      <c r="AB138" s="389"/>
-      <c r="AC138" s="389"/>
-      <c r="AD138" s="390"/>
-      <c r="AE138" s="388" t="s">
+      <c r="Y138" s="391"/>
+      <c r="Z138" s="391"/>
+      <c r="AA138" s="391"/>
+      <c r="AB138" s="391"/>
+      <c r="AC138" s="391"/>
+      <c r="AD138" s="392"/>
+      <c r="AE138" s="390" t="s">
         <v>508</v>
       </c>
-      <c r="AF138" s="457"/>
-      <c r="AG138" s="457"/>
-      <c r="AH138" s="458"/>
+      <c r="AF138" s="459"/>
+      <c r="AG138" s="459"/>
+      <c r="AH138" s="460"/>
       <c r="BM138" s="98"/>
       <c r="BN138" s="98"/>
       <c r="BO138" s="98"/>
@@ -25123,43 +25093,43 @@
       <c r="C146" s="42"/>
       <c r="D146" s="44"/>
       <c r="E146" s="18"/>
-      <c r="F146" s="459" t="s">
+      <c r="F146" s="383" t="s">
         <v>364</v>
       </c>
-      <c r="G146" s="460"/>
-      <c r="H146" s="461"/>
-      <c r="I146" s="462" t="s">
+      <c r="G146" s="384"/>
+      <c r="H146" s="385"/>
+      <c r="I146" s="461" t="s">
         <v>363</v>
       </c>
-      <c r="J146" s="463"/>
-      <c r="K146" s="463"/>
-      <c r="L146" s="463"/>
-      <c r="M146" s="464"/>
-      <c r="N146" s="459" t="s">
+      <c r="J146" s="462"/>
+      <c r="K146" s="462"/>
+      <c r="L146" s="462"/>
+      <c r="M146" s="463"/>
+      <c r="N146" s="383" t="s">
         <v>365</v>
       </c>
-      <c r="O146" s="460"/>
-      <c r="P146" s="461"/>
-      <c r="Q146" s="462" t="s">
+      <c r="O146" s="384"/>
+      <c r="P146" s="385"/>
+      <c r="Q146" s="461" t="s">
         <v>538</v>
       </c>
-      <c r="R146" s="463"/>
-      <c r="S146" s="463"/>
-      <c r="T146" s="463"/>
-      <c r="U146" s="463"/>
-      <c r="V146" s="463"/>
-      <c r="W146" s="463"/>
-      <c r="X146" s="463"/>
-      <c r="Y146" s="463"/>
-      <c r="Z146" s="463"/>
-      <c r="AA146" s="463"/>
-      <c r="AB146" s="463"/>
-      <c r="AC146" s="463"/>
-      <c r="AD146" s="463"/>
-      <c r="AE146" s="463"/>
-      <c r="AF146" s="463"/>
-      <c r="AG146" s="463"/>
-      <c r="AH146" s="464"/>
+      <c r="R146" s="462"/>
+      <c r="S146" s="462"/>
+      <c r="T146" s="462"/>
+      <c r="U146" s="462"/>
+      <c r="V146" s="462"/>
+      <c r="W146" s="462"/>
+      <c r="X146" s="462"/>
+      <c r="Y146" s="462"/>
+      <c r="Z146" s="462"/>
+      <c r="AA146" s="462"/>
+      <c r="AB146" s="462"/>
+      <c r="AC146" s="462"/>
+      <c r="AD146" s="462"/>
+      <c r="AE146" s="462"/>
+      <c r="AF146" s="462"/>
+      <c r="AG146" s="462"/>
+      <c r="AH146" s="463"/>
     </row>
     <row r="147" spans="3:67">
       <c r="C147" s="42"/>
@@ -25337,32 +25307,32 @@
       <c r="C152" s="42"/>
       <c r="D152" s="44"/>
       <c r="E152" s="44"/>
-      <c r="F152" s="466" t="s">
+      <c r="F152" s="465" t="s">
         <v>438</v>
       </c>
-      <c r="G152" s="382" t="s">
+      <c r="G152" s="467" t="s">
         <v>439</v>
       </c>
-      <c r="H152" s="382"/>
-      <c r="I152" s="382"/>
-      <c r="J152" s="382"/>
-      <c r="K152" s="382" t="s">
+      <c r="H152" s="467"/>
+      <c r="I152" s="467"/>
+      <c r="J152" s="467"/>
+      <c r="K152" s="467" t="s">
         <v>440</v>
       </c>
-      <c r="L152" s="382"/>
-      <c r="M152" s="382"/>
-      <c r="N152" s="382"/>
-      <c r="O152" s="430" t="s">
+      <c r="L152" s="467"/>
+      <c r="M152" s="467"/>
+      <c r="N152" s="467"/>
+      <c r="O152" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="P152" s="430"/>
-      <c r="Q152" s="430"/>
-      <c r="R152" s="430"/>
-      <c r="S152" s="430"/>
-      <c r="T152" s="430"/>
-      <c r="U152" s="430"/>
-      <c r="V152" s="430"/>
-      <c r="W152" s="430"/>
+      <c r="P152" s="432"/>
+      <c r="Q152" s="432"/>
+      <c r="R152" s="432"/>
+      <c r="S152" s="432"/>
+      <c r="T152" s="432"/>
+      <c r="U152" s="432"/>
+      <c r="V152" s="432"/>
+      <c r="W152" s="432"/>
       <c r="X152" s="468" t="s">
         <v>25</v>
       </c>
@@ -25386,22 +25356,22 @@
       <c r="C153" s="42"/>
       <c r="D153" s="44"/>
       <c r="E153" s="44"/>
-      <c r="F153" s="467"/>
-      <c r="G153" s="382"/>
-      <c r="H153" s="382"/>
-      <c r="I153" s="382"/>
-      <c r="J153" s="382"/>
-      <c r="K153" s="382"/>
-      <c r="L153" s="382"/>
-      <c r="M153" s="382"/>
-      <c r="N153" s="382"/>
-      <c r="O153" s="432" t="s">
+      <c r="F153" s="466"/>
+      <c r="G153" s="467"/>
+      <c r="H153" s="467"/>
+      <c r="I153" s="467"/>
+      <c r="J153" s="467"/>
+      <c r="K153" s="467"/>
+      <c r="L153" s="467"/>
+      <c r="M153" s="467"/>
+      <c r="N153" s="467"/>
+      <c r="O153" s="434" t="s">
         <v>498</v>
       </c>
-      <c r="P153" s="430"/>
-      <c r="Q153" s="430"/>
-      <c r="R153" s="430"/>
-      <c r="S153" s="430"/>
+      <c r="P153" s="432"/>
+      <c r="Q153" s="432"/>
+      <c r="R153" s="432"/>
+      <c r="S153" s="432"/>
       <c r="T153" s="369" t="s">
         <v>11</v>
       </c>
@@ -25415,10 +25385,10 @@
       <c r="AB153" s="472"/>
       <c r="AC153" s="472"/>
       <c r="AD153" s="473"/>
-      <c r="AE153" s="422"/>
-      <c r="AF153" s="423"/>
-      <c r="AG153" s="423"/>
-      <c r="AH153" s="424"/>
+      <c r="AE153" s="424"/>
+      <c r="AF153" s="425"/>
+      <c r="AG153" s="425"/>
+      <c r="AH153" s="426"/>
       <c r="BM153" s="98"/>
       <c r="BN153" s="98"/>
       <c r="BO153" s="98"/>
@@ -25430,12 +25400,12 @@
       <c r="F154" s="167">
         <v>1</v>
       </c>
-      <c r="G154" s="462" t="s">
+      <c r="G154" s="461" t="s">
         <v>543</v>
       </c>
-      <c r="H154" s="463"/>
-      <c r="I154" s="463"/>
-      <c r="J154" s="464"/>
+      <c r="H154" s="462"/>
+      <c r="I154" s="462"/>
+      <c r="J154" s="463"/>
       <c r="K154" s="488" t="s">
         <v>545</v>
       </c>
@@ -25464,12 +25434,12 @@
       <c r="AB154" s="489"/>
       <c r="AC154" s="489"/>
       <c r="AD154" s="490"/>
-      <c r="AE154" s="456" t="s">
+      <c r="AE154" s="458" t="s">
         <v>554</v>
       </c>
-      <c r="AF154" s="457"/>
-      <c r="AG154" s="457"/>
-      <c r="AH154" s="458"/>
+      <c r="AF154" s="459"/>
+      <c r="AG154" s="459"/>
+      <c r="AH154" s="460"/>
       <c r="BM154" s="98"/>
       <c r="BN154" s="98"/>
       <c r="BO154" s="98"/>
@@ -25481,12 +25451,12 @@
       <c r="F155" s="167">
         <v>2</v>
       </c>
-      <c r="G155" s="462" t="s">
+      <c r="G155" s="461" t="s">
         <v>543</v>
       </c>
-      <c r="H155" s="463"/>
-      <c r="I155" s="463"/>
-      <c r="J155" s="464"/>
+      <c r="H155" s="462"/>
+      <c r="I155" s="462"/>
+      <c r="J155" s="463"/>
       <c r="K155" s="488" t="s">
         <v>546</v>
       </c>
@@ -25515,12 +25485,12 @@
       <c r="AB155" s="489"/>
       <c r="AC155" s="489"/>
       <c r="AD155" s="490"/>
-      <c r="AE155" s="456" t="s">
+      <c r="AE155" s="458" t="s">
         <v>554</v>
       </c>
-      <c r="AF155" s="457"/>
-      <c r="AG155" s="457"/>
-      <c r="AH155" s="458"/>
+      <c r="AF155" s="459"/>
+      <c r="AG155" s="459"/>
+      <c r="AH155" s="460"/>
       <c r="BM155" s="98"/>
       <c r="BN155" s="98"/>
       <c r="BO155" s="98"/>
@@ -25532,12 +25502,12 @@
       <c r="F156" s="167">
         <v>3</v>
       </c>
-      <c r="G156" s="462" t="s">
+      <c r="G156" s="461" t="s">
         <v>544</v>
       </c>
-      <c r="H156" s="463"/>
-      <c r="I156" s="463"/>
-      <c r="J156" s="464"/>
+      <c r="H156" s="462"/>
+      <c r="I156" s="462"/>
+      <c r="J156" s="463"/>
       <c r="K156" s="488" t="s">
         <v>547</v>
       </c>
@@ -25557,19 +25527,19 @@
       <c r="U156" s="477"/>
       <c r="V156" s="477"/>
       <c r="W156" s="478"/>
-      <c r="X156" s="462" t="s">
+      <c r="X156" s="461" t="s">
         <v>550</v>
       </c>
-      <c r="Y156" s="463"/>
-      <c r="Z156" s="463"/>
-      <c r="AA156" s="463"/>
-      <c r="AB156" s="463"/>
-      <c r="AC156" s="463"/>
-      <c r="AD156" s="464"/>
+      <c r="Y156" s="462"/>
+      <c r="Z156" s="462"/>
+      <c r="AA156" s="462"/>
+      <c r="AB156" s="462"/>
+      <c r="AC156" s="462"/>
+      <c r="AD156" s="463"/>
       <c r="AE156" s="493"/>
-      <c r="AF156" s="454"/>
-      <c r="AG156" s="454"/>
-      <c r="AH156" s="455"/>
+      <c r="AF156" s="456"/>
+      <c r="AG156" s="456"/>
+      <c r="AH156" s="457"/>
       <c r="BM156" s="98"/>
       <c r="BN156" s="98"/>
       <c r="BO156" s="98"/>
@@ -25581,12 +25551,12 @@
       <c r="F157" s="167">
         <v>4</v>
       </c>
-      <c r="G157" s="462" t="s">
+      <c r="G157" s="461" t="s">
         <v>543</v>
       </c>
-      <c r="H157" s="463"/>
-      <c r="I157" s="463"/>
-      <c r="J157" s="464"/>
+      <c r="H157" s="462"/>
+      <c r="I157" s="462"/>
+      <c r="J157" s="463"/>
       <c r="K157" s="488" t="s">
         <v>548</v>
       </c>
@@ -25606,19 +25576,19 @@
       <c r="U157" s="477"/>
       <c r="V157" s="477"/>
       <c r="W157" s="478"/>
-      <c r="X157" s="462" t="s">
+      <c r="X157" s="461" t="s">
         <v>551</v>
       </c>
-      <c r="Y157" s="463"/>
-      <c r="Z157" s="463"/>
-      <c r="AA157" s="463"/>
-      <c r="AB157" s="463"/>
-      <c r="AC157" s="463"/>
-      <c r="AD157" s="464"/>
+      <c r="Y157" s="462"/>
+      <c r="Z157" s="462"/>
+      <c r="AA157" s="462"/>
+      <c r="AB157" s="462"/>
+      <c r="AC157" s="462"/>
+      <c r="AD157" s="463"/>
       <c r="AE157" s="493"/>
-      <c r="AF157" s="454"/>
-      <c r="AG157" s="454"/>
-      <c r="AH157" s="455"/>
+      <c r="AF157" s="456"/>
+      <c r="AG157" s="456"/>
+      <c r="AH157" s="457"/>
       <c r="BM157" s="98"/>
       <c r="BN157" s="98"/>
       <c r="BO157" s="98"/>
@@ -25630,44 +25600,44 @@
       <c r="F158" s="167">
         <v>5</v>
       </c>
-      <c r="G158" s="465" t="s">
+      <c r="G158" s="464" t="s">
         <v>519</v>
       </c>
-      <c r="H158" s="465"/>
-      <c r="I158" s="465"/>
-      <c r="J158" s="465"/>
-      <c r="K158" s="465" t="s">
+      <c r="H158" s="464"/>
+      <c r="I158" s="464"/>
+      <c r="J158" s="464"/>
+      <c r="K158" s="464" t="s">
         <v>517</v>
       </c>
-      <c r="L158" s="465"/>
-      <c r="M158" s="465"/>
-      <c r="N158" s="465"/>
-      <c r="O158" s="421" t="s">
+      <c r="L158" s="464"/>
+      <c r="M158" s="464"/>
+      <c r="N158" s="464"/>
+      <c r="O158" s="423" t="s">
         <v>521</v>
       </c>
-      <c r="P158" s="380"/>
-      <c r="Q158" s="380"/>
-      <c r="R158" s="380"/>
-      <c r="S158" s="380"/>
-      <c r="T158" s="435" t="s">
+      <c r="P158" s="381"/>
+      <c r="Q158" s="381"/>
+      <c r="R158" s="381"/>
+      <c r="S158" s="381"/>
+      <c r="T158" s="437" t="s">
         <v>521</v>
       </c>
       <c r="U158" s="364"/>
       <c r="V158" s="364"/>
       <c r="W158" s="364"/>
-      <c r="X158" s="388" t="s">
+      <c r="X158" s="390" t="s">
         <v>523</v>
       </c>
-      <c r="Y158" s="389"/>
-      <c r="Z158" s="389"/>
-      <c r="AA158" s="389"/>
-      <c r="AB158" s="389"/>
-      <c r="AC158" s="389"/>
-      <c r="AD158" s="390"/>
-      <c r="AE158" s="388"/>
-      <c r="AF158" s="457"/>
-      <c r="AG158" s="457"/>
-      <c r="AH158" s="458"/>
+      <c r="Y158" s="391"/>
+      <c r="Z158" s="391"/>
+      <c r="AA158" s="391"/>
+      <c r="AB158" s="391"/>
+      <c r="AC158" s="391"/>
+      <c r="AD158" s="392"/>
+      <c r="AE158" s="390"/>
+      <c r="AF158" s="459"/>
+      <c r="AG158" s="459"/>
+      <c r="AH158" s="460"/>
       <c r="BM158" s="98"/>
       <c r="BN158" s="98"/>
       <c r="BO158" s="98"/>
@@ -25679,44 +25649,44 @@
       <c r="F159" s="167">
         <v>6</v>
       </c>
-      <c r="G159" s="465" t="s">
+      <c r="G159" s="464" t="s">
         <v>520</v>
       </c>
-      <c r="H159" s="465"/>
-      <c r="I159" s="465"/>
-      <c r="J159" s="465"/>
-      <c r="K159" s="465" t="s">
+      <c r="H159" s="464"/>
+      <c r="I159" s="464"/>
+      <c r="J159" s="464"/>
+      <c r="K159" s="464" t="s">
         <v>518</v>
       </c>
-      <c r="L159" s="465"/>
-      <c r="M159" s="465"/>
-      <c r="N159" s="465"/>
-      <c r="O159" s="421" t="s">
+      <c r="L159" s="464"/>
+      <c r="M159" s="464"/>
+      <c r="N159" s="464"/>
+      <c r="O159" s="423" t="s">
         <v>521</v>
       </c>
-      <c r="P159" s="380"/>
-      <c r="Q159" s="380"/>
-      <c r="R159" s="380"/>
-      <c r="S159" s="380"/>
-      <c r="T159" s="435" t="s">
+      <c r="P159" s="381"/>
+      <c r="Q159" s="381"/>
+      <c r="R159" s="381"/>
+      <c r="S159" s="381"/>
+      <c r="T159" s="437" t="s">
         <v>522</v>
       </c>
       <c r="U159" s="364"/>
       <c r="V159" s="364"/>
       <c r="W159" s="364"/>
-      <c r="X159" s="388" t="s">
+      <c r="X159" s="390" t="s">
         <v>524</v>
       </c>
-      <c r="Y159" s="389"/>
-      <c r="Z159" s="389"/>
-      <c r="AA159" s="389"/>
-      <c r="AB159" s="389"/>
-      <c r="AC159" s="389"/>
-      <c r="AD159" s="390"/>
-      <c r="AE159" s="388"/>
-      <c r="AF159" s="457"/>
-      <c r="AG159" s="457"/>
-      <c r="AH159" s="458"/>
+      <c r="Y159" s="391"/>
+      <c r="Z159" s="391"/>
+      <c r="AA159" s="391"/>
+      <c r="AB159" s="391"/>
+      <c r="AC159" s="391"/>
+      <c r="AD159" s="392"/>
+      <c r="AE159" s="390"/>
+      <c r="AF159" s="459"/>
+      <c r="AG159" s="459"/>
+      <c r="AH159" s="460"/>
       <c r="BM159" s="98"/>
       <c r="BN159" s="98"/>
       <c r="BO159" s="98"/>
@@ -31704,13 +31674,13 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1"/>
     <row r="10" spans="1:38" s="19" customFormat="1">
-      <c r="D10" s="403" t="s">
+      <c r="D10" s="405" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="404"/>
-      <c r="F10" s="404"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="405"/>
+      <c r="E10" s="406"/>
+      <c r="F10" s="406"/>
+      <c r="G10" s="406"/>
+      <c r="H10" s="407"/>
       <c r="I10" s="212" t="s">
         <v>135</v>
       </c>
@@ -31742,13 +31712,13 @@
       <c r="AI10" s="51"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1">
-      <c r="D11" s="403" t="s">
+      <c r="D11" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="404"/>
-      <c r="F11" s="404"/>
-      <c r="G11" s="404"/>
-      <c r="H11" s="405"/>
+      <c r="E11" s="406"/>
+      <c r="F11" s="406"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="407"/>
       <c r="I11" s="212" t="s">
         <v>136</v>
       </c>
@@ -31780,13 +31750,13 @@
       <c r="AI11" s="51"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1">
-      <c r="D12" s="403" t="s">
+      <c r="D12" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="404"/>
-      <c r="H12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="406"/>
+      <c r="H12" s="407"/>
       <c r="I12" s="212" t="s">
         <v>137</v>
       </c>
@@ -31897,54 +31867,54 @@
       <c r="D17" s="181" t="s">
         <v>575</v>
       </c>
-      <c r="E17" s="400" t="s">
+      <c r="E17" s="402" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="401"/>
-      <c r="G17" s="401"/>
-      <c r="H17" s="401"/>
-      <c r="I17" s="401"/>
-      <c r="J17" s="402"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="404"/>
       <c r="K17" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="400" t="s">
+      <c r="L17" s="402" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="401"/>
-      <c r="N17" s="401"/>
-      <c r="O17" s="401"/>
-      <c r="P17" s="402"/>
-      <c r="Q17" s="400" t="s">
+      <c r="M17" s="403"/>
+      <c r="N17" s="403"/>
+      <c r="O17" s="403"/>
+      <c r="P17" s="404"/>
+      <c r="Q17" s="402" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="401"/>
-      <c r="S17" s="401"/>
-      <c r="T17" s="401"/>
-      <c r="U17" s="401"/>
-      <c r="V17" s="401"/>
-      <c r="W17" s="401"/>
-      <c r="X17" s="401"/>
-      <c r="Y17" s="401"/>
-      <c r="Z17" s="401"/>
-      <c r="AA17" s="401"/>
-      <c r="AB17" s="401"/>
-      <c r="AC17" s="401"/>
-      <c r="AD17" s="401"/>
-      <c r="AE17" s="401"/>
-      <c r="AF17" s="401"/>
-      <c r="AG17" s="401"/>
-      <c r="AH17" s="402"/>
+      <c r="R17" s="403"/>
+      <c r="S17" s="403"/>
+      <c r="T17" s="403"/>
+      <c r="U17" s="403"/>
+      <c r="V17" s="403"/>
+      <c r="W17" s="403"/>
+      <c r="X17" s="403"/>
+      <c r="Y17" s="403"/>
+      <c r="Z17" s="403"/>
+      <c r="AA17" s="403"/>
+      <c r="AB17" s="403"/>
+      <c r="AC17" s="403"/>
+      <c r="AD17" s="403"/>
+      <c r="AE17" s="403"/>
+      <c r="AF17" s="403"/>
+      <c r="AG17" s="403"/>
+      <c r="AH17" s="404"/>
       <c r="AI17" s="110"/>
       <c r="AJ17" s="111"/>
-      <c r="AL17" s="400" t="s">
+      <c r="AL17" s="402" t="s">
         <v>16</v>
       </c>
-      <c r="AM17" s="401"/>
-      <c r="AN17" s="401"/>
-      <c r="AO17" s="401"/>
-      <c r="AP17" s="401"/>
-      <c r="AQ17" s="402"/>
+      <c r="AM17" s="403"/>
+      <c r="AN17" s="403"/>
+      <c r="AO17" s="403"/>
+      <c r="AP17" s="403"/>
+      <c r="AQ17" s="404"/>
     </row>
     <row r="18" spans="3:43" s="19" customFormat="1">
       <c r="D18" s="20">
@@ -32022,7 +31992,7 @@
       <c r="O19" s="213"/>
       <c r="P19" s="214"/>
       <c r="Q19" s="361" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="R19" s="213"/>
       <c r="S19" s="213"/>
@@ -32061,42 +32031,42 @@
       <c r="D24" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="371" t="s">
+      <c r="E24" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="372"/>
-      <c r="G24" s="373"/>
-      <c r="H24" s="374" t="s">
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
+      <c r="H24" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="375"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="371" t="s">
+      <c r="I24" s="376"/>
+      <c r="J24" s="377"/>
+      <c r="K24" s="372" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="372"/>
-      <c r="M24" s="372"/>
-      <c r="N24" s="372"/>
-      <c r="O24" s="372"/>
-      <c r="P24" s="372"/>
-      <c r="Q24" s="372"/>
-      <c r="R24" s="372"/>
-      <c r="S24" s="372"/>
-      <c r="T24" s="372"/>
-      <c r="U24" s="372"/>
-      <c r="V24" s="372"/>
-      <c r="W24" s="372"/>
-      <c r="X24" s="372"/>
-      <c r="Y24" s="372"/>
-      <c r="Z24" s="372"/>
-      <c r="AA24" s="372"/>
-      <c r="AB24" s="372"/>
-      <c r="AC24" s="372"/>
-      <c r="AD24" s="372"/>
-      <c r="AE24" s="372"/>
-      <c r="AF24" s="372"/>
-      <c r="AG24" s="372"/>
-      <c r="AH24" s="373"/>
+      <c r="L24" s="373"/>
+      <c r="M24" s="373"/>
+      <c r="N24" s="373"/>
+      <c r="O24" s="373"/>
+      <c r="P24" s="373"/>
+      <c r="Q24" s="373"/>
+      <c r="R24" s="373"/>
+      <c r="S24" s="373"/>
+      <c r="T24" s="373"/>
+      <c r="U24" s="373"/>
+      <c r="V24" s="373"/>
+      <c r="W24" s="373"/>
+      <c r="X24" s="373"/>
+      <c r="Y24" s="373"/>
+      <c r="Z24" s="373"/>
+      <c r="AA24" s="373"/>
+      <c r="AB24" s="373"/>
+      <c r="AC24" s="373"/>
+      <c r="AD24" s="373"/>
+      <c r="AE24" s="373"/>
+      <c r="AF24" s="373"/>
+      <c r="AG24" s="373"/>
+      <c r="AH24" s="374"/>
     </row>
     <row r="25" spans="3:43" ht="11.25" customHeight="1">
       <c r="D25" s="45">
@@ -32473,63 +32443,63 @@
       </c>
     </row>
     <row r="40" spans="3:34">
-      <c r="D40" s="398" t="s">
+      <c r="D40" s="400" t="s">
         <v>575</v>
       </c>
-      <c r="E40" s="392" t="s">
+      <c r="E40" s="394" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393"/>
-      <c r="J40" s="394"/>
-      <c r="K40" s="392" t="s">
+      <c r="F40" s="395"/>
+      <c r="G40" s="395"/>
+      <c r="H40" s="395"/>
+      <c r="I40" s="395"/>
+      <c r="J40" s="396"/>
+      <c r="K40" s="394" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="393"/>
-      <c r="M40" s="393"/>
-      <c r="N40" s="394"/>
-      <c r="O40" s="414" t="s">
+      <c r="L40" s="395"/>
+      <c r="M40" s="395"/>
+      <c r="N40" s="396"/>
+      <c r="O40" s="416" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="411" t="s">
+      <c r="P40" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="Q40" s="412"/>
-      <c r="R40" s="412"/>
-      <c r="S40" s="412"/>
-      <c r="T40" s="412"/>
-      <c r="U40" s="413"/>
-      <c r="V40" s="408" t="s">
+      <c r="Q40" s="414"/>
+      <c r="R40" s="414"/>
+      <c r="S40" s="414"/>
+      <c r="T40" s="414"/>
+      <c r="U40" s="415"/>
+      <c r="V40" s="410" t="s">
         <v>22</v>
       </c>
-      <c r="W40" s="408"/>
-      <c r="X40" s="408"/>
-      <c r="Y40" s="408"/>
-      <c r="Z40" s="408"/>
-      <c r="AA40" s="408"/>
-      <c r="AB40" s="408"/>
-      <c r="AC40" s="408"/>
-      <c r="AD40" s="408"/>
-      <c r="AE40" s="408"/>
-      <c r="AF40" s="408"/>
-      <c r="AG40" s="408"/>
-      <c r="AH40" s="408"/>
+      <c r="W40" s="410"/>
+      <c r="X40" s="410"/>
+      <c r="Y40" s="410"/>
+      <c r="Z40" s="410"/>
+      <c r="AA40" s="410"/>
+      <c r="AB40" s="410"/>
+      <c r="AC40" s="410"/>
+      <c r="AD40" s="410"/>
+      <c r="AE40" s="410"/>
+      <c r="AF40" s="410"/>
+      <c r="AG40" s="410"/>
+      <c r="AH40" s="410"/>
     </row>
     <row r="41" spans="3:34" s="19" customFormat="1">
-      <c r="D41" s="399"/>
-      <c r="E41" s="395"/>
-      <c r="F41" s="396"/>
-      <c r="G41" s="396"/>
-      <c r="H41" s="396"/>
-      <c r="I41" s="396"/>
-      <c r="J41" s="397"/>
-      <c r="K41" s="395"/>
-      <c r="L41" s="396"/>
-      <c r="M41" s="396"/>
-      <c r="N41" s="397"/>
-      <c r="O41" s="415"/>
+      <c r="D41" s="401"/>
+      <c r="E41" s="397"/>
+      <c r="F41" s="398"/>
+      <c r="G41" s="398"/>
+      <c r="H41" s="398"/>
+      <c r="I41" s="398"/>
+      <c r="J41" s="399"/>
+      <c r="K41" s="397"/>
+      <c r="L41" s="398"/>
+      <c r="M41" s="398"/>
+      <c r="N41" s="399"/>
+      <c r="O41" s="417"/>
       <c r="P41" s="50" t="s">
         <v>66</v>
       </c>
@@ -32542,23 +32512,23 @@
       <c r="S41" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="T41" s="409" t="s">
+      <c r="T41" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="U41" s="410"/>
-      <c r="V41" s="408"/>
-      <c r="W41" s="408"/>
-      <c r="X41" s="408"/>
-      <c r="Y41" s="408"/>
-      <c r="Z41" s="408"/>
-      <c r="AA41" s="408"/>
-      <c r="AB41" s="408"/>
-      <c r="AC41" s="408"/>
-      <c r="AD41" s="408"/>
-      <c r="AE41" s="408"/>
-      <c r="AF41" s="408"/>
-      <c r="AG41" s="408"/>
-      <c r="AH41" s="408"/>
+      <c r="U41" s="412"/>
+      <c r="V41" s="410"/>
+      <c r="W41" s="410"/>
+      <c r="X41" s="410"/>
+      <c r="Y41" s="410"/>
+      <c r="Z41" s="410"/>
+      <c r="AA41" s="410"/>
+      <c r="AB41" s="410"/>
+      <c r="AC41" s="410"/>
+      <c r="AD41" s="410"/>
+      <c r="AE41" s="410"/>
+      <c r="AF41" s="410"/>
+      <c r="AG41" s="410"/>
+      <c r="AH41" s="410"/>
     </row>
     <row r="42" spans="3:34" s="19" customFormat="1">
       <c r="D42" s="45">
@@ -32593,10 +32563,10 @@
       <c r="S42" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T42" s="406" t="s">
+      <c r="T42" s="408" t="s">
         <v>354</v>
       </c>
-      <c r="U42" s="407"/>
+      <c r="U42" s="409"/>
       <c r="V42" s="212"/>
       <c r="W42" s="213"/>
       <c r="X42" s="213"/>
@@ -32644,10 +32614,10 @@
       <c r="S43" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T43" s="406" t="s">
+      <c r="T43" s="408" t="s">
         <v>354</v>
       </c>
-      <c r="U43" s="407"/>
+      <c r="U43" s="409"/>
       <c r="V43" s="212"/>
       <c r="W43" s="213"/>
       <c r="X43" s="213"/>
@@ -32695,10 +32665,10 @@
       <c r="S44" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T44" s="406" t="s">
+      <c r="T44" s="408" t="s">
         <v>354</v>
       </c>
-      <c r="U44" s="407"/>
+      <c r="U44" s="409"/>
       <c r="V44" s="212"/>
       <c r="W44" s="213"/>
       <c r="X44" s="213"/>
@@ -32794,44 +32764,44 @@
       <c r="AJ51" s="98"/>
     </row>
     <row r="52" spans="2:36">
-      <c r="E52" s="459" t="s">
+      <c r="E52" s="383" t="s">
         <v>331</v>
       </c>
-      <c r="F52" s="460"/>
-      <c r="G52" s="461"/>
-      <c r="H52" s="383" t="s">
+      <c r="F52" s="384"/>
+      <c r="G52" s="385"/>
+      <c r="H52" s="386" t="s">
         <v>350</v>
       </c>
-      <c r="I52" s="383"/>
-      <c r="J52" s="383"/>
-      <c r="K52" s="383"/>
-      <c r="L52" s="383"/>
-      <c r="M52" s="459" t="s">
+      <c r="I52" s="386"/>
+      <c r="J52" s="386"/>
+      <c r="K52" s="386"/>
+      <c r="L52" s="386"/>
+      <c r="M52" s="383" t="s">
         <v>332</v>
       </c>
-      <c r="N52" s="460"/>
-      <c r="O52" s="461"/>
-      <c r="P52" s="383" t="s">
+      <c r="N52" s="384"/>
+      <c r="O52" s="385"/>
+      <c r="P52" s="386" t="s">
         <v>526</v>
       </c>
-      <c r="Q52" s="383"/>
-      <c r="R52" s="383"/>
-      <c r="S52" s="383"/>
-      <c r="T52" s="383"/>
-      <c r="U52" s="383"/>
-      <c r="V52" s="383"/>
-      <c r="W52" s="383"/>
-      <c r="X52" s="383"/>
-      <c r="Y52" s="383"/>
-      <c r="Z52" s="383"/>
-      <c r="AA52" s="383"/>
-      <c r="AB52" s="383"/>
-      <c r="AC52" s="383"/>
-      <c r="AD52" s="383"/>
-      <c r="AE52" s="383"/>
-      <c r="AF52" s="383"/>
-      <c r="AG52" s="383"/>
-      <c r="AH52" s="383"/>
+      <c r="Q52" s="386"/>
+      <c r="R52" s="386"/>
+      <c r="S52" s="386"/>
+      <c r="T52" s="386"/>
+      <c r="U52" s="386"/>
+      <c r="V52" s="386"/>
+      <c r="W52" s="386"/>
+      <c r="X52" s="386"/>
+      <c r="Y52" s="386"/>
+      <c r="Z52" s="386"/>
+      <c r="AA52" s="386"/>
+      <c r="AB52" s="386"/>
+      <c r="AC52" s="386"/>
+      <c r="AD52" s="386"/>
+      <c r="AE52" s="386"/>
+      <c r="AF52" s="386"/>
+      <c r="AG52" s="386"/>
+      <c r="AH52" s="386"/>
       <c r="AI52" s="24"/>
       <c r="AJ52" s="98"/>
     </row>
@@ -33003,14 +32973,14 @@
       <c r="E60" s="145">
         <v>2</v>
       </c>
-      <c r="F60" s="378" t="s">
+      <c r="F60" s="379" t="s">
         <v>377</v>
       </c>
-      <c r="G60" s="378"/>
-      <c r="H60" s="378"/>
-      <c r="I60" s="378"/>
-      <c r="J60" s="378"/>
-      <c r="K60" s="378"/>
+      <c r="G60" s="379"/>
+      <c r="H60" s="379"/>
+      <c r="I60" s="379"/>
+      <c r="J60" s="379"/>
+      <c r="K60" s="379"/>
       <c r="L60" s="362" t="s">
         <v>382</v>
       </c>
@@ -33047,11 +33017,11 @@
       </c>
     </row>
     <row r="65" spans="4:28">
-      <c r="E65" s="371" t="s">
+      <c r="E65" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="372"/>
-      <c r="G65" s="373"/>
+      <c r="F65" s="373"/>
+      <c r="G65" s="374"/>
       <c r="H65" s="369" t="s">
         <v>29</v>
       </c>
@@ -33170,54 +33140,54 @@
       <c r="Y76" s="369"/>
     </row>
     <row r="77" spans="4:28">
-      <c r="F77" s="378" t="s">
+      <c r="F77" s="379" t="s">
         <v>155</v>
       </c>
-      <c r="G77" s="378"/>
-      <c r="H77" s="378"/>
-      <c r="I77" s="378"/>
-      <c r="J77" s="378"/>
-      <c r="K77" s="378"/>
-      <c r="L77" s="378"/>
-      <c r="M77" s="378"/>
-      <c r="N77" s="378"/>
-      <c r="O77" s="378"/>
-      <c r="P77" s="391" t="s">
+      <c r="G77" s="379"/>
+      <c r="H77" s="379"/>
+      <c r="I77" s="379"/>
+      <c r="J77" s="379"/>
+      <c r="K77" s="379"/>
+      <c r="L77" s="379"/>
+      <c r="M77" s="379"/>
+      <c r="N77" s="379"/>
+      <c r="O77" s="379"/>
+      <c r="P77" s="393" t="s">
         <v>156</v>
       </c>
-      <c r="Q77" s="391"/>
-      <c r="R77" s="391"/>
-      <c r="S77" s="391"/>
-      <c r="T77" s="391"/>
-      <c r="U77" s="391"/>
-      <c r="V77" s="391"/>
-      <c r="W77" s="391"/>
-      <c r="X77" s="391"/>
-      <c r="Y77" s="391"/>
+      <c r="Q77" s="393"/>
+      <c r="R77" s="393"/>
+      <c r="S77" s="393"/>
+      <c r="T77" s="393"/>
+      <c r="U77" s="393"/>
+      <c r="V77" s="393"/>
+      <c r="W77" s="393"/>
+      <c r="X77" s="393"/>
+      <c r="Y77" s="393"/>
     </row>
     <row r="78" spans="4:28">
-      <c r="F78" s="384" t="s">
+      <c r="F78" s="387" t="s">
         <v>157</v>
       </c>
-      <c r="G78" s="385"/>
-      <c r="H78" s="385"/>
-      <c r="I78" s="385"/>
-      <c r="J78" s="385"/>
-      <c r="K78" s="385"/>
-      <c r="L78" s="385"/>
-      <c r="M78" s="385"/>
-      <c r="N78" s="385"/>
-      <c r="O78" s="385"/>
-      <c r="P78" s="385"/>
-      <c r="Q78" s="385"/>
-      <c r="R78" s="385"/>
-      <c r="S78" s="385"/>
-      <c r="T78" s="385"/>
-      <c r="U78" s="385"/>
-      <c r="V78" s="385"/>
-      <c r="W78" s="385"/>
-      <c r="X78" s="385"/>
-      <c r="Y78" s="386"/>
+      <c r="G78" s="388"/>
+      <c r="H78" s="388"/>
+      <c r="I78" s="388"/>
+      <c r="J78" s="388"/>
+      <c r="K78" s="388"/>
+      <c r="L78" s="388"/>
+      <c r="M78" s="388"/>
+      <c r="N78" s="388"/>
+      <c r="O78" s="388"/>
+      <c r="P78" s="388"/>
+      <c r="Q78" s="388"/>
+      <c r="R78" s="388"/>
+      <c r="S78" s="388"/>
+      <c r="T78" s="388"/>
+      <c r="U78" s="388"/>
+      <c r="V78" s="388"/>
+      <c r="W78" s="388"/>
+      <c r="X78" s="388"/>
+      <c r="Y78" s="389"/>
     </row>
     <row r="79" spans="4:28">
       <c r="F79" s="186"/>
@@ -33275,16 +33245,16 @@
       </c>
     </row>
     <row r="83" spans="4:33">
-      <c r="F83" s="371" t="s">
+      <c r="F83" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="372"/>
-      <c r="H83" s="373"/>
-      <c r="I83" s="374" t="s">
+      <c r="G83" s="373"/>
+      <c r="H83" s="374"/>
+      <c r="I83" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J83" s="375"/>
-      <c r="K83" s="376"/>
+      <c r="J83" s="376"/>
+      <c r="K83" s="377"/>
       <c r="L83" s="342" t="s">
         <v>78</v>
       </c>
@@ -33319,12 +33289,12 @@
       </c>
       <c r="J84" s="213"/>
       <c r="K84" s="214"/>
-      <c r="L84" s="388" t="s">
+      <c r="L84" s="390" t="s">
         <v>426</v>
       </c>
-      <c r="M84" s="389"/>
-      <c r="N84" s="389"/>
-      <c r="O84" s="390"/>
+      <c r="M84" s="391"/>
+      <c r="N84" s="391"/>
+      <c r="O84" s="392"/>
       <c r="P84" s="312" t="s">
         <v>379</v>
       </c>
@@ -33447,16 +33417,16 @@
       </c>
     </row>
     <row r="96" spans="4:33">
-      <c r="F96" s="371" t="s">
+      <c r="F96" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="372"/>
-      <c r="H96" s="373"/>
-      <c r="I96" s="374" t="s">
+      <c r="G96" s="373"/>
+      <c r="H96" s="374"/>
+      <c r="I96" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J96" s="375"/>
-      <c r="K96" s="376"/>
+      <c r="J96" s="376"/>
+      <c r="K96" s="377"/>
       <c r="L96" s="342" t="s">
         <v>78</v>
       </c>
@@ -33657,7 +33627,7 @@
       <c r="J104" s="312"/>
       <c r="K104" s="312"/>
       <c r="L104" s="312"/>
-      <c r="M104" s="377" t="s">
+      <c r="M104" s="378" t="s">
         <v>606</v>
       </c>
       <c r="N104" s="362"/>
@@ -33777,16 +33747,16 @@
       </c>
     </row>
     <row r="109" spans="5:33">
-      <c r="F109" s="371" t="s">
+      <c r="F109" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="372"/>
-      <c r="H109" s="373"/>
-      <c r="I109" s="374" t="s">
+      <c r="G109" s="373"/>
+      <c r="H109" s="374"/>
+      <c r="I109" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J109" s="375"/>
-      <c r="K109" s="376"/>
+      <c r="J109" s="376"/>
+      <c r="K109" s="377"/>
       <c r="L109" s="342" t="s">
         <v>78</v>
       </c>
@@ -33926,7 +33896,7 @@
       <c r="AA115" s="364"/>
       <c r="AB115" s="364"/>
       <c r="AC115" s="364"/>
-      <c r="AD115" s="387" t="s">
+      <c r="AD115" s="371" t="s">
         <v>590</v>
       </c>
       <c r="AE115" s="366"/>
@@ -33981,16 +33951,16 @@
       </c>
     </row>
     <row r="119" spans="5:33">
-      <c r="F119" s="371" t="s">
+      <c r="F119" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G119" s="372"/>
-      <c r="H119" s="373"/>
-      <c r="I119" s="374" t="s">
+      <c r="G119" s="373"/>
+      <c r="H119" s="374"/>
+      <c r="I119" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J119" s="375"/>
-      <c r="K119" s="376"/>
+      <c r="J119" s="376"/>
+      <c r="K119" s="377"/>
       <c r="L119" s="342" t="s">
         <v>78</v>
       </c>
@@ -34234,16 +34204,16 @@
       </c>
     </row>
     <row r="130" spans="5:33">
-      <c r="F130" s="371" t="s">
+      <c r="F130" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G130" s="372"/>
-      <c r="H130" s="373"/>
-      <c r="I130" s="374" t="s">
+      <c r="G130" s="373"/>
+      <c r="H130" s="374"/>
+      <c r="I130" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J130" s="375"/>
-      <c r="K130" s="376"/>
+      <c r="J130" s="376"/>
+      <c r="K130" s="377"/>
       <c r="L130" s="342" t="s">
         <v>78</v>
       </c>
@@ -34438,16 +34408,16 @@
       </c>
     </row>
     <row r="140" spans="5:33">
-      <c r="F140" s="371" t="s">
+      <c r="F140" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G140" s="372"/>
-      <c r="H140" s="373"/>
-      <c r="I140" s="374" t="s">
+      <c r="G140" s="373"/>
+      <c r="H140" s="374"/>
+      <c r="I140" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J140" s="375"/>
-      <c r="K140" s="376"/>
+      <c r="J140" s="376"/>
+      <c r="K140" s="377"/>
       <c r="L140" s="342" t="s">
         <v>78</v>
       </c>
@@ -34684,16 +34654,16 @@
       </c>
     </row>
     <row r="152" spans="2:70">
-      <c r="F152" s="371" t="s">
+      <c r="F152" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G152" s="372"/>
-      <c r="H152" s="373"/>
-      <c r="I152" s="374" t="s">
+      <c r="G152" s="373"/>
+      <c r="H152" s="374"/>
+      <c r="I152" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J152" s="375"/>
-      <c r="K152" s="376"/>
+      <c r="J152" s="376"/>
+      <c r="K152" s="377"/>
       <c r="L152" s="342" t="s">
         <v>78</v>
       </c>
@@ -34877,7 +34847,7 @@
       <c r="AH162" s="18"/>
     </row>
     <row r="163" spans="4:35">
-      <c r="E163" s="419" t="s">
+      <c r="E163" s="421" t="s">
         <v>47</v>
       </c>
       <c r="F163" s="335" t="s">
@@ -34887,19 +34857,19 @@
       <c r="H163" s="336"/>
       <c r="I163" s="336"/>
       <c r="J163" s="337"/>
-      <c r="K163" s="374" t="s">
+      <c r="K163" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="L163" s="375"/>
-      <c r="M163" s="375"/>
-      <c r="N163" s="375"/>
-      <c r="O163" s="375"/>
-      <c r="P163" s="375"/>
-      <c r="Q163" s="375"/>
-      <c r="R163" s="375"/>
-      <c r="S163" s="375"/>
-      <c r="T163" s="375"/>
-      <c r="U163" s="376"/>
+      <c r="L163" s="376"/>
+      <c r="M163" s="376"/>
+      <c r="N163" s="376"/>
+      <c r="O163" s="376"/>
+      <c r="P163" s="376"/>
+      <c r="Q163" s="376"/>
+      <c r="R163" s="376"/>
+      <c r="S163" s="376"/>
+      <c r="T163" s="376"/>
+      <c r="U163" s="377"/>
       <c r="V163" s="335" t="s">
         <v>25</v>
       </c>
@@ -34919,27 +34889,27 @@
       <c r="AH163" s="337"/>
     </row>
     <row r="164" spans="4:35">
-      <c r="E164" s="420"/>
+      <c r="E164" s="422"/>
       <c r="F164" s="338"/>
       <c r="G164" s="339"/>
       <c r="H164" s="339"/>
       <c r="I164" s="339"/>
       <c r="J164" s="340"/>
-      <c r="K164" s="374" t="s">
+      <c r="K164" s="375" t="s">
         <v>24</v>
       </c>
-      <c r="L164" s="375"/>
-      <c r="M164" s="375"/>
-      <c r="N164" s="375"/>
-      <c r="O164" s="375"/>
-      <c r="P164" s="376"/>
-      <c r="Q164" s="374" t="s">
+      <c r="L164" s="376"/>
+      <c r="M164" s="376"/>
+      <c r="N164" s="376"/>
+      <c r="O164" s="376"/>
+      <c r="P164" s="377"/>
+      <c r="Q164" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="R164" s="375"/>
-      <c r="S164" s="375"/>
-      <c r="T164" s="375"/>
-      <c r="U164" s="376"/>
+      <c r="R164" s="376"/>
+      <c r="S164" s="376"/>
+      <c r="T164" s="376"/>
+      <c r="U164" s="377"/>
       <c r="V164" s="338"/>
       <c r="W164" s="339"/>
       <c r="X164" s="339"/>
@@ -34948,48 +34918,48 @@
       <c r="AA164" s="339"/>
       <c r="AB164" s="339"/>
       <c r="AC164" s="340"/>
-      <c r="AD164" s="416"/>
-      <c r="AE164" s="417"/>
-      <c r="AF164" s="417"/>
-      <c r="AG164" s="417"/>
-      <c r="AH164" s="418"/>
+      <c r="AD164" s="418"/>
+      <c r="AE164" s="419"/>
+      <c r="AF164" s="419"/>
+      <c r="AG164" s="419"/>
+      <c r="AH164" s="420"/>
     </row>
     <row r="165" spans="4:35">
       <c r="E165" s="47">
         <v>1</v>
       </c>
-      <c r="F165" s="379" t="s">
+      <c r="F165" s="380" t="s">
         <v>165</v>
       </c>
-      <c r="G165" s="380"/>
-      <c r="H165" s="380"/>
-      <c r="I165" s="380"/>
-      <c r="J165" s="381"/>
-      <c r="K165" s="379" t="s">
+      <c r="G165" s="381"/>
+      <c r="H165" s="381"/>
+      <c r="I165" s="381"/>
+      <c r="J165" s="382"/>
+      <c r="K165" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="L165" s="380"/>
-      <c r="M165" s="380"/>
-      <c r="N165" s="380"/>
-      <c r="O165" s="380"/>
-      <c r="P165" s="381"/>
-      <c r="Q165" s="379" t="s">
+      <c r="L165" s="381"/>
+      <c r="M165" s="381"/>
+      <c r="N165" s="381"/>
+      <c r="O165" s="381"/>
+      <c r="P165" s="382"/>
+      <c r="Q165" s="380" t="s">
         <v>172</v>
       </c>
-      <c r="R165" s="380"/>
-      <c r="S165" s="380"/>
-      <c r="T165" s="380"/>
-      <c r="U165" s="381"/>
-      <c r="V165" s="379" t="s">
+      <c r="R165" s="381"/>
+      <c r="S165" s="381"/>
+      <c r="T165" s="381"/>
+      <c r="U165" s="382"/>
+      <c r="V165" s="380" t="s">
         <v>356</v>
       </c>
-      <c r="W165" s="380"/>
-      <c r="X165" s="380"/>
-      <c r="Y165" s="380"/>
-      <c r="Z165" s="380"/>
-      <c r="AA165" s="380"/>
-      <c r="AB165" s="380"/>
-      <c r="AC165" s="381"/>
+      <c r="W165" s="381"/>
+      <c r="X165" s="381"/>
+      <c r="Y165" s="381"/>
+      <c r="Z165" s="381"/>
+      <c r="AA165" s="381"/>
+      <c r="AB165" s="381"/>
+      <c r="AC165" s="382"/>
       <c r="AD165" s="212"/>
       <c r="AE165" s="213"/>
       <c r="AF165" s="213"/>
@@ -35000,38 +34970,38 @@
       <c r="E166" s="47">
         <v>2</v>
       </c>
-      <c r="F166" s="379" t="s">
+      <c r="F166" s="380" t="s">
         <v>166</v>
       </c>
-      <c r="G166" s="380"/>
-      <c r="H166" s="380"/>
-      <c r="I166" s="380"/>
-      <c r="J166" s="381"/>
-      <c r="K166" s="379" t="s">
+      <c r="G166" s="381"/>
+      <c r="H166" s="381"/>
+      <c r="I166" s="381"/>
+      <c r="J166" s="382"/>
+      <c r="K166" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="L166" s="380"/>
-      <c r="M166" s="380"/>
-      <c r="N166" s="380"/>
-      <c r="O166" s="380"/>
-      <c r="P166" s="381"/>
-      <c r="Q166" s="379" t="s">
+      <c r="L166" s="381"/>
+      <c r="M166" s="381"/>
+      <c r="N166" s="381"/>
+      <c r="O166" s="381"/>
+      <c r="P166" s="382"/>
+      <c r="Q166" s="380" t="s">
         <v>166</v>
       </c>
-      <c r="R166" s="380"/>
-      <c r="S166" s="380"/>
-      <c r="T166" s="380"/>
-      <c r="U166" s="381"/>
-      <c r="V166" s="379" t="s">
+      <c r="R166" s="381"/>
+      <c r="S166" s="381"/>
+      <c r="T166" s="381"/>
+      <c r="U166" s="382"/>
+      <c r="V166" s="380" t="s">
         <v>357</v>
       </c>
-      <c r="W166" s="380"/>
-      <c r="X166" s="380"/>
-      <c r="Y166" s="380"/>
-      <c r="Z166" s="380"/>
-      <c r="AA166" s="380"/>
-      <c r="AB166" s="380"/>
-      <c r="AC166" s="381"/>
+      <c r="W166" s="381"/>
+      <c r="X166" s="381"/>
+      <c r="Y166" s="381"/>
+      <c r="Z166" s="381"/>
+      <c r="AA166" s="381"/>
+      <c r="AB166" s="381"/>
+      <c r="AC166" s="382"/>
       <c r="AD166" s="212"/>
       <c r="AE166" s="213"/>
       <c r="AF166" s="213"/>
@@ -35042,38 +35012,38 @@
       <c r="E167" s="47">
         <v>3</v>
       </c>
-      <c r="F167" s="379" t="s">
+      <c r="F167" s="380" t="s">
         <v>167</v>
       </c>
-      <c r="G167" s="380"/>
-      <c r="H167" s="380"/>
-      <c r="I167" s="380"/>
-      <c r="J167" s="381"/>
-      <c r="K167" s="379" t="s">
+      <c r="G167" s="381"/>
+      <c r="H167" s="381"/>
+      <c r="I167" s="381"/>
+      <c r="J167" s="382"/>
+      <c r="K167" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="L167" s="380"/>
-      <c r="M167" s="380"/>
-      <c r="N167" s="380"/>
-      <c r="O167" s="380"/>
-      <c r="P167" s="381"/>
-      <c r="Q167" s="379" t="s">
+      <c r="L167" s="381"/>
+      <c r="M167" s="381"/>
+      <c r="N167" s="381"/>
+      <c r="O167" s="381"/>
+      <c r="P167" s="382"/>
+      <c r="Q167" s="380" t="s">
         <v>167</v>
       </c>
-      <c r="R167" s="380"/>
-      <c r="S167" s="380"/>
-      <c r="T167" s="380"/>
-      <c r="U167" s="381"/>
-      <c r="V167" s="379" t="s">
+      <c r="R167" s="381"/>
+      <c r="S167" s="381"/>
+      <c r="T167" s="381"/>
+      <c r="U167" s="382"/>
+      <c r="V167" s="380" t="s">
         <v>357</v>
       </c>
-      <c r="W167" s="380"/>
-      <c r="X167" s="380"/>
-      <c r="Y167" s="380"/>
-      <c r="Z167" s="380"/>
-      <c r="AA167" s="380"/>
-      <c r="AB167" s="380"/>
-      <c r="AC167" s="381"/>
+      <c r="W167" s="381"/>
+      <c r="X167" s="381"/>
+      <c r="Y167" s="381"/>
+      <c r="Z167" s="381"/>
+      <c r="AA167" s="381"/>
+      <c r="AB167" s="381"/>
+      <c r="AC167" s="382"/>
       <c r="AD167" s="212"/>
       <c r="AE167" s="213"/>
       <c r="AF167" s="213"/>
@@ -35084,38 +35054,38 @@
       <c r="E168" s="47">
         <v>4</v>
       </c>
-      <c r="F168" s="379" t="s">
+      <c r="F168" s="380" t="s">
         <v>168</v>
       </c>
-      <c r="G168" s="380"/>
-      <c r="H168" s="380"/>
-      <c r="I168" s="380"/>
-      <c r="J168" s="381"/>
-      <c r="K168" s="379" t="s">
+      <c r="G168" s="381"/>
+      <c r="H168" s="381"/>
+      <c r="I168" s="381"/>
+      <c r="J168" s="382"/>
+      <c r="K168" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="L168" s="380"/>
-      <c r="M168" s="380"/>
-      <c r="N168" s="380"/>
-      <c r="O168" s="380"/>
-      <c r="P168" s="381"/>
-      <c r="Q168" s="379" t="s">
+      <c r="L168" s="381"/>
+      <c r="M168" s="381"/>
+      <c r="N168" s="381"/>
+      <c r="O168" s="381"/>
+      <c r="P168" s="382"/>
+      <c r="Q168" s="380" t="s">
         <v>168</v>
       </c>
-      <c r="R168" s="380"/>
-      <c r="S168" s="380"/>
-      <c r="T168" s="380"/>
-      <c r="U168" s="381"/>
-      <c r="V168" s="379" t="s">
+      <c r="R168" s="381"/>
+      <c r="S168" s="381"/>
+      <c r="T168" s="381"/>
+      <c r="U168" s="382"/>
+      <c r="V168" s="380" t="s">
         <v>356</v>
       </c>
-      <c r="W168" s="380"/>
-      <c r="X168" s="380"/>
-      <c r="Y168" s="380"/>
-      <c r="Z168" s="380"/>
-      <c r="AA168" s="380"/>
-      <c r="AB168" s="380"/>
-      <c r="AC168" s="381"/>
+      <c r="W168" s="381"/>
+      <c r="X168" s="381"/>
+      <c r="Y168" s="381"/>
+      <c r="Z168" s="381"/>
+      <c r="AA168" s="381"/>
+      <c r="AB168" s="381"/>
+      <c r="AC168" s="382"/>
       <c r="AD168" s="212"/>
       <c r="AE168" s="213"/>
       <c r="AF168" s="213"/>
@@ -35126,38 +35096,38 @@
       <c r="E169" s="47">
         <v>5</v>
       </c>
-      <c r="F169" s="379" t="s">
+      <c r="F169" s="380" t="s">
         <v>169</v>
       </c>
-      <c r="G169" s="380"/>
-      <c r="H169" s="380"/>
-      <c r="I169" s="380"/>
-      <c r="J169" s="381"/>
-      <c r="K169" s="379" t="s">
+      <c r="G169" s="381"/>
+      <c r="H169" s="381"/>
+      <c r="I169" s="381"/>
+      <c r="J169" s="382"/>
+      <c r="K169" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="L169" s="380"/>
-      <c r="M169" s="380"/>
-      <c r="N169" s="380"/>
-      <c r="O169" s="380"/>
-      <c r="P169" s="381"/>
-      <c r="Q169" s="379" t="s">
+      <c r="L169" s="381"/>
+      <c r="M169" s="381"/>
+      <c r="N169" s="381"/>
+      <c r="O169" s="381"/>
+      <c r="P169" s="382"/>
+      <c r="Q169" s="380" t="s">
         <v>169</v>
       </c>
-      <c r="R169" s="380"/>
-      <c r="S169" s="380"/>
-      <c r="T169" s="380"/>
-      <c r="U169" s="381"/>
-      <c r="V169" s="379" t="s">
+      <c r="R169" s="381"/>
+      <c r="S169" s="381"/>
+      <c r="T169" s="381"/>
+      <c r="U169" s="382"/>
+      <c r="V169" s="380" t="s">
         <v>356</v>
       </c>
-      <c r="W169" s="380"/>
-      <c r="X169" s="380"/>
-      <c r="Y169" s="380"/>
-      <c r="Z169" s="380"/>
-      <c r="AA169" s="380"/>
-      <c r="AB169" s="380"/>
-      <c r="AC169" s="381"/>
+      <c r="W169" s="381"/>
+      <c r="X169" s="381"/>
+      <c r="Y169" s="381"/>
+      <c r="Z169" s="381"/>
+      <c r="AA169" s="381"/>
+      <c r="AB169" s="381"/>
+      <c r="AC169" s="382"/>
       <c r="AD169" s="212"/>
       <c r="AE169" s="213"/>
       <c r="AF169" s="213"/>
@@ -35168,38 +35138,38 @@
       <c r="E170" s="47">
         <v>6</v>
       </c>
-      <c r="F170" s="379" t="s">
+      <c r="F170" s="380" t="s">
         <v>170</v>
       </c>
-      <c r="G170" s="380"/>
-      <c r="H170" s="380"/>
-      <c r="I170" s="380"/>
-      <c r="J170" s="381"/>
-      <c r="K170" s="379" t="s">
+      <c r="G170" s="381"/>
+      <c r="H170" s="381"/>
+      <c r="I170" s="381"/>
+      <c r="J170" s="382"/>
+      <c r="K170" s="380" t="s">
         <v>356</v>
       </c>
-      <c r="L170" s="380"/>
-      <c r="M170" s="380"/>
-      <c r="N170" s="380"/>
-      <c r="O170" s="380"/>
-      <c r="P170" s="381"/>
-      <c r="Q170" s="379" t="s">
+      <c r="L170" s="381"/>
+      <c r="M170" s="381"/>
+      <c r="N170" s="381"/>
+      <c r="O170" s="381"/>
+      <c r="P170" s="382"/>
+      <c r="Q170" s="380" t="s">
         <v>356</v>
       </c>
-      <c r="R170" s="380"/>
-      <c r="S170" s="380"/>
-      <c r="T170" s="380"/>
-      <c r="U170" s="381"/>
-      <c r="V170" s="379" t="s">
+      <c r="R170" s="381"/>
+      <c r="S170" s="381"/>
+      <c r="T170" s="381"/>
+      <c r="U170" s="382"/>
+      <c r="V170" s="380" t="s">
         <v>171</v>
       </c>
-      <c r="W170" s="380"/>
-      <c r="X170" s="380"/>
-      <c r="Y170" s="380"/>
-      <c r="Z170" s="380"/>
-      <c r="AA170" s="380"/>
-      <c r="AB170" s="380"/>
-      <c r="AC170" s="381"/>
+      <c r="W170" s="381"/>
+      <c r="X170" s="381"/>
+      <c r="Y170" s="381"/>
+      <c r="Z170" s="381"/>
+      <c r="AA170" s="381"/>
+      <c r="AB170" s="381"/>
+      <c r="AC170" s="382"/>
       <c r="AD170" s="212"/>
       <c r="AE170" s="213"/>
       <c r="AF170" s="213"/>
@@ -35268,6 +35238,7 @@
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="K65:N65"/>
     <mergeCell ref="O65:AB65"/>
+    <mergeCell ref="V42:AH42"/>
     <mergeCell ref="AD170:AH170"/>
     <mergeCell ref="F165:J165"/>
     <mergeCell ref="K165:P165"/>
@@ -35292,7 +35263,6 @@
     <mergeCell ref="F168:J168"/>
     <mergeCell ref="K168:P168"/>
     <mergeCell ref="Q168:U168"/>
-    <mergeCell ref="V42:AH42"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="V40:AH41"/>
     <mergeCell ref="T41:U41"/>
@@ -35383,6 +35353,8 @@
     <mergeCell ref="Z102:AC102"/>
     <mergeCell ref="P83:AC83"/>
     <mergeCell ref="P84:AC84"/>
+    <mergeCell ref="W101:Y101"/>
+    <mergeCell ref="Z101:AC101"/>
     <mergeCell ref="G136:L136"/>
     <mergeCell ref="M136:V136"/>
     <mergeCell ref="W136:Y136"/>
@@ -35465,8 +35437,6 @@
     <mergeCell ref="F152:H152"/>
     <mergeCell ref="I152:K152"/>
     <mergeCell ref="L152:O152"/>
-    <mergeCell ref="W101:Y101"/>
-    <mergeCell ref="Z101:AC101"/>
     <mergeCell ref="AD101:AG101"/>
     <mergeCell ref="G102:L102"/>
     <mergeCell ref="M102:V102"/>
@@ -35794,13 +35764,13 @@
       <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:38" s="19" customFormat="1">
-      <c r="D10" s="403" t="s">
+      <c r="D10" s="405" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="404"/>
-      <c r="F10" s="404"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="405"/>
+      <c r="E10" s="406"/>
+      <c r="F10" s="406"/>
+      <c r="G10" s="406"/>
+      <c r="H10" s="407"/>
       <c r="I10" s="361" t="s">
         <v>176</v>
       </c>
@@ -35832,13 +35802,13 @@
       <c r="AI10" s="51"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1">
-      <c r="D11" s="403" t="s">
+      <c r="D11" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="404"/>
-      <c r="F11" s="404"/>
-      <c r="G11" s="404"/>
-      <c r="H11" s="405"/>
+      <c r="E11" s="406"/>
+      <c r="F11" s="406"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="407"/>
       <c r="I11" s="361" t="s">
         <v>177</v>
       </c>
@@ -35870,13 +35840,13 @@
       <c r="AI11" s="51"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1">
-      <c r="D12" s="403" t="s">
+      <c r="D12" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="404"/>
-      <c r="H12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="406"/>
+      <c r="H12" s="407"/>
       <c r="I12" s="361" t="s">
         <v>178</v>
       </c>
@@ -35970,16 +35940,16 @@
       <c r="D22" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="371" t="s">
+      <c r="E22" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="372"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374" t="s">
+      <c r="F22" s="373"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="375"/>
-      <c r="J22" s="376"/>
+      <c r="I22" s="376"/>
+      <c r="J22" s="377"/>
       <c r="K22" s="355" t="s">
         <v>90</v>
       </c>
@@ -36024,29 +35994,29 @@
       <c r="K23" s="361" t="s">
         <v>323</v>
       </c>
-      <c r="L23" s="452"/>
-      <c r="M23" s="452"/>
-      <c r="N23" s="452"/>
-      <c r="O23" s="452"/>
-      <c r="P23" s="452"/>
-      <c r="Q23" s="452"/>
-      <c r="R23" s="452"/>
-      <c r="S23" s="452"/>
-      <c r="T23" s="452"/>
-      <c r="U23" s="452"/>
-      <c r="V23" s="452"/>
-      <c r="W23" s="452"/>
-      <c r="X23" s="452"/>
-      <c r="Y23" s="452"/>
-      <c r="Z23" s="452"/>
-      <c r="AA23" s="452"/>
-      <c r="AB23" s="452"/>
-      <c r="AC23" s="452"/>
-      <c r="AD23" s="452"/>
-      <c r="AE23" s="452"/>
-      <c r="AF23" s="452"/>
-      <c r="AG23" s="452"/>
-      <c r="AH23" s="453"/>
+      <c r="L23" s="454"/>
+      <c r="M23" s="454"/>
+      <c r="N23" s="454"/>
+      <c r="O23" s="454"/>
+      <c r="P23" s="454"/>
+      <c r="Q23" s="454"/>
+      <c r="R23" s="454"/>
+      <c r="S23" s="454"/>
+      <c r="T23" s="454"/>
+      <c r="U23" s="454"/>
+      <c r="V23" s="454"/>
+      <c r="W23" s="454"/>
+      <c r="X23" s="454"/>
+      <c r="Y23" s="454"/>
+      <c r="Z23" s="454"/>
+      <c r="AA23" s="454"/>
+      <c r="AB23" s="454"/>
+      <c r="AC23" s="454"/>
+      <c r="AD23" s="454"/>
+      <c r="AE23" s="454"/>
+      <c r="AF23" s="454"/>
+      <c r="AG23" s="454"/>
+      <c r="AH23" s="455"/>
     </row>
     <row r="24" spans="3:34">
       <c r="D24" s="45">
@@ -36065,29 +36035,29 @@
       <c r="K24" s="361" t="s">
         <v>325</v>
       </c>
-      <c r="L24" s="452"/>
-      <c r="M24" s="452"/>
-      <c r="N24" s="452"/>
-      <c r="O24" s="452"/>
-      <c r="P24" s="452"/>
-      <c r="Q24" s="452"/>
-      <c r="R24" s="452"/>
-      <c r="S24" s="452"/>
-      <c r="T24" s="452"/>
-      <c r="U24" s="452"/>
-      <c r="V24" s="452"/>
-      <c r="W24" s="452"/>
-      <c r="X24" s="452"/>
-      <c r="Y24" s="452"/>
-      <c r="Z24" s="452"/>
-      <c r="AA24" s="452"/>
-      <c r="AB24" s="452"/>
-      <c r="AC24" s="452"/>
-      <c r="AD24" s="452"/>
-      <c r="AE24" s="452"/>
-      <c r="AF24" s="452"/>
-      <c r="AG24" s="452"/>
-      <c r="AH24" s="453"/>
+      <c r="L24" s="454"/>
+      <c r="M24" s="454"/>
+      <c r="N24" s="454"/>
+      <c r="O24" s="454"/>
+      <c r="P24" s="454"/>
+      <c r="Q24" s="454"/>
+      <c r="R24" s="454"/>
+      <c r="S24" s="454"/>
+      <c r="T24" s="454"/>
+      <c r="U24" s="454"/>
+      <c r="V24" s="454"/>
+      <c r="W24" s="454"/>
+      <c r="X24" s="454"/>
+      <c r="Y24" s="454"/>
+      <c r="Z24" s="454"/>
+      <c r="AA24" s="454"/>
+      <c r="AB24" s="454"/>
+      <c r="AC24" s="454"/>
+      <c r="AD24" s="454"/>
+      <c r="AE24" s="454"/>
+      <c r="AF24" s="454"/>
+      <c r="AG24" s="454"/>
+      <c r="AH24" s="455"/>
     </row>
     <row r="27" spans="3:34">
       <c r="C27" s="42" t="s">
@@ -36098,63 +36068,63 @@
       <c r="C28" s="42"/>
     </row>
     <row r="29" spans="3:34">
-      <c r="D29" s="443" t="s">
+      <c r="D29" s="445" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="392" t="s">
+      <c r="E29" s="394" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="393"/>
-      <c r="G29" s="393"/>
-      <c r="H29" s="393"/>
-      <c r="I29" s="393"/>
-      <c r="J29" s="394"/>
-      <c r="K29" s="445" t="s">
+      <c r="F29" s="395"/>
+      <c r="G29" s="395"/>
+      <c r="H29" s="395"/>
+      <c r="I29" s="395"/>
+      <c r="J29" s="396"/>
+      <c r="K29" s="447" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="393"/>
-      <c r="M29" s="393"/>
-      <c r="N29" s="394"/>
-      <c r="O29" s="446" t="s">
+      <c r="L29" s="395"/>
+      <c r="M29" s="395"/>
+      <c r="N29" s="396"/>
+      <c r="O29" s="448" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="449" t="s">
+      <c r="P29" s="451" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="450"/>
-      <c r="R29" s="450"/>
-      <c r="S29" s="450"/>
-      <c r="T29" s="450"/>
-      <c r="U29" s="451"/>
-      <c r="V29" s="408" t="s">
+      <c r="Q29" s="452"/>
+      <c r="R29" s="452"/>
+      <c r="S29" s="452"/>
+      <c r="T29" s="452"/>
+      <c r="U29" s="453"/>
+      <c r="V29" s="410" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="408"/>
-      <c r="X29" s="408"/>
-      <c r="Y29" s="408"/>
-      <c r="Z29" s="408"/>
-      <c r="AA29" s="408"/>
-      <c r="AB29" s="408"/>
-      <c r="AC29" s="408"/>
-      <c r="AD29" s="408"/>
-      <c r="AE29" s="408"/>
-      <c r="AF29" s="408"/>
-      <c r="AG29" s="408"/>
-      <c r="AH29" s="408"/>
+      <c r="W29" s="410"/>
+      <c r="X29" s="410"/>
+      <c r="Y29" s="410"/>
+      <c r="Z29" s="410"/>
+      <c r="AA29" s="410"/>
+      <c r="AB29" s="410"/>
+      <c r="AC29" s="410"/>
+      <c r="AD29" s="410"/>
+      <c r="AE29" s="410"/>
+      <c r="AF29" s="410"/>
+      <c r="AG29" s="410"/>
+      <c r="AH29" s="410"/>
     </row>
     <row r="30" spans="3:34" s="19" customFormat="1">
-      <c r="D30" s="444"/>
-      <c r="E30" s="395"/>
-      <c r="F30" s="396"/>
-      <c r="G30" s="396"/>
-      <c r="H30" s="396"/>
-      <c r="I30" s="396"/>
-      <c r="J30" s="397"/>
-      <c r="K30" s="395"/>
-      <c r="L30" s="396"/>
-      <c r="M30" s="396"/>
-      <c r="N30" s="397"/>
-      <c r="O30" s="433"/>
+      <c r="D30" s="446"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="398"/>
+      <c r="H30" s="398"/>
+      <c r="I30" s="398"/>
+      <c r="J30" s="399"/>
+      <c r="K30" s="397"/>
+      <c r="L30" s="398"/>
+      <c r="M30" s="398"/>
+      <c r="N30" s="399"/>
+      <c r="O30" s="435"/>
       <c r="P30" s="50" t="s">
         <v>66</v>
       </c>
@@ -36167,23 +36137,23 @@
       <c r="S30" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="T30" s="447" t="s">
+      <c r="T30" s="449" t="s">
         <v>70</v>
       </c>
-      <c r="U30" s="448"/>
-      <c r="V30" s="408"/>
-      <c r="W30" s="408"/>
-      <c r="X30" s="408"/>
-      <c r="Y30" s="408"/>
-      <c r="Z30" s="408"/>
-      <c r="AA30" s="408"/>
-      <c r="AB30" s="408"/>
-      <c r="AC30" s="408"/>
-      <c r="AD30" s="408"/>
-      <c r="AE30" s="408"/>
-      <c r="AF30" s="408"/>
-      <c r="AG30" s="408"/>
-      <c r="AH30" s="408"/>
+      <c r="U30" s="450"/>
+      <c r="V30" s="410"/>
+      <c r="W30" s="410"/>
+      <c r="X30" s="410"/>
+      <c r="Y30" s="410"/>
+      <c r="Z30" s="410"/>
+      <c r="AA30" s="410"/>
+      <c r="AB30" s="410"/>
+      <c r="AC30" s="410"/>
+      <c r="AD30" s="410"/>
+      <c r="AE30" s="410"/>
+      <c r="AF30" s="410"/>
+      <c r="AG30" s="410"/>
+      <c r="AH30" s="410"/>
     </row>
     <row r="31" spans="3:34" s="19" customFormat="1">
       <c r="D31" s="45">
@@ -36218,10 +36188,10 @@
       <c r="S31" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T31" s="441" t="s">
+      <c r="T31" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U31" s="442"/>
+      <c r="U31" s="444"/>
       <c r="V31" s="212"/>
       <c r="W31" s="213"/>
       <c r="X31" s="213"/>
@@ -36269,10 +36239,10 @@
       <c r="S32" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T32" s="441" t="s">
+      <c r="T32" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U32" s="442"/>
+      <c r="U32" s="444"/>
       <c r="V32" s="212"/>
       <c r="W32" s="213"/>
       <c r="X32" s="213"/>
@@ -36320,10 +36290,10 @@
       <c r="S33" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T33" s="441" t="s">
+      <c r="T33" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U33" s="442"/>
+      <c r="U33" s="444"/>
       <c r="V33" s="212"/>
       <c r="W33" s="213"/>
       <c r="X33" s="213"/>
@@ -36416,120 +36386,120 @@
       <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:36" s="19" customFormat="1">
-      <c r="E39" s="430" t="s">
+      <c r="E39" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="430"/>
-      <c r="G39" s="430"/>
-      <c r="H39" s="430"/>
-      <c r="I39" s="430"/>
-      <c r="J39" s="430"/>
-      <c r="K39" s="430"/>
-      <c r="L39" s="430"/>
-      <c r="M39" s="430"/>
-      <c r="N39" s="430"/>
-      <c r="O39" s="430"/>
-      <c r="P39" s="430"/>
-      <c r="Q39" s="430"/>
-      <c r="R39" s="430"/>
-      <c r="S39" s="430"/>
-      <c r="T39" s="430"/>
-      <c r="U39" s="430"/>
-      <c r="V39" s="430"/>
-      <c r="W39" s="430"/>
-      <c r="X39" s="430"/>
-      <c r="Y39" s="430"/>
-      <c r="Z39" s="430"/>
-      <c r="AA39" s="430"/>
-      <c r="AB39" s="430"/>
-      <c r="AC39" s="430"/>
-      <c r="AD39" s="430"/>
-      <c r="AE39" s="430"/>
-      <c r="AF39" s="430"/>
-      <c r="AG39" s="430"/>
-      <c r="AH39" s="430"/>
+      <c r="F39" s="432"/>
+      <c r="G39" s="432"/>
+      <c r="H39" s="432"/>
+      <c r="I39" s="432"/>
+      <c r="J39" s="432"/>
+      <c r="K39" s="432"/>
+      <c r="L39" s="432"/>
+      <c r="M39" s="432"/>
+      <c r="N39" s="432"/>
+      <c r="O39" s="432"/>
+      <c r="P39" s="432"/>
+      <c r="Q39" s="432"/>
+      <c r="R39" s="432"/>
+      <c r="S39" s="432"/>
+      <c r="T39" s="432"/>
+      <c r="U39" s="432"/>
+      <c r="V39" s="432"/>
+      <c r="W39" s="432"/>
+      <c r="X39" s="432"/>
+      <c r="Y39" s="432"/>
+      <c r="Z39" s="432"/>
+      <c r="AA39" s="432"/>
+      <c r="AB39" s="432"/>
+      <c r="AC39" s="432"/>
+      <c r="AD39" s="432"/>
+      <c r="AE39" s="432"/>
+      <c r="AF39" s="432"/>
+      <c r="AG39" s="432"/>
+      <c r="AH39" s="432"/>
       <c r="AI39" s="100"/>
       <c r="AJ39" s="99"/>
     </row>
     <row r="40" spans="1:36" s="19" customFormat="1">
-      <c r="E40" s="431" t="s">
+      <c r="E40" s="433" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="420" t="s">
+      <c r="F40" s="422" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="420"/>
-      <c r="H40" s="420"/>
-      <c r="I40" s="420"/>
-      <c r="J40" s="420"/>
-      <c r="K40" s="420"/>
-      <c r="L40" s="420" t="s">
+      <c r="G40" s="422"/>
+      <c r="H40" s="422"/>
+      <c r="I40" s="422"/>
+      <c r="J40" s="422"/>
+      <c r="K40" s="422"/>
+      <c r="L40" s="422" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="420"/>
-      <c r="N40" s="420"/>
-      <c r="O40" s="420"/>
-      <c r="P40" s="420"/>
-      <c r="Q40" s="433" t="s">
+      <c r="M40" s="422"/>
+      <c r="N40" s="422"/>
+      <c r="O40" s="422"/>
+      <c r="P40" s="422"/>
+      <c r="Q40" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="431" t="s">
+      <c r="R40" s="433" t="s">
         <v>62</v>
       </c>
-      <c r="S40" s="431"/>
-      <c r="T40" s="431"/>
-      <c r="U40" s="431"/>
-      <c r="V40" s="431"/>
-      <c r="W40" s="430" t="s">
+      <c r="S40" s="433"/>
+      <c r="T40" s="433"/>
+      <c r="U40" s="433"/>
+      <c r="V40" s="433"/>
+      <c r="W40" s="432" t="s">
         <v>22</v>
       </c>
-      <c r="X40" s="430"/>
-      <c r="Y40" s="430"/>
-      <c r="Z40" s="430"/>
-      <c r="AA40" s="430"/>
-      <c r="AB40" s="430"/>
-      <c r="AC40" s="430"/>
-      <c r="AD40" s="430"/>
-      <c r="AE40" s="430"/>
-      <c r="AF40" s="430"/>
-      <c r="AG40" s="430"/>
-      <c r="AH40" s="430"/>
+      <c r="X40" s="432"/>
+      <c r="Y40" s="432"/>
+      <c r="Z40" s="432"/>
+      <c r="AA40" s="432"/>
+      <c r="AB40" s="432"/>
+      <c r="AC40" s="432"/>
+      <c r="AD40" s="432"/>
+      <c r="AE40" s="432"/>
+      <c r="AF40" s="432"/>
+      <c r="AG40" s="432"/>
+      <c r="AH40" s="432"/>
       <c r="AI40" s="101"/>
       <c r="AJ40" s="99"/>
     </row>
     <row r="41" spans="1:36" s="19" customFormat="1">
-      <c r="E41" s="432"/>
-      <c r="F41" s="430"/>
-      <c r="G41" s="430"/>
-      <c r="H41" s="430"/>
-      <c r="I41" s="430"/>
-      <c r="J41" s="430"/>
-      <c r="K41" s="430"/>
-      <c r="L41" s="430"/>
-      <c r="M41" s="430"/>
-      <c r="N41" s="430"/>
-      <c r="O41" s="430"/>
-      <c r="P41" s="430"/>
-      <c r="Q41" s="434"/>
-      <c r="R41" s="432" t="s">
+      <c r="E41" s="434"/>
+      <c r="F41" s="432"/>
+      <c r="G41" s="432"/>
+      <c r="H41" s="432"/>
+      <c r="I41" s="432"/>
+      <c r="J41" s="432"/>
+      <c r="K41" s="432"/>
+      <c r="L41" s="432"/>
+      <c r="M41" s="432"/>
+      <c r="N41" s="432"/>
+      <c r="O41" s="432"/>
+      <c r="P41" s="432"/>
+      <c r="Q41" s="436"/>
+      <c r="R41" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="S41" s="432"/>
-      <c r="T41" s="432"/>
-      <c r="U41" s="432"/>
-      <c r="V41" s="432"/>
-      <c r="W41" s="430"/>
-      <c r="X41" s="430"/>
-      <c r="Y41" s="430"/>
-      <c r="Z41" s="430"/>
-      <c r="AA41" s="430"/>
-      <c r="AB41" s="430"/>
-      <c r="AC41" s="430"/>
-      <c r="AD41" s="430"/>
-      <c r="AE41" s="430"/>
-      <c r="AF41" s="430"/>
-      <c r="AG41" s="430"/>
-      <c r="AH41" s="430"/>
+      <c r="S41" s="434"/>
+      <c r="T41" s="434"/>
+      <c r="U41" s="434"/>
+      <c r="V41" s="434"/>
+      <c r="W41" s="432"/>
+      <c r="X41" s="432"/>
+      <c r="Y41" s="432"/>
+      <c r="Z41" s="432"/>
+      <c r="AA41" s="432"/>
+      <c r="AB41" s="432"/>
+      <c r="AC41" s="432"/>
+      <c r="AD41" s="432"/>
+      <c r="AE41" s="432"/>
+      <c r="AF41" s="432"/>
+      <c r="AG41" s="432"/>
+      <c r="AH41" s="432"/>
       <c r="AI41" s="101"/>
       <c r="AJ41" s="99"/>
     </row>
@@ -36537,7 +36507,7 @@
       <c r="E42" s="46">
         <v>1</v>
       </c>
-      <c r="F42" s="435" t="s">
+      <c r="F42" s="437" t="s">
         <v>183</v>
       </c>
       <c r="G42" s="364"/>
@@ -36545,17 +36515,17 @@
       <c r="I42" s="364"/>
       <c r="J42" s="364"/>
       <c r="K42" s="364"/>
-      <c r="L42" s="436" t="s">
+      <c r="L42" s="438" t="s">
         <v>184</v>
       </c>
-      <c r="M42" s="437"/>
-      <c r="N42" s="437"/>
-      <c r="O42" s="437"/>
-      <c r="P42" s="437"/>
+      <c r="M42" s="439"/>
+      <c r="N42" s="439"/>
+      <c r="O42" s="439"/>
+      <c r="P42" s="439"/>
       <c r="Q42" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R42" s="435" t="s">
+      <c r="R42" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S42" s="364"/>
@@ -36581,7 +36551,7 @@
       <c r="E43" s="46">
         <v>2</v>
       </c>
-      <c r="F43" s="435" t="s">
+      <c r="F43" s="437" t="s">
         <v>183</v>
       </c>
       <c r="G43" s="364"/>
@@ -36589,17 +36559,17 @@
       <c r="I43" s="364"/>
       <c r="J43" s="364"/>
       <c r="K43" s="364"/>
-      <c r="L43" s="436" t="s">
+      <c r="L43" s="438" t="s">
         <v>185</v>
       </c>
-      <c r="M43" s="437"/>
-      <c r="N43" s="437"/>
-      <c r="O43" s="437"/>
-      <c r="P43" s="437"/>
+      <c r="M43" s="439"/>
+      <c r="N43" s="439"/>
+      <c r="O43" s="439"/>
+      <c r="P43" s="439"/>
       <c r="Q43" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R43" s="435" t="s">
+      <c r="R43" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S43" s="364"/>
@@ -36625,38 +36595,38 @@
       <c r="B44" s="97"/>
       <c r="C44" s="97"/>
       <c r="D44" s="97"/>
-      <c r="E44" s="438" t="s">
+      <c r="E44" s="440" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="439"/>
-      <c r="G44" s="439"/>
-      <c r="H44" s="439"/>
-      <c r="I44" s="439"/>
-      <c r="J44" s="439"/>
-      <c r="K44" s="439"/>
-      <c r="L44" s="439"/>
-      <c r="M44" s="439"/>
-      <c r="N44" s="439"/>
-      <c r="O44" s="439"/>
-      <c r="P44" s="439"/>
-      <c r="Q44" s="439"/>
-      <c r="R44" s="439"/>
-      <c r="S44" s="439"/>
-      <c r="T44" s="439"/>
-      <c r="U44" s="439"/>
-      <c r="V44" s="439"/>
-      <c r="W44" s="439"/>
-      <c r="X44" s="439"/>
-      <c r="Y44" s="439"/>
-      <c r="Z44" s="439"/>
-      <c r="AA44" s="439"/>
-      <c r="AB44" s="439"/>
-      <c r="AC44" s="439"/>
-      <c r="AD44" s="439"/>
-      <c r="AE44" s="439"/>
-      <c r="AF44" s="439"/>
-      <c r="AG44" s="439"/>
-      <c r="AH44" s="440"/>
+      <c r="F44" s="441"/>
+      <c r="G44" s="441"/>
+      <c r="H44" s="441"/>
+      <c r="I44" s="441"/>
+      <c r="J44" s="441"/>
+      <c r="K44" s="441"/>
+      <c r="L44" s="441"/>
+      <c r="M44" s="441"/>
+      <c r="N44" s="441"/>
+      <c r="O44" s="441"/>
+      <c r="P44" s="441"/>
+      <c r="Q44" s="441"/>
+      <c r="R44" s="441"/>
+      <c r="S44" s="441"/>
+      <c r="T44" s="441"/>
+      <c r="U44" s="441"/>
+      <c r="V44" s="441"/>
+      <c r="W44" s="441"/>
+      <c r="X44" s="441"/>
+      <c r="Y44" s="441"/>
+      <c r="Z44" s="441"/>
+      <c r="AA44" s="441"/>
+      <c r="AB44" s="441"/>
+      <c r="AC44" s="441"/>
+      <c r="AD44" s="441"/>
+      <c r="AE44" s="441"/>
+      <c r="AF44" s="441"/>
+      <c r="AG44" s="441"/>
+      <c r="AH44" s="442"/>
       <c r="AI44" s="97"/>
     </row>
     <row r="45" spans="1:36">
@@ -36664,7 +36634,7 @@
       <c r="C45" s="97"/>
       <c r="D45" s="97"/>
       <c r="E45" s="174" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F45" s="175"/>
       <c r="G45" s="175"/>
@@ -36765,38 +36735,38 @@
     </row>
     <row r="52" spans="3:38">
       <c r="C52" s="42"/>
-      <c r="E52" s="371" t="s">
+      <c r="E52" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="372"/>
-      <c r="G52" s="373"/>
-      <c r="H52" s="374" t="s">
+      <c r="F52" s="373"/>
+      <c r="G52" s="374"/>
+      <c r="H52" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="375"/>
-      <c r="J52" s="376"/>
-      <c r="K52" s="425" t="s">
+      <c r="I52" s="376"/>
+      <c r="J52" s="377"/>
+      <c r="K52" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="L52" s="426"/>
-      <c r="M52" s="426"/>
-      <c r="N52" s="427"/>
-      <c r="O52" s="429" t="s">
+      <c r="L52" s="428"/>
+      <c r="M52" s="428"/>
+      <c r="N52" s="429"/>
+      <c r="O52" s="431" t="s">
         <v>79</v>
       </c>
-      <c r="P52" s="429"/>
-      <c r="Q52" s="429"/>
-      <c r="R52" s="429"/>
-      <c r="S52" s="429"/>
-      <c r="T52" s="429"/>
-      <c r="U52" s="429"/>
-      <c r="V52" s="429"/>
-      <c r="W52" s="429"/>
-      <c r="X52" s="429"/>
-      <c r="Y52" s="429"/>
-      <c r="Z52" s="429"/>
-      <c r="AA52" s="429"/>
-      <c r="AB52" s="429"/>
+      <c r="P52" s="431"/>
+      <c r="Q52" s="431"/>
+      <c r="R52" s="431"/>
+      <c r="S52" s="431"/>
+      <c r="T52" s="431"/>
+      <c r="U52" s="431"/>
+      <c r="V52" s="431"/>
+      <c r="W52" s="431"/>
+      <c r="X52" s="431"/>
+      <c r="Y52" s="431"/>
+      <c r="Z52" s="431"/>
+      <c r="AA52" s="431"/>
+      <c r="AB52" s="431"/>
     </row>
     <row r="53" spans="3:38" ht="11.25" customHeight="1">
       <c r="C53" s="42"/>
@@ -36810,28 +36780,28 @@
       </c>
       <c r="I53" s="213"/>
       <c r="J53" s="214"/>
-      <c r="K53" s="388" t="s">
+      <c r="K53" s="390" t="s">
         <v>359</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="389"/>
-      <c r="N53" s="390"/>
-      <c r="O53" s="428" t="s">
+      <c r="L53" s="391"/>
+      <c r="M53" s="391"/>
+      <c r="N53" s="392"/>
+      <c r="O53" s="430" t="s">
         <v>360</v>
       </c>
-      <c r="P53" s="428"/>
-      <c r="Q53" s="428"/>
-      <c r="R53" s="428"/>
-      <c r="S53" s="428"/>
-      <c r="T53" s="428"/>
-      <c r="U53" s="428"/>
-      <c r="V53" s="428"/>
-      <c r="W53" s="428"/>
-      <c r="X53" s="428"/>
-      <c r="Y53" s="428"/>
-      <c r="Z53" s="428"/>
-      <c r="AA53" s="428"/>
-      <c r="AB53" s="428"/>
+      <c r="P53" s="430"/>
+      <c r="Q53" s="430"/>
+      <c r="R53" s="430"/>
+      <c r="S53" s="430"/>
+      <c r="T53" s="430"/>
+      <c r="U53" s="430"/>
+      <c r="V53" s="430"/>
+      <c r="W53" s="430"/>
+      <c r="X53" s="430"/>
+      <c r="Y53" s="430"/>
+      <c r="Z53" s="430"/>
+      <c r="AA53" s="430"/>
+      <c r="AB53" s="430"/>
     </row>
     <row r="54" spans="3:38">
       <c r="C54" s="42"/>
@@ -36890,38 +36860,38 @@
     <row r="62" spans="3:38">
       <c r="C62" s="42"/>
       <c r="E62" s="136"/>
-      <c r="F62" s="371" t="s">
+      <c r="F62" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="372"/>
-      <c r="H62" s="373"/>
-      <c r="I62" s="374" t="s">
+      <c r="G62" s="373"/>
+      <c r="H62" s="374"/>
+      <c r="I62" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="J62" s="375"/>
-      <c r="K62" s="376"/>
-      <c r="L62" s="425" t="s">
+      <c r="J62" s="376"/>
+      <c r="K62" s="377"/>
+      <c r="L62" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="426"/>
-      <c r="N62" s="426"/>
-      <c r="O62" s="427"/>
-      <c r="P62" s="429" t="s">
+      <c r="M62" s="428"/>
+      <c r="N62" s="428"/>
+      <c r="O62" s="429"/>
+      <c r="P62" s="431" t="s">
         <v>79</v>
       </c>
-      <c r="Q62" s="429"/>
-      <c r="R62" s="429"/>
-      <c r="S62" s="429"/>
-      <c r="T62" s="429"/>
-      <c r="U62" s="429"/>
-      <c r="V62" s="429"/>
-      <c r="W62" s="429"/>
-      <c r="X62" s="429"/>
-      <c r="Y62" s="429"/>
-      <c r="Z62" s="429"/>
-      <c r="AA62" s="429"/>
-      <c r="AB62" s="429"/>
-      <c r="AC62" s="429"/>
+      <c r="Q62" s="431"/>
+      <c r="R62" s="431"/>
+      <c r="S62" s="431"/>
+      <c r="T62" s="431"/>
+      <c r="U62" s="431"/>
+      <c r="V62" s="431"/>
+      <c r="W62" s="431"/>
+      <c r="X62" s="431"/>
+      <c r="Y62" s="431"/>
+      <c r="Z62" s="431"/>
+      <c r="AA62" s="431"/>
+      <c r="AB62" s="431"/>
+      <c r="AC62" s="431"/>
       <c r="AL62" s="126"/>
     </row>
     <row r="63" spans="3:38">
@@ -36937,28 +36907,28 @@
       </c>
       <c r="J63" s="213"/>
       <c r="K63" s="214"/>
-      <c r="L63" s="388" t="s">
+      <c r="L63" s="390" t="s">
         <v>195</v>
       </c>
-      <c r="M63" s="389"/>
-      <c r="N63" s="389"/>
-      <c r="O63" s="390"/>
-      <c r="P63" s="428" t="s">
+      <c r="M63" s="391"/>
+      <c r="N63" s="391"/>
+      <c r="O63" s="392"/>
+      <c r="P63" s="430" t="s">
         <v>339</v>
       </c>
-      <c r="Q63" s="428"/>
-      <c r="R63" s="428"/>
-      <c r="S63" s="428"/>
-      <c r="T63" s="428"/>
-      <c r="U63" s="428"/>
-      <c r="V63" s="428"/>
-      <c r="W63" s="428"/>
-      <c r="X63" s="428"/>
-      <c r="Y63" s="428"/>
-      <c r="Z63" s="428"/>
-      <c r="AA63" s="428"/>
-      <c r="AB63" s="428"/>
-      <c r="AC63" s="428"/>
+      <c r="Q63" s="430"/>
+      <c r="R63" s="430"/>
+      <c r="S63" s="430"/>
+      <c r="T63" s="430"/>
+      <c r="U63" s="430"/>
+      <c r="V63" s="430"/>
+      <c r="W63" s="430"/>
+      <c r="X63" s="430"/>
+      <c r="Y63" s="430"/>
+      <c r="Z63" s="430"/>
+      <c r="AA63" s="430"/>
+      <c r="AB63" s="430"/>
+      <c r="AC63" s="430"/>
     </row>
     <row r="64" spans="3:38">
       <c r="C64" s="42"/>
@@ -37103,41 +37073,41 @@
       <c r="E72" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="454"/>
-      <c r="G72" s="454"/>
-      <c r="H72" s="454"/>
-      <c r="I72" s="454"/>
-      <c r="J72" s="455"/>
-      <c r="K72" s="456" t="s">
+      <c r="F72" s="456"/>
+      <c r="G72" s="456"/>
+      <c r="H72" s="456"/>
+      <c r="I72" s="456"/>
+      <c r="J72" s="457"/>
+      <c r="K72" s="458" t="s">
         <v>197</v>
       </c>
-      <c r="L72" s="457"/>
-      <c r="M72" s="457"/>
-      <c r="N72" s="457"/>
-      <c r="O72" s="457"/>
-      <c r="P72" s="457"/>
-      <c r="Q72" s="457"/>
-      <c r="R72" s="457"/>
-      <c r="S72" s="457"/>
-      <c r="T72" s="457"/>
-      <c r="U72" s="457"/>
-      <c r="V72" s="457"/>
-      <c r="W72" s="457"/>
-      <c r="X72" s="457"/>
-      <c r="Y72" s="457"/>
-      <c r="Z72" s="457"/>
-      <c r="AA72" s="457"/>
-      <c r="AB72" s="457"/>
-      <c r="AC72" s="457"/>
-      <c r="AD72" s="457"/>
-      <c r="AE72" s="457"/>
-      <c r="AF72" s="457"/>
-      <c r="AG72" s="457"/>
-      <c r="AH72" s="458"/>
+      <c r="L72" s="459"/>
+      <c r="M72" s="459"/>
+      <c r="N72" s="459"/>
+      <c r="O72" s="459"/>
+      <c r="P72" s="459"/>
+      <c r="Q72" s="459"/>
+      <c r="R72" s="459"/>
+      <c r="S72" s="459"/>
+      <c r="T72" s="459"/>
+      <c r="U72" s="459"/>
+      <c r="V72" s="459"/>
+      <c r="W72" s="459"/>
+      <c r="X72" s="459"/>
+      <c r="Y72" s="459"/>
+      <c r="Z72" s="459"/>
+      <c r="AA72" s="459"/>
+      <c r="AB72" s="459"/>
+      <c r="AC72" s="459"/>
+      <c r="AD72" s="459"/>
+      <c r="AE72" s="459"/>
+      <c r="AF72" s="459"/>
+      <c r="AG72" s="459"/>
+      <c r="AH72" s="460"/>
       <c r="AI72" s="18"/>
     </row>
     <row r="73" spans="2:70">
-      <c r="E73" s="419" t="s">
+      <c r="E73" s="421" t="s">
         <v>47</v>
       </c>
       <c r="F73" s="335" t="s">
@@ -37147,19 +37117,19 @@
       <c r="H73" s="336"/>
       <c r="I73" s="336"/>
       <c r="J73" s="337"/>
-      <c r="K73" s="374" t="s">
+      <c r="K73" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="375"/>
-      <c r="O73" s="375"/>
-      <c r="P73" s="375"/>
-      <c r="Q73" s="375"/>
-      <c r="R73" s="375"/>
-      <c r="S73" s="375"/>
-      <c r="T73" s="375"/>
-      <c r="U73" s="376"/>
+      <c r="L73" s="376"/>
+      <c r="M73" s="376"/>
+      <c r="N73" s="376"/>
+      <c r="O73" s="376"/>
+      <c r="P73" s="376"/>
+      <c r="Q73" s="376"/>
+      <c r="R73" s="376"/>
+      <c r="S73" s="376"/>
+      <c r="T73" s="376"/>
+      <c r="U73" s="377"/>
       <c r="V73" s="335" t="s">
         <v>25</v>
       </c>
@@ -37180,27 +37150,27 @@
       <c r="AI73" s="53"/>
     </row>
     <row r="74" spans="2:70">
-      <c r="E74" s="420"/>
+      <c r="E74" s="422"/>
       <c r="F74" s="338"/>
       <c r="G74" s="339"/>
       <c r="H74" s="339"/>
       <c r="I74" s="339"/>
       <c r="J74" s="340"/>
-      <c r="K74" s="374" t="s">
+      <c r="K74" s="375" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="375"/>
-      <c r="O74" s="375"/>
-      <c r="P74" s="376"/>
-      <c r="Q74" s="374" t="s">
+      <c r="L74" s="376"/>
+      <c r="M74" s="376"/>
+      <c r="N74" s="376"/>
+      <c r="O74" s="376"/>
+      <c r="P74" s="377"/>
+      <c r="Q74" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="R74" s="375"/>
-      <c r="S74" s="375"/>
-      <c r="T74" s="375"/>
-      <c r="U74" s="376"/>
+      <c r="R74" s="376"/>
+      <c r="S74" s="376"/>
+      <c r="T74" s="376"/>
+      <c r="U74" s="377"/>
       <c r="V74" s="338"/>
       <c r="W74" s="339"/>
       <c r="X74" s="339"/>
@@ -37209,49 +37179,49 @@
       <c r="AA74" s="339"/>
       <c r="AB74" s="339"/>
       <c r="AC74" s="340"/>
-      <c r="AD74" s="422"/>
-      <c r="AE74" s="423"/>
-      <c r="AF74" s="423"/>
-      <c r="AG74" s="423"/>
-      <c r="AH74" s="424"/>
+      <c r="AD74" s="424"/>
+      <c r="AE74" s="425"/>
+      <c r="AF74" s="425"/>
+      <c r="AG74" s="425"/>
+      <c r="AH74" s="426"/>
       <c r="AI74" s="49"/>
     </row>
     <row r="75" spans="2:70">
       <c r="E75" s="47">
         <v>1</v>
       </c>
-      <c r="F75" s="421" t="s">
+      <c r="F75" s="423" t="s">
         <v>198</v>
       </c>
-      <c r="G75" s="380"/>
-      <c r="H75" s="380"/>
-      <c r="I75" s="380"/>
-      <c r="J75" s="381"/>
-      <c r="K75" s="421" t="s">
+      <c r="G75" s="381"/>
+      <c r="H75" s="381"/>
+      <c r="I75" s="381"/>
+      <c r="J75" s="382"/>
+      <c r="K75" s="423" t="s">
         <v>359</v>
       </c>
-      <c r="L75" s="380"/>
-      <c r="M75" s="380"/>
-      <c r="N75" s="380"/>
-      <c r="O75" s="380"/>
-      <c r="P75" s="381"/>
-      <c r="Q75" s="421" t="s">
+      <c r="L75" s="381"/>
+      <c r="M75" s="381"/>
+      <c r="N75" s="381"/>
+      <c r="O75" s="381"/>
+      <c r="P75" s="382"/>
+      <c r="Q75" s="423" t="s">
         <v>359</v>
       </c>
-      <c r="R75" s="380"/>
-      <c r="S75" s="380"/>
-      <c r="T75" s="380"/>
-      <c r="U75" s="381"/>
-      <c r="V75" s="421" t="s">
+      <c r="R75" s="381"/>
+      <c r="S75" s="381"/>
+      <c r="T75" s="381"/>
+      <c r="U75" s="382"/>
+      <c r="V75" s="423" t="s">
         <v>201</v>
       </c>
-      <c r="W75" s="380"/>
-      <c r="X75" s="380"/>
-      <c r="Y75" s="380"/>
-      <c r="Z75" s="380"/>
-      <c r="AA75" s="380"/>
-      <c r="AB75" s="380"/>
-      <c r="AC75" s="381"/>
+      <c r="W75" s="381"/>
+      <c r="X75" s="381"/>
+      <c r="Y75" s="381"/>
+      <c r="Z75" s="381"/>
+      <c r="AA75" s="381"/>
+      <c r="AB75" s="381"/>
+      <c r="AC75" s="382"/>
       <c r="AD75" s="212"/>
       <c r="AE75" s="213"/>
       <c r="AF75" s="213"/>
@@ -37263,38 +37233,38 @@
       <c r="E76" s="47">
         <v>2</v>
       </c>
-      <c r="F76" s="421" t="s">
+      <c r="F76" s="423" t="s">
         <v>185</v>
       </c>
-      <c r="G76" s="380"/>
-      <c r="H76" s="380"/>
-      <c r="I76" s="380"/>
-      <c r="J76" s="381"/>
-      <c r="K76" s="421" t="s">
+      <c r="G76" s="381"/>
+      <c r="H76" s="381"/>
+      <c r="I76" s="381"/>
+      <c r="J76" s="382"/>
+      <c r="K76" s="423" t="s">
         <v>183</v>
       </c>
-      <c r="L76" s="380"/>
-      <c r="M76" s="380"/>
-      <c r="N76" s="380"/>
-      <c r="O76" s="380"/>
-      <c r="P76" s="381"/>
-      <c r="Q76" s="421" t="s">
+      <c r="L76" s="381"/>
+      <c r="M76" s="381"/>
+      <c r="N76" s="381"/>
+      <c r="O76" s="381"/>
+      <c r="P76" s="382"/>
+      <c r="Q76" s="423" t="s">
         <v>185</v>
       </c>
-      <c r="R76" s="380"/>
-      <c r="S76" s="380"/>
-      <c r="T76" s="380"/>
-      <c r="U76" s="381"/>
-      <c r="V76" s="421" t="s">
+      <c r="R76" s="381"/>
+      <c r="S76" s="381"/>
+      <c r="T76" s="381"/>
+      <c r="U76" s="382"/>
+      <c r="V76" s="423" t="s">
         <v>360</v>
       </c>
-      <c r="W76" s="380"/>
-      <c r="X76" s="380"/>
-      <c r="Y76" s="380"/>
-      <c r="Z76" s="380"/>
-      <c r="AA76" s="380"/>
-      <c r="AB76" s="380"/>
-      <c r="AC76" s="381"/>
+      <c r="W76" s="381"/>
+      <c r="X76" s="381"/>
+      <c r="Y76" s="381"/>
+      <c r="Z76" s="381"/>
+      <c r="AA76" s="381"/>
+      <c r="AB76" s="381"/>
+      <c r="AC76" s="382"/>
       <c r="AD76" s="212"/>
       <c r="AE76" s="213"/>
       <c r="AF76" s="213"/>
@@ -37442,41 +37412,41 @@
       <c r="E81" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="454"/>
-      <c r="G81" s="454"/>
-      <c r="H81" s="454"/>
-      <c r="I81" s="454"/>
-      <c r="J81" s="455"/>
-      <c r="K81" s="456" t="s">
+      <c r="F81" s="456"/>
+      <c r="G81" s="456"/>
+      <c r="H81" s="456"/>
+      <c r="I81" s="456"/>
+      <c r="J81" s="457"/>
+      <c r="K81" s="458" t="s">
         <v>436</v>
       </c>
-      <c r="L81" s="457"/>
-      <c r="M81" s="457"/>
-      <c r="N81" s="457"/>
-      <c r="O81" s="457"/>
-      <c r="P81" s="457"/>
-      <c r="Q81" s="457"/>
-      <c r="R81" s="457"/>
-      <c r="S81" s="457"/>
-      <c r="T81" s="457"/>
-      <c r="U81" s="457"/>
-      <c r="V81" s="457"/>
-      <c r="W81" s="457"/>
-      <c r="X81" s="457"/>
-      <c r="Y81" s="457"/>
-      <c r="Z81" s="457"/>
-      <c r="AA81" s="457"/>
-      <c r="AB81" s="457"/>
-      <c r="AC81" s="457"/>
-      <c r="AD81" s="457"/>
-      <c r="AE81" s="457"/>
-      <c r="AF81" s="457"/>
-      <c r="AG81" s="457"/>
-      <c r="AH81" s="458"/>
+      <c r="L81" s="459"/>
+      <c r="M81" s="459"/>
+      <c r="N81" s="459"/>
+      <c r="O81" s="459"/>
+      <c r="P81" s="459"/>
+      <c r="Q81" s="459"/>
+      <c r="R81" s="459"/>
+      <c r="S81" s="459"/>
+      <c r="T81" s="459"/>
+      <c r="U81" s="459"/>
+      <c r="V81" s="459"/>
+      <c r="W81" s="459"/>
+      <c r="X81" s="459"/>
+      <c r="Y81" s="459"/>
+      <c r="Z81" s="459"/>
+      <c r="AA81" s="459"/>
+      <c r="AB81" s="459"/>
+      <c r="AC81" s="459"/>
+      <c r="AD81" s="459"/>
+      <c r="AE81" s="459"/>
+      <c r="AF81" s="459"/>
+      <c r="AG81" s="459"/>
+      <c r="AH81" s="460"/>
       <c r="AI81" s="97"/>
     </row>
     <row r="82" spans="3:35">
-      <c r="E82" s="419" t="s">
+      <c r="E82" s="421" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="335" t="s">
@@ -37486,19 +37456,19 @@
       <c r="H82" s="336"/>
       <c r="I82" s="336"/>
       <c r="J82" s="337"/>
-      <c r="K82" s="374" t="s">
+      <c r="K82" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="375"/>
-      <c r="O82" s="375"/>
-      <c r="P82" s="375"/>
-      <c r="Q82" s="375"/>
-      <c r="R82" s="375"/>
-      <c r="S82" s="375"/>
-      <c r="T82" s="375"/>
-      <c r="U82" s="376"/>
+      <c r="L82" s="376"/>
+      <c r="M82" s="376"/>
+      <c r="N82" s="376"/>
+      <c r="O82" s="376"/>
+      <c r="P82" s="376"/>
+      <c r="Q82" s="376"/>
+      <c r="R82" s="376"/>
+      <c r="S82" s="376"/>
+      <c r="T82" s="376"/>
+      <c r="U82" s="377"/>
       <c r="V82" s="335" t="s">
         <v>25</v>
       </c>
@@ -37519,27 +37489,27 @@
       <c r="AI82" s="97"/>
     </row>
     <row r="83" spans="3:35">
-      <c r="E83" s="420"/>
+      <c r="E83" s="422"/>
       <c r="F83" s="338"/>
       <c r="G83" s="339"/>
       <c r="H83" s="339"/>
       <c r="I83" s="339"/>
       <c r="J83" s="340"/>
-      <c r="K83" s="374" t="s">
+      <c r="K83" s="375" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="375"/>
-      <c r="O83" s="375"/>
-      <c r="P83" s="376"/>
-      <c r="Q83" s="374" t="s">
+      <c r="L83" s="376"/>
+      <c r="M83" s="376"/>
+      <c r="N83" s="376"/>
+      <c r="O83" s="376"/>
+      <c r="P83" s="377"/>
+      <c r="Q83" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="R83" s="375"/>
-      <c r="S83" s="375"/>
-      <c r="T83" s="375"/>
-      <c r="U83" s="376"/>
+      <c r="R83" s="376"/>
+      <c r="S83" s="376"/>
+      <c r="T83" s="376"/>
+      <c r="U83" s="377"/>
       <c r="V83" s="338"/>
       <c r="W83" s="339"/>
       <c r="X83" s="339"/>
@@ -37548,49 +37518,49 @@
       <c r="AA83" s="339"/>
       <c r="AB83" s="339"/>
       <c r="AC83" s="340"/>
-      <c r="AD83" s="422"/>
-      <c r="AE83" s="423"/>
-      <c r="AF83" s="423"/>
-      <c r="AG83" s="423"/>
-      <c r="AH83" s="424"/>
+      <c r="AD83" s="424"/>
+      <c r="AE83" s="425"/>
+      <c r="AF83" s="425"/>
+      <c r="AG83" s="425"/>
+      <c r="AH83" s="426"/>
       <c r="AI83" s="97"/>
     </row>
     <row r="84" spans="3:35">
       <c r="E84" s="47">
         <v>1</v>
       </c>
-      <c r="F84" s="421" t="s">
+      <c r="F84" s="423" t="s">
         <v>202</v>
       </c>
-      <c r="G84" s="380"/>
-      <c r="H84" s="380"/>
-      <c r="I84" s="380"/>
-      <c r="J84" s="381"/>
-      <c r="K84" s="421" t="s">
+      <c r="G84" s="381"/>
+      <c r="H84" s="381"/>
+      <c r="I84" s="381"/>
+      <c r="J84" s="382"/>
+      <c r="K84" s="423" t="s">
         <v>359</v>
       </c>
-      <c r="L84" s="380"/>
-      <c r="M84" s="380"/>
-      <c r="N84" s="380"/>
-      <c r="O84" s="380"/>
-      <c r="P84" s="381"/>
-      <c r="Q84" s="421" t="s">
+      <c r="L84" s="381"/>
+      <c r="M84" s="381"/>
+      <c r="N84" s="381"/>
+      <c r="O84" s="381"/>
+      <c r="P84" s="382"/>
+      <c r="Q84" s="423" t="s">
         <v>359</v>
       </c>
-      <c r="R84" s="380"/>
-      <c r="S84" s="380"/>
-      <c r="T84" s="380"/>
-      <c r="U84" s="381"/>
-      <c r="V84" s="421" t="s">
+      <c r="R84" s="381"/>
+      <c r="S84" s="381"/>
+      <c r="T84" s="381"/>
+      <c r="U84" s="382"/>
+      <c r="V84" s="423" t="s">
         <v>203</v>
       </c>
-      <c r="W84" s="380"/>
-      <c r="X84" s="380"/>
-      <c r="Y84" s="380"/>
-      <c r="Z84" s="380"/>
-      <c r="AA84" s="380"/>
-      <c r="AB84" s="380"/>
-      <c r="AC84" s="381"/>
+      <c r="W84" s="381"/>
+      <c r="X84" s="381"/>
+      <c r="Y84" s="381"/>
+      <c r="Z84" s="381"/>
+      <c r="AA84" s="381"/>
+      <c r="AB84" s="381"/>
+      <c r="AC84" s="382"/>
       <c r="AD84" s="212"/>
       <c r="AE84" s="213"/>
       <c r="AF84" s="213"/>
@@ -38049,13 +38019,13 @@
       <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:38" s="19" customFormat="1">
-      <c r="D10" s="403" t="s">
+      <c r="D10" s="405" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="404"/>
-      <c r="F10" s="404"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="405"/>
+      <c r="E10" s="406"/>
+      <c r="F10" s="406"/>
+      <c r="G10" s="406"/>
+      <c r="H10" s="407"/>
       <c r="I10" s="361" t="s">
         <v>206</v>
       </c>
@@ -38087,13 +38057,13 @@
       <c r="AI10" s="51"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1">
-      <c r="D11" s="403" t="s">
+      <c r="D11" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="404"/>
-      <c r="F11" s="404"/>
-      <c r="G11" s="404"/>
-      <c r="H11" s="405"/>
+      <c r="E11" s="406"/>
+      <c r="F11" s="406"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="407"/>
       <c r="I11" s="361" t="s">
         <v>207</v>
       </c>
@@ -38125,13 +38095,13 @@
       <c r="AI11" s="51"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1">
-      <c r="D12" s="403" t="s">
+      <c r="D12" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="404"/>
-      <c r="H12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="406"/>
+      <c r="H12" s="407"/>
       <c r="I12" s="361" t="s">
         <v>208</v>
       </c>
@@ -38239,16 +38209,16 @@
       <c r="D22" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="371" t="s">
+      <c r="E22" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="372"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374" t="s">
+      <c r="F22" s="373"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="375"/>
-      <c r="J22" s="376"/>
+      <c r="I22" s="376"/>
+      <c r="J22" s="377"/>
       <c r="K22" s="355" t="s">
         <v>90</v>
       </c>
@@ -38293,29 +38263,29 @@
       <c r="K23" s="361" t="s">
         <v>324</v>
       </c>
-      <c r="L23" s="452"/>
-      <c r="M23" s="452"/>
-      <c r="N23" s="452"/>
-      <c r="O23" s="452"/>
-      <c r="P23" s="452"/>
-      <c r="Q23" s="452"/>
-      <c r="R23" s="452"/>
-      <c r="S23" s="452"/>
-      <c r="T23" s="452"/>
-      <c r="U23" s="452"/>
-      <c r="V23" s="452"/>
-      <c r="W23" s="452"/>
-      <c r="X23" s="452"/>
-      <c r="Y23" s="452"/>
-      <c r="Z23" s="452"/>
-      <c r="AA23" s="452"/>
-      <c r="AB23" s="452"/>
-      <c r="AC23" s="452"/>
-      <c r="AD23" s="452"/>
-      <c r="AE23" s="452"/>
-      <c r="AF23" s="452"/>
-      <c r="AG23" s="452"/>
-      <c r="AH23" s="453"/>
+      <c r="L23" s="454"/>
+      <c r="M23" s="454"/>
+      <c r="N23" s="454"/>
+      <c r="O23" s="454"/>
+      <c r="P23" s="454"/>
+      <c r="Q23" s="454"/>
+      <c r="R23" s="454"/>
+      <c r="S23" s="454"/>
+      <c r="T23" s="454"/>
+      <c r="U23" s="454"/>
+      <c r="V23" s="454"/>
+      <c r="W23" s="454"/>
+      <c r="X23" s="454"/>
+      <c r="Y23" s="454"/>
+      <c r="Z23" s="454"/>
+      <c r="AA23" s="454"/>
+      <c r="AB23" s="454"/>
+      <c r="AC23" s="454"/>
+      <c r="AD23" s="454"/>
+      <c r="AE23" s="454"/>
+      <c r="AF23" s="454"/>
+      <c r="AG23" s="454"/>
+      <c r="AH23" s="455"/>
     </row>
     <row r="24" spans="3:34">
       <c r="D24" s="151"/>
@@ -38392,63 +38362,63 @@
       <c r="C27" s="42"/>
     </row>
     <row r="28" spans="3:34">
-      <c r="D28" s="443" t="s">
+      <c r="D28" s="445" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="392" t="s">
+      <c r="E28" s="394" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="393"/>
-      <c r="G28" s="393"/>
-      <c r="H28" s="393"/>
-      <c r="I28" s="393"/>
-      <c r="J28" s="394"/>
-      <c r="K28" s="445" t="s">
+      <c r="F28" s="395"/>
+      <c r="G28" s="395"/>
+      <c r="H28" s="395"/>
+      <c r="I28" s="395"/>
+      <c r="J28" s="396"/>
+      <c r="K28" s="447" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="393"/>
-      <c r="M28" s="393"/>
-      <c r="N28" s="394"/>
-      <c r="O28" s="446" t="s">
+      <c r="L28" s="395"/>
+      <c r="M28" s="395"/>
+      <c r="N28" s="396"/>
+      <c r="O28" s="448" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="449" t="s">
+      <c r="P28" s="451" t="s">
         <v>65</v>
       </c>
-      <c r="Q28" s="450"/>
-      <c r="R28" s="450"/>
-      <c r="S28" s="450"/>
-      <c r="T28" s="450"/>
-      <c r="U28" s="451"/>
-      <c r="V28" s="408" t="s">
+      <c r="Q28" s="452"/>
+      <c r="R28" s="452"/>
+      <c r="S28" s="452"/>
+      <c r="T28" s="452"/>
+      <c r="U28" s="453"/>
+      <c r="V28" s="410" t="s">
         <v>22</v>
       </c>
-      <c r="W28" s="408"/>
-      <c r="X28" s="408"/>
-      <c r="Y28" s="408"/>
-      <c r="Z28" s="408"/>
-      <c r="AA28" s="408"/>
-      <c r="AB28" s="408"/>
-      <c r="AC28" s="408"/>
-      <c r="AD28" s="408"/>
-      <c r="AE28" s="408"/>
-      <c r="AF28" s="408"/>
-      <c r="AG28" s="408"/>
-      <c r="AH28" s="408"/>
+      <c r="W28" s="410"/>
+      <c r="X28" s="410"/>
+      <c r="Y28" s="410"/>
+      <c r="Z28" s="410"/>
+      <c r="AA28" s="410"/>
+      <c r="AB28" s="410"/>
+      <c r="AC28" s="410"/>
+      <c r="AD28" s="410"/>
+      <c r="AE28" s="410"/>
+      <c r="AF28" s="410"/>
+      <c r="AG28" s="410"/>
+      <c r="AH28" s="410"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1">
-      <c r="D29" s="444"/>
-      <c r="E29" s="395"/>
-      <c r="F29" s="396"/>
-      <c r="G29" s="396"/>
-      <c r="H29" s="396"/>
-      <c r="I29" s="396"/>
-      <c r="J29" s="397"/>
-      <c r="K29" s="395"/>
-      <c r="L29" s="396"/>
-      <c r="M29" s="396"/>
-      <c r="N29" s="397"/>
-      <c r="O29" s="433"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="398"/>
+      <c r="H29" s="398"/>
+      <c r="I29" s="398"/>
+      <c r="J29" s="399"/>
+      <c r="K29" s="397"/>
+      <c r="L29" s="398"/>
+      <c r="M29" s="398"/>
+      <c r="N29" s="399"/>
+      <c r="O29" s="435"/>
       <c r="P29" s="50" t="s">
         <v>66</v>
       </c>
@@ -38461,23 +38431,23 @@
       <c r="S29" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="T29" s="447" t="s">
+      <c r="T29" s="449" t="s">
         <v>70</v>
       </c>
-      <c r="U29" s="448"/>
-      <c r="V29" s="408"/>
-      <c r="W29" s="408"/>
-      <c r="X29" s="408"/>
-      <c r="Y29" s="408"/>
-      <c r="Z29" s="408"/>
-      <c r="AA29" s="408"/>
-      <c r="AB29" s="408"/>
-      <c r="AC29" s="408"/>
-      <c r="AD29" s="408"/>
-      <c r="AE29" s="408"/>
-      <c r="AF29" s="408"/>
-      <c r="AG29" s="408"/>
-      <c r="AH29" s="408"/>
+      <c r="U29" s="450"/>
+      <c r="V29" s="410"/>
+      <c r="W29" s="410"/>
+      <c r="X29" s="410"/>
+      <c r="Y29" s="410"/>
+      <c r="Z29" s="410"/>
+      <c r="AA29" s="410"/>
+      <c r="AB29" s="410"/>
+      <c r="AC29" s="410"/>
+      <c r="AD29" s="410"/>
+      <c r="AE29" s="410"/>
+      <c r="AF29" s="410"/>
+      <c r="AG29" s="410"/>
+      <c r="AH29" s="410"/>
     </row>
     <row r="30" spans="3:34" s="19" customFormat="1">
       <c r="D30" s="45">
@@ -38512,10 +38482,10 @@
       <c r="S30" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T30" s="441" t="s">
+      <c r="T30" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U30" s="442"/>
+      <c r="U30" s="444"/>
       <c r="V30" s="212"/>
       <c r="W30" s="213"/>
       <c r="X30" s="213"/>
@@ -38563,10 +38533,10 @@
       <c r="S31" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T31" s="441" t="s">
+      <c r="T31" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U31" s="442"/>
+      <c r="U31" s="444"/>
       <c r="V31" s="212"/>
       <c r="W31" s="213"/>
       <c r="X31" s="213"/>
@@ -38614,10 +38584,10 @@
       <c r="S32" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T32" s="441" t="s">
+      <c r="T32" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U32" s="442"/>
+      <c r="U32" s="444"/>
       <c r="V32" s="212"/>
       <c r="W32" s="213"/>
       <c r="X32" s="213"/>
@@ -38665,10 +38635,10 @@
       <c r="S33" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="T33" s="441" t="s">
+      <c r="T33" s="443" t="s">
         <v>354</v>
       </c>
-      <c r="U33" s="442"/>
+      <c r="U33" s="444"/>
       <c r="V33" s="212"/>
       <c r="W33" s="213"/>
       <c r="X33" s="213"/>
@@ -38703,120 +38673,120 @@
       </c>
     </row>
     <row r="40" spans="3:36" s="19" customFormat="1">
-      <c r="E40" s="430" t="s">
+      <c r="E40" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="430"/>
-      <c r="G40" s="430"/>
-      <c r="H40" s="430"/>
-      <c r="I40" s="430"/>
-      <c r="J40" s="430"/>
-      <c r="K40" s="430"/>
-      <c r="L40" s="430"/>
-      <c r="M40" s="430"/>
-      <c r="N40" s="430"/>
-      <c r="O40" s="430"/>
-      <c r="P40" s="430"/>
-      <c r="Q40" s="430"/>
-      <c r="R40" s="430"/>
-      <c r="S40" s="430"/>
-      <c r="T40" s="430"/>
-      <c r="U40" s="430"/>
-      <c r="V40" s="430"/>
-      <c r="W40" s="430"/>
-      <c r="X40" s="430"/>
-      <c r="Y40" s="430"/>
-      <c r="Z40" s="430"/>
-      <c r="AA40" s="430"/>
-      <c r="AB40" s="430"/>
-      <c r="AC40" s="430"/>
-      <c r="AD40" s="430"/>
-      <c r="AE40" s="430"/>
-      <c r="AF40" s="430"/>
-      <c r="AG40" s="430"/>
-      <c r="AH40" s="430"/>
+      <c r="F40" s="432"/>
+      <c r="G40" s="432"/>
+      <c r="H40" s="432"/>
+      <c r="I40" s="432"/>
+      <c r="J40" s="432"/>
+      <c r="K40" s="432"/>
+      <c r="L40" s="432"/>
+      <c r="M40" s="432"/>
+      <c r="N40" s="432"/>
+      <c r="O40" s="432"/>
+      <c r="P40" s="432"/>
+      <c r="Q40" s="432"/>
+      <c r="R40" s="432"/>
+      <c r="S40" s="432"/>
+      <c r="T40" s="432"/>
+      <c r="U40" s="432"/>
+      <c r="V40" s="432"/>
+      <c r="W40" s="432"/>
+      <c r="X40" s="432"/>
+      <c r="Y40" s="432"/>
+      <c r="Z40" s="432"/>
+      <c r="AA40" s="432"/>
+      <c r="AB40" s="432"/>
+      <c r="AC40" s="432"/>
+      <c r="AD40" s="432"/>
+      <c r="AE40" s="432"/>
+      <c r="AF40" s="432"/>
+      <c r="AG40" s="432"/>
+      <c r="AH40" s="432"/>
       <c r="AI40" s="100"/>
       <c r="AJ40" s="99"/>
     </row>
     <row r="41" spans="3:36" s="19" customFormat="1">
-      <c r="E41" s="431" t="s">
+      <c r="E41" s="433" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="420" t="s">
+      <c r="F41" s="422" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="420"/>
-      <c r="H41" s="420"/>
-      <c r="I41" s="420"/>
-      <c r="J41" s="420"/>
-      <c r="K41" s="420"/>
-      <c r="L41" s="420" t="s">
+      <c r="G41" s="422"/>
+      <c r="H41" s="422"/>
+      <c r="I41" s="422"/>
+      <c r="J41" s="422"/>
+      <c r="K41" s="422"/>
+      <c r="L41" s="422" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="420"/>
-      <c r="N41" s="420"/>
-      <c r="O41" s="420"/>
-      <c r="P41" s="420"/>
-      <c r="Q41" s="433" t="s">
+      <c r="M41" s="422"/>
+      <c r="N41" s="422"/>
+      <c r="O41" s="422"/>
+      <c r="P41" s="422"/>
+      <c r="Q41" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="431" t="s">
+      <c r="R41" s="433" t="s">
         <v>62</v>
       </c>
-      <c r="S41" s="431"/>
-      <c r="T41" s="431"/>
-      <c r="U41" s="431"/>
-      <c r="V41" s="431"/>
-      <c r="W41" s="430" t="s">
+      <c r="S41" s="433"/>
+      <c r="T41" s="433"/>
+      <c r="U41" s="433"/>
+      <c r="V41" s="433"/>
+      <c r="W41" s="432" t="s">
         <v>22</v>
       </c>
-      <c r="X41" s="430"/>
-      <c r="Y41" s="430"/>
-      <c r="Z41" s="430"/>
-      <c r="AA41" s="430"/>
-      <c r="AB41" s="430"/>
-      <c r="AC41" s="430"/>
-      <c r="AD41" s="430"/>
-      <c r="AE41" s="430"/>
-      <c r="AF41" s="430"/>
-      <c r="AG41" s="430"/>
-      <c r="AH41" s="430"/>
+      <c r="X41" s="432"/>
+      <c r="Y41" s="432"/>
+      <c r="Z41" s="432"/>
+      <c r="AA41" s="432"/>
+      <c r="AB41" s="432"/>
+      <c r="AC41" s="432"/>
+      <c r="AD41" s="432"/>
+      <c r="AE41" s="432"/>
+      <c r="AF41" s="432"/>
+      <c r="AG41" s="432"/>
+      <c r="AH41" s="432"/>
       <c r="AI41" s="101"/>
       <c r="AJ41" s="99"/>
     </row>
     <row r="42" spans="3:36" s="19" customFormat="1">
-      <c r="E42" s="432"/>
-      <c r="F42" s="430"/>
-      <c r="G42" s="430"/>
-      <c r="H42" s="430"/>
-      <c r="I42" s="430"/>
-      <c r="J42" s="430"/>
-      <c r="K42" s="430"/>
-      <c r="L42" s="430"/>
-      <c r="M42" s="430"/>
-      <c r="N42" s="430"/>
-      <c r="O42" s="430"/>
-      <c r="P42" s="430"/>
-      <c r="Q42" s="434"/>
-      <c r="R42" s="432" t="s">
+      <c r="E42" s="434"/>
+      <c r="F42" s="432"/>
+      <c r="G42" s="432"/>
+      <c r="H42" s="432"/>
+      <c r="I42" s="432"/>
+      <c r="J42" s="432"/>
+      <c r="K42" s="432"/>
+      <c r="L42" s="432"/>
+      <c r="M42" s="432"/>
+      <c r="N42" s="432"/>
+      <c r="O42" s="432"/>
+      <c r="P42" s="432"/>
+      <c r="Q42" s="436"/>
+      <c r="R42" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="S42" s="432"/>
-      <c r="T42" s="432"/>
-      <c r="U42" s="432"/>
-      <c r="V42" s="432"/>
-      <c r="W42" s="430"/>
-      <c r="X42" s="430"/>
-      <c r="Y42" s="430"/>
-      <c r="Z42" s="430"/>
-      <c r="AA42" s="430"/>
-      <c r="AB42" s="430"/>
-      <c r="AC42" s="430"/>
-      <c r="AD42" s="430"/>
-      <c r="AE42" s="430"/>
-      <c r="AF42" s="430"/>
-      <c r="AG42" s="430"/>
-      <c r="AH42" s="430"/>
+      <c r="S42" s="434"/>
+      <c r="T42" s="434"/>
+      <c r="U42" s="434"/>
+      <c r="V42" s="434"/>
+      <c r="W42" s="432"/>
+      <c r="X42" s="432"/>
+      <c r="Y42" s="432"/>
+      <c r="Z42" s="432"/>
+      <c r="AA42" s="432"/>
+      <c r="AB42" s="432"/>
+      <c r="AC42" s="432"/>
+      <c r="AD42" s="432"/>
+      <c r="AE42" s="432"/>
+      <c r="AF42" s="432"/>
+      <c r="AG42" s="432"/>
+      <c r="AH42" s="432"/>
       <c r="AI42" s="101"/>
       <c r="AJ42" s="99"/>
     </row>
@@ -38824,7 +38794,7 @@
       <c r="E43" s="46">
         <v>1</v>
       </c>
-      <c r="F43" s="435" t="s">
+      <c r="F43" s="437" t="s">
         <v>210</v>
       </c>
       <c r="G43" s="364"/>
@@ -38832,17 +38802,17 @@
       <c r="I43" s="364"/>
       <c r="J43" s="364"/>
       <c r="K43" s="364"/>
-      <c r="L43" s="436" t="s">
+      <c r="L43" s="438" t="s">
         <v>215</v>
       </c>
-      <c r="M43" s="437"/>
-      <c r="N43" s="437"/>
-      <c r="O43" s="437"/>
-      <c r="P43" s="437"/>
+      <c r="M43" s="439"/>
+      <c r="N43" s="439"/>
+      <c r="O43" s="439"/>
+      <c r="P43" s="439"/>
       <c r="Q43" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R43" s="435" t="s">
+      <c r="R43" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S43" s="364"/>
@@ -38868,7 +38838,7 @@
       <c r="E44" s="46">
         <v>2</v>
       </c>
-      <c r="F44" s="435" t="s">
+      <c r="F44" s="437" t="s">
         <v>210</v>
       </c>
       <c r="G44" s="364"/>
@@ -38876,17 +38846,17 @@
       <c r="I44" s="364"/>
       <c r="J44" s="364"/>
       <c r="K44" s="364"/>
-      <c r="L44" s="436" t="s">
+      <c r="L44" s="438" t="s">
         <v>216</v>
       </c>
-      <c r="M44" s="437"/>
-      <c r="N44" s="437"/>
-      <c r="O44" s="437"/>
-      <c r="P44" s="437"/>
+      <c r="M44" s="439"/>
+      <c r="N44" s="439"/>
+      <c r="O44" s="439"/>
+      <c r="P44" s="439"/>
       <c r="Q44" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R44" s="435" t="s">
+      <c r="R44" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S44" s="364"/>
@@ -38912,7 +38882,7 @@
       <c r="E45" s="46">
         <v>3</v>
       </c>
-      <c r="F45" s="435" t="s">
+      <c r="F45" s="437" t="s">
         <v>147</v>
       </c>
       <c r="G45" s="364"/>
@@ -38920,17 +38890,17 @@
       <c r="I45" s="364"/>
       <c r="J45" s="364"/>
       <c r="K45" s="364"/>
-      <c r="L45" s="436" t="s">
+      <c r="L45" s="438" t="s">
         <v>217</v>
       </c>
-      <c r="M45" s="437"/>
-      <c r="N45" s="437"/>
-      <c r="O45" s="437"/>
-      <c r="P45" s="437"/>
+      <c r="M45" s="439"/>
+      <c r="N45" s="439"/>
+      <c r="O45" s="439"/>
+      <c r="P45" s="439"/>
       <c r="Q45" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R45" s="435" t="s">
+      <c r="R45" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S45" s="364"/>
@@ -38956,7 +38926,7 @@
       <c r="E46" s="46">
         <v>4</v>
       </c>
-      <c r="F46" s="435" t="s">
+      <c r="F46" s="437" t="s">
         <v>147</v>
       </c>
       <c r="G46" s="364"/>
@@ -38964,17 +38934,17 @@
       <c r="I46" s="364"/>
       <c r="J46" s="364"/>
       <c r="K46" s="364"/>
-      <c r="L46" s="436" t="s">
+      <c r="L46" s="438" t="s">
         <v>218</v>
       </c>
-      <c r="M46" s="437"/>
-      <c r="N46" s="437"/>
-      <c r="O46" s="437"/>
-      <c r="P46" s="437"/>
+      <c r="M46" s="439"/>
+      <c r="N46" s="439"/>
+      <c r="O46" s="439"/>
+      <c r="P46" s="439"/>
       <c r="Q46" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R46" s="435" t="s">
+      <c r="R46" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S46" s="364"/>
@@ -39000,7 +38970,7 @@
       <c r="E47" s="46">
         <v>5</v>
       </c>
-      <c r="F47" s="435" t="s">
+      <c r="F47" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G47" s="364"/>
@@ -39008,17 +38978,17 @@
       <c r="I47" s="364"/>
       <c r="J47" s="364"/>
       <c r="K47" s="364"/>
-      <c r="L47" s="436" t="s">
+      <c r="L47" s="438" t="s">
         <v>219</v>
       </c>
-      <c r="M47" s="437"/>
-      <c r="N47" s="437"/>
-      <c r="O47" s="437"/>
-      <c r="P47" s="437"/>
+      <c r="M47" s="439"/>
+      <c r="N47" s="439"/>
+      <c r="O47" s="439"/>
+      <c r="P47" s="439"/>
       <c r="Q47" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R47" s="435" t="s">
+      <c r="R47" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S47" s="364"/>
@@ -39044,7 +39014,7 @@
       <c r="E48" s="46">
         <v>6</v>
       </c>
-      <c r="F48" s="435" t="s">
+      <c r="F48" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G48" s="364"/>
@@ -39052,17 +39022,17 @@
       <c r="I48" s="364"/>
       <c r="J48" s="364"/>
       <c r="K48" s="364"/>
-      <c r="L48" s="436" t="s">
+      <c r="L48" s="438" t="s">
         <v>220</v>
       </c>
-      <c r="M48" s="437"/>
-      <c r="N48" s="437"/>
-      <c r="O48" s="437"/>
-      <c r="P48" s="437"/>
+      <c r="M48" s="439"/>
+      <c r="N48" s="439"/>
+      <c r="O48" s="439"/>
+      <c r="P48" s="439"/>
       <c r="Q48" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R48" s="435" t="s">
+      <c r="R48" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S48" s="364"/>
@@ -39088,7 +39058,7 @@
       <c r="E49" s="46">
         <v>7</v>
       </c>
-      <c r="F49" s="435" t="s">
+      <c r="F49" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G49" s="364"/>
@@ -39096,17 +39066,17 @@
       <c r="I49" s="364"/>
       <c r="J49" s="364"/>
       <c r="K49" s="364"/>
-      <c r="L49" s="436" t="s">
+      <c r="L49" s="438" t="s">
         <v>221</v>
       </c>
-      <c r="M49" s="437"/>
-      <c r="N49" s="437"/>
-      <c r="O49" s="437"/>
-      <c r="P49" s="437"/>
+      <c r="M49" s="439"/>
+      <c r="N49" s="439"/>
+      <c r="O49" s="439"/>
+      <c r="P49" s="439"/>
       <c r="Q49" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R49" s="435" t="s">
+      <c r="R49" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S49" s="364"/>
@@ -39132,7 +39102,7 @@
       <c r="E50" s="46">
         <v>8</v>
       </c>
-      <c r="F50" s="435" t="s">
+      <c r="F50" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G50" s="364"/>
@@ -39140,17 +39110,17 @@
       <c r="I50" s="364"/>
       <c r="J50" s="364"/>
       <c r="K50" s="364"/>
-      <c r="L50" s="436" t="s">
+      <c r="L50" s="438" t="s">
         <v>222</v>
       </c>
-      <c r="M50" s="437"/>
-      <c r="N50" s="437"/>
-      <c r="O50" s="437"/>
-      <c r="P50" s="437"/>
+      <c r="M50" s="439"/>
+      <c r="N50" s="439"/>
+      <c r="O50" s="439"/>
+      <c r="P50" s="439"/>
       <c r="Q50" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R50" s="435" t="s">
+      <c r="R50" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S50" s="364"/>
@@ -39176,7 +39146,7 @@
       <c r="E51" s="46">
         <v>9</v>
       </c>
-      <c r="F51" s="435" t="s">
+      <c r="F51" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="364"/>
@@ -39184,17 +39154,17 @@
       <c r="I51" s="364"/>
       <c r="J51" s="364"/>
       <c r="K51" s="364"/>
-      <c r="L51" s="436" t="s">
+      <c r="L51" s="438" t="s">
         <v>223</v>
       </c>
-      <c r="M51" s="437"/>
-      <c r="N51" s="437"/>
-      <c r="O51" s="437"/>
-      <c r="P51" s="437"/>
+      <c r="M51" s="439"/>
+      <c r="N51" s="439"/>
+      <c r="O51" s="439"/>
+      <c r="P51" s="439"/>
       <c r="Q51" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R51" s="435" t="s">
+      <c r="R51" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S51" s="364"/>
@@ -39220,7 +39190,7 @@
       <c r="E52" s="46">
         <v>10</v>
       </c>
-      <c r="F52" s="435" t="s">
+      <c r="F52" s="437" t="s">
         <v>211</v>
       </c>
       <c r="G52" s="364"/>
@@ -39228,17 +39198,17 @@
       <c r="I52" s="364"/>
       <c r="J52" s="364"/>
       <c r="K52" s="364"/>
-      <c r="L52" s="436" t="s">
+      <c r="L52" s="438" t="s">
         <v>224</v>
       </c>
-      <c r="M52" s="437"/>
-      <c r="N52" s="437"/>
-      <c r="O52" s="437"/>
-      <c r="P52" s="437"/>
+      <c r="M52" s="439"/>
+      <c r="N52" s="439"/>
+      <c r="O52" s="439"/>
+      <c r="P52" s="439"/>
       <c r="Q52" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="R52" s="435" t="s">
+      <c r="R52" s="437" t="s">
         <v>359</v>
       </c>
       <c r="S52" s="364"/>
@@ -39300,7 +39270,7 @@
     <row r="54" spans="3:40">
       <c r="E54" s="171"/>
       <c r="F54" s="177" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G54" s="177"/>
       <c r="H54" s="177"/>
@@ -39437,38 +39407,38 @@
     </row>
     <row r="62" spans="3:40">
       <c r="C62" s="42"/>
-      <c r="E62" s="371" t="s">
+      <c r="E62" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="372"/>
-      <c r="G62" s="373"/>
-      <c r="H62" s="374" t="s">
+      <c r="F62" s="373"/>
+      <c r="G62" s="374"/>
+      <c r="H62" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="375"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="425" t="s">
+      <c r="I62" s="376"/>
+      <c r="J62" s="377"/>
+      <c r="K62" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="L62" s="426"/>
-      <c r="M62" s="426"/>
-      <c r="N62" s="427"/>
-      <c r="O62" s="429" t="s">
+      <c r="L62" s="428"/>
+      <c r="M62" s="428"/>
+      <c r="N62" s="429"/>
+      <c r="O62" s="431" t="s">
         <v>79</v>
       </c>
-      <c r="P62" s="429"/>
-      <c r="Q62" s="429"/>
-      <c r="R62" s="429"/>
-      <c r="S62" s="429"/>
-      <c r="T62" s="429"/>
-      <c r="U62" s="429"/>
-      <c r="V62" s="429"/>
-      <c r="W62" s="429"/>
-      <c r="X62" s="429"/>
-      <c r="Y62" s="429"/>
-      <c r="Z62" s="429"/>
-      <c r="AA62" s="429"/>
-      <c r="AB62" s="429"/>
+      <c r="P62" s="431"/>
+      <c r="Q62" s="431"/>
+      <c r="R62" s="431"/>
+      <c r="S62" s="431"/>
+      <c r="T62" s="431"/>
+      <c r="U62" s="431"/>
+      <c r="V62" s="431"/>
+      <c r="W62" s="431"/>
+      <c r="X62" s="431"/>
+      <c r="Y62" s="431"/>
+      <c r="Z62" s="431"/>
+      <c r="AA62" s="431"/>
+      <c r="AB62" s="431"/>
     </row>
     <row r="63" spans="3:40">
       <c r="C63" s="42"/>
@@ -39482,28 +39452,28 @@
       </c>
       <c r="I63" s="213"/>
       <c r="J63" s="214"/>
-      <c r="K63" s="388" t="s">
+      <c r="K63" s="390" t="s">
         <v>361</v>
       </c>
-      <c r="L63" s="389"/>
-      <c r="M63" s="389"/>
-      <c r="N63" s="390"/>
-      <c r="O63" s="428" t="s">
+      <c r="L63" s="391"/>
+      <c r="M63" s="391"/>
+      <c r="N63" s="392"/>
+      <c r="O63" s="430" t="s">
         <v>359</v>
       </c>
-      <c r="P63" s="428"/>
-      <c r="Q63" s="428"/>
-      <c r="R63" s="428"/>
-      <c r="S63" s="428"/>
-      <c r="T63" s="428"/>
-      <c r="U63" s="428"/>
-      <c r="V63" s="428"/>
-      <c r="W63" s="428"/>
-      <c r="X63" s="428"/>
-      <c r="Y63" s="428"/>
-      <c r="Z63" s="428"/>
-      <c r="AA63" s="428"/>
-      <c r="AB63" s="428"/>
+      <c r="P63" s="430"/>
+      <c r="Q63" s="430"/>
+      <c r="R63" s="430"/>
+      <c r="S63" s="430"/>
+      <c r="T63" s="430"/>
+      <c r="U63" s="430"/>
+      <c r="V63" s="430"/>
+      <c r="W63" s="430"/>
+      <c r="X63" s="430"/>
+      <c r="Y63" s="430"/>
+      <c r="Z63" s="430"/>
+      <c r="AA63" s="430"/>
+      <c r="AB63" s="430"/>
     </row>
     <row r="64" spans="3:40">
       <c r="C64" s="42"/>
@@ -39751,43 +39721,43 @@
     <row r="76" spans="2:70">
       <c r="C76" s="42"/>
       <c r="D76" s="44"/>
-      <c r="F76" s="459" t="s">
+      <c r="F76" s="383" t="s">
         <v>331</v>
       </c>
-      <c r="G76" s="460"/>
-      <c r="H76" s="461"/>
-      <c r="I76" s="462" t="s">
+      <c r="G76" s="384"/>
+      <c r="H76" s="385"/>
+      <c r="I76" s="461" t="s">
         <v>370</v>
       </c>
-      <c r="J76" s="463"/>
-      <c r="K76" s="463"/>
-      <c r="L76" s="463"/>
-      <c r="M76" s="464"/>
-      <c r="N76" s="459" t="s">
+      <c r="J76" s="462"/>
+      <c r="K76" s="462"/>
+      <c r="L76" s="462"/>
+      <c r="M76" s="463"/>
+      <c r="N76" s="383" t="s">
         <v>332</v>
       </c>
-      <c r="O76" s="460"/>
-      <c r="P76" s="461"/>
-      <c r="Q76" s="462" t="s">
+      <c r="O76" s="384"/>
+      <c r="P76" s="385"/>
+      <c r="Q76" s="461" t="s">
         <v>349</v>
       </c>
-      <c r="R76" s="463"/>
-      <c r="S76" s="463"/>
-      <c r="T76" s="463"/>
-      <c r="U76" s="463"/>
-      <c r="V76" s="463"/>
-      <c r="W76" s="463"/>
-      <c r="X76" s="463"/>
-      <c r="Y76" s="463"/>
-      <c r="Z76" s="463"/>
-      <c r="AA76" s="463"/>
-      <c r="AB76" s="463"/>
-      <c r="AC76" s="463"/>
-      <c r="AD76" s="463"/>
-      <c r="AE76" s="463"/>
-      <c r="AF76" s="463"/>
-      <c r="AG76" s="463"/>
-      <c r="AH76" s="464"/>
+      <c r="R76" s="462"/>
+      <c r="S76" s="462"/>
+      <c r="T76" s="462"/>
+      <c r="U76" s="462"/>
+      <c r="V76" s="462"/>
+      <c r="W76" s="462"/>
+      <c r="X76" s="462"/>
+      <c r="Y76" s="462"/>
+      <c r="Z76" s="462"/>
+      <c r="AA76" s="462"/>
+      <c r="AB76" s="462"/>
+      <c r="AC76" s="462"/>
+      <c r="AD76" s="462"/>
+      <c r="AE76" s="462"/>
+      <c r="AF76" s="462"/>
+      <c r="AG76" s="462"/>
+      <c r="AH76" s="463"/>
     </row>
     <row r="77" spans="2:70" s="159" customFormat="1">
       <c r="C77" s="161"/>
@@ -40072,32 +40042,32 @@
     </row>
     <row r="85" spans="3:67">
       <c r="C85" s="42"/>
-      <c r="F85" s="466" t="s">
+      <c r="F85" s="465" t="s">
         <v>438</v>
       </c>
-      <c r="G85" s="382" t="s">
+      <c r="G85" s="467" t="s">
         <v>439</v>
       </c>
-      <c r="H85" s="382"/>
-      <c r="I85" s="382"/>
-      <c r="J85" s="382"/>
-      <c r="K85" s="382" t="s">
+      <c r="H85" s="467"/>
+      <c r="I85" s="467"/>
+      <c r="J85" s="467"/>
+      <c r="K85" s="467" t="s">
         <v>440</v>
       </c>
-      <c r="L85" s="382"/>
-      <c r="M85" s="382"/>
-      <c r="N85" s="382"/>
-      <c r="O85" s="430" t="s">
+      <c r="L85" s="467"/>
+      <c r="M85" s="467"/>
+      <c r="N85" s="467"/>
+      <c r="O85" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="P85" s="430"/>
-      <c r="Q85" s="430"/>
-      <c r="R85" s="430"/>
-      <c r="S85" s="430"/>
-      <c r="T85" s="430"/>
-      <c r="U85" s="430"/>
-      <c r="V85" s="430"/>
-      <c r="W85" s="430"/>
+      <c r="P85" s="432"/>
+      <c r="Q85" s="432"/>
+      <c r="R85" s="432"/>
+      <c r="S85" s="432"/>
+      <c r="T85" s="432"/>
+      <c r="U85" s="432"/>
+      <c r="V85" s="432"/>
+      <c r="W85" s="432"/>
       <c r="X85" s="468" t="s">
         <v>25</v>
       </c>
@@ -40116,22 +40086,22 @@
       <c r="AI85" s="147"/>
     </row>
     <row r="86" spans="3:67">
-      <c r="F86" s="467"/>
-      <c r="G86" s="382"/>
-      <c r="H86" s="382"/>
-      <c r="I86" s="382"/>
-      <c r="J86" s="382"/>
-      <c r="K86" s="382"/>
-      <c r="L86" s="382"/>
-      <c r="M86" s="382"/>
-      <c r="N86" s="382"/>
-      <c r="O86" s="432" t="s">
+      <c r="F86" s="466"/>
+      <c r="G86" s="467"/>
+      <c r="H86" s="467"/>
+      <c r="I86" s="467"/>
+      <c r="J86" s="467"/>
+      <c r="K86" s="467"/>
+      <c r="L86" s="467"/>
+      <c r="M86" s="467"/>
+      <c r="N86" s="467"/>
+      <c r="O86" s="434" t="s">
         <v>498</v>
       </c>
-      <c r="P86" s="430"/>
-      <c r="Q86" s="430"/>
-      <c r="R86" s="430"/>
-      <c r="S86" s="430"/>
+      <c r="P86" s="432"/>
+      <c r="Q86" s="432"/>
+      <c r="R86" s="432"/>
+      <c r="S86" s="432"/>
       <c r="T86" s="369" t="s">
         <v>11</v>
       </c>
@@ -40145,356 +40115,356 @@
       <c r="AB86" s="472"/>
       <c r="AC86" s="472"/>
       <c r="AD86" s="473"/>
-      <c r="AE86" s="422"/>
-      <c r="AF86" s="423"/>
-      <c r="AG86" s="423"/>
-      <c r="AH86" s="424"/>
+      <c r="AE86" s="424"/>
+      <c r="AF86" s="425"/>
+      <c r="AG86" s="425"/>
+      <c r="AH86" s="426"/>
       <c r="AI86" s="147"/>
     </row>
     <row r="87" spans="3:67" ht="22.5" customHeight="1">
       <c r="F87" s="146">
         <v>1</v>
       </c>
-      <c r="G87" s="465" t="s">
+      <c r="G87" s="464" t="s">
         <v>608</v>
       </c>
-      <c r="H87" s="465"/>
-      <c r="I87" s="465"/>
-      <c r="J87" s="465"/>
-      <c r="K87" s="465" t="s">
+      <c r="H87" s="464"/>
+      <c r="I87" s="464"/>
+      <c r="J87" s="464"/>
+      <c r="K87" s="464" t="s">
         <v>442</v>
       </c>
-      <c r="L87" s="465"/>
-      <c r="M87" s="465"/>
-      <c r="N87" s="465"/>
-      <c r="O87" s="421" t="s">
+      <c r="L87" s="464"/>
+      <c r="M87" s="464"/>
+      <c r="N87" s="464"/>
+      <c r="O87" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="P87" s="380"/>
-      <c r="Q87" s="380"/>
-      <c r="R87" s="380"/>
-      <c r="S87" s="380"/>
-      <c r="T87" s="435" t="s">
+      <c r="P87" s="381"/>
+      <c r="Q87" s="381"/>
+      <c r="R87" s="381"/>
+      <c r="S87" s="381"/>
+      <c r="T87" s="437" t="s">
         <v>444</v>
       </c>
       <c r="U87" s="364"/>
       <c r="V87" s="364"/>
       <c r="W87" s="364"/>
-      <c r="X87" s="388" t="s">
+      <c r="X87" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y87" s="389"/>
-      <c r="Z87" s="389"/>
-      <c r="AA87" s="389"/>
-      <c r="AB87" s="389"/>
-      <c r="AC87" s="389"/>
-      <c r="AD87" s="390"/>
-      <c r="AE87" s="388"/>
-      <c r="AF87" s="457"/>
-      <c r="AG87" s="457"/>
-      <c r="AH87" s="458"/>
+      <c r="Y87" s="391"/>
+      <c r="Z87" s="391"/>
+      <c r="AA87" s="391"/>
+      <c r="AB87" s="391"/>
+      <c r="AC87" s="391"/>
+      <c r="AD87" s="392"/>
+      <c r="AE87" s="390"/>
+      <c r="AF87" s="459"/>
+      <c r="AG87" s="459"/>
+      <c r="AH87" s="460"/>
       <c r="AI87" s="147"/>
     </row>
     <row r="88" spans="3:67" ht="22.5" customHeight="1">
       <c r="F88" s="146">
         <v>2</v>
       </c>
-      <c r="G88" s="465" t="s">
+      <c r="G88" s="464" t="s">
         <v>456</v>
       </c>
-      <c r="H88" s="465"/>
-      <c r="I88" s="465"/>
-      <c r="J88" s="465"/>
-      <c r="K88" s="465" t="s">
+      <c r="H88" s="464"/>
+      <c r="I88" s="464"/>
+      <c r="J88" s="464"/>
+      <c r="K88" s="464" t="s">
         <v>455</v>
       </c>
-      <c r="L88" s="465"/>
-      <c r="M88" s="465"/>
-      <c r="N88" s="465"/>
-      <c r="O88" s="421" t="s">
+      <c r="L88" s="464"/>
+      <c r="M88" s="464"/>
+      <c r="N88" s="464"/>
+      <c r="O88" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="P88" s="380"/>
-      <c r="Q88" s="380"/>
-      <c r="R88" s="380"/>
-      <c r="S88" s="380"/>
-      <c r="T88" s="435" t="s">
+      <c r="P88" s="381"/>
+      <c r="Q88" s="381"/>
+      <c r="R88" s="381"/>
+      <c r="S88" s="381"/>
+      <c r="T88" s="437" t="s">
         <v>447</v>
       </c>
       <c r="U88" s="364"/>
       <c r="V88" s="364"/>
       <c r="W88" s="364"/>
-      <c r="X88" s="388" t="s">
+      <c r="X88" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y88" s="389"/>
-      <c r="Z88" s="389"/>
-      <c r="AA88" s="389"/>
-      <c r="AB88" s="389"/>
-      <c r="AC88" s="389"/>
-      <c r="AD88" s="390"/>
-      <c r="AE88" s="388"/>
-      <c r="AF88" s="457"/>
-      <c r="AG88" s="457"/>
-      <c r="AH88" s="458"/>
+      <c r="Y88" s="391"/>
+      <c r="Z88" s="391"/>
+      <c r="AA88" s="391"/>
+      <c r="AB88" s="391"/>
+      <c r="AC88" s="391"/>
+      <c r="AD88" s="392"/>
+      <c r="AE88" s="390"/>
+      <c r="AF88" s="459"/>
+      <c r="AG88" s="459"/>
+      <c r="AH88" s="460"/>
     </row>
     <row r="89" spans="3:67" ht="22.5" customHeight="1">
       <c r="F89" s="146">
         <v>3</v>
       </c>
-      <c r="G89" s="465" t="s">
+      <c r="G89" s="464" t="s">
         <v>458</v>
       </c>
-      <c r="H89" s="465"/>
-      <c r="I89" s="465"/>
-      <c r="J89" s="465"/>
-      <c r="K89" s="465" t="s">
+      <c r="H89" s="464"/>
+      <c r="I89" s="464"/>
+      <c r="J89" s="464"/>
+      <c r="K89" s="464" t="s">
         <v>457</v>
       </c>
-      <c r="L89" s="465"/>
-      <c r="M89" s="465"/>
-      <c r="N89" s="465"/>
-      <c r="O89" s="421" t="s">
+      <c r="L89" s="464"/>
+      <c r="M89" s="464"/>
+      <c r="N89" s="464"/>
+      <c r="O89" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="P89" s="380"/>
-      <c r="Q89" s="380"/>
-      <c r="R89" s="380"/>
-      <c r="S89" s="380"/>
-      <c r="T89" s="435" t="s">
+      <c r="P89" s="381"/>
+      <c r="Q89" s="381"/>
+      <c r="R89" s="381"/>
+      <c r="S89" s="381"/>
+      <c r="T89" s="437" t="s">
         <v>448</v>
       </c>
       <c r="U89" s="364"/>
       <c r="V89" s="364"/>
       <c r="W89" s="364"/>
-      <c r="X89" s="388" t="s">
+      <c r="X89" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y89" s="389"/>
-      <c r="Z89" s="389"/>
-      <c r="AA89" s="389"/>
-      <c r="AB89" s="389"/>
-      <c r="AC89" s="389"/>
-      <c r="AD89" s="390"/>
-      <c r="AE89" s="388"/>
-      <c r="AF89" s="457"/>
-      <c r="AG89" s="457"/>
-      <c r="AH89" s="458"/>
+      <c r="Y89" s="391"/>
+      <c r="Z89" s="391"/>
+      <c r="AA89" s="391"/>
+      <c r="AB89" s="391"/>
+      <c r="AC89" s="391"/>
+      <c r="AD89" s="392"/>
+      <c r="AE89" s="390"/>
+      <c r="AF89" s="459"/>
+      <c r="AG89" s="459"/>
+      <c r="AH89" s="460"/>
     </row>
     <row r="90" spans="3:67" ht="22.5" customHeight="1">
       <c r="F90" s="146">
         <v>4</v>
       </c>
-      <c r="G90" s="465" t="s">
+      <c r="G90" s="464" t="s">
         <v>460</v>
       </c>
-      <c r="H90" s="465"/>
-      <c r="I90" s="465"/>
-      <c r="J90" s="465"/>
-      <c r="K90" s="465" t="s">
+      <c r="H90" s="464"/>
+      <c r="I90" s="464"/>
+      <c r="J90" s="464"/>
+      <c r="K90" s="464" t="s">
         <v>459</v>
       </c>
-      <c r="L90" s="465"/>
-      <c r="M90" s="465"/>
-      <c r="N90" s="465"/>
-      <c r="O90" s="421" t="s">
+      <c r="L90" s="464"/>
+      <c r="M90" s="464"/>
+      <c r="N90" s="464"/>
+      <c r="O90" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="P90" s="380"/>
-      <c r="Q90" s="380"/>
-      <c r="R90" s="380"/>
-      <c r="S90" s="380"/>
-      <c r="T90" s="435" t="s">
+      <c r="P90" s="381"/>
+      <c r="Q90" s="381"/>
+      <c r="R90" s="381"/>
+      <c r="S90" s="381"/>
+      <c r="T90" s="437" t="s">
         <v>449</v>
       </c>
       <c r="U90" s="364"/>
       <c r="V90" s="364"/>
       <c r="W90" s="364"/>
-      <c r="X90" s="388" t="s">
+      <c r="X90" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y90" s="389"/>
-      <c r="Z90" s="389"/>
-      <c r="AA90" s="389"/>
-      <c r="AB90" s="389"/>
-      <c r="AC90" s="389"/>
-      <c r="AD90" s="390"/>
-      <c r="AE90" s="388"/>
-      <c r="AF90" s="457"/>
-      <c r="AG90" s="457"/>
-      <c r="AH90" s="458"/>
+      <c r="Y90" s="391"/>
+      <c r="Z90" s="391"/>
+      <c r="AA90" s="391"/>
+      <c r="AB90" s="391"/>
+      <c r="AC90" s="391"/>
+      <c r="AD90" s="392"/>
+      <c r="AE90" s="390"/>
+      <c r="AF90" s="459"/>
+      <c r="AG90" s="459"/>
+      <c r="AH90" s="460"/>
     </row>
     <row r="91" spans="3:67" ht="33.75" customHeight="1">
       <c r="F91" s="146">
         <v>5</v>
       </c>
-      <c r="G91" s="465" t="s">
+      <c r="G91" s="464" t="s">
         <v>462</v>
       </c>
-      <c r="H91" s="465"/>
-      <c r="I91" s="465"/>
-      <c r="J91" s="465"/>
-      <c r="K91" s="465" t="s">
+      <c r="H91" s="464"/>
+      <c r="I91" s="464"/>
+      <c r="J91" s="464"/>
+      <c r="K91" s="464" t="s">
         <v>461</v>
       </c>
-      <c r="L91" s="465"/>
-      <c r="M91" s="465"/>
-      <c r="N91" s="465"/>
-      <c r="O91" s="421" t="s">
+      <c r="L91" s="464"/>
+      <c r="M91" s="464"/>
+      <c r="N91" s="464"/>
+      <c r="O91" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="P91" s="380"/>
-      <c r="Q91" s="380"/>
-      <c r="R91" s="380"/>
-      <c r="S91" s="380"/>
-      <c r="T91" s="435" t="s">
+      <c r="P91" s="381"/>
+      <c r="Q91" s="381"/>
+      <c r="R91" s="381"/>
+      <c r="S91" s="381"/>
+      <c r="T91" s="437" t="s">
         <v>449</v>
       </c>
       <c r="U91" s="364"/>
       <c r="V91" s="364"/>
       <c r="W91" s="364"/>
-      <c r="X91" s="388" t="s">
+      <c r="X91" s="390" t="s">
         <v>453</v>
       </c>
-      <c r="Y91" s="389"/>
-      <c r="Z91" s="389"/>
-      <c r="AA91" s="389"/>
-      <c r="AB91" s="389"/>
-      <c r="AC91" s="389"/>
-      <c r="AD91" s="390"/>
-      <c r="AE91" s="388"/>
-      <c r="AF91" s="457"/>
-      <c r="AG91" s="457"/>
-      <c r="AH91" s="458"/>
+      <c r="Y91" s="391"/>
+      <c r="Z91" s="391"/>
+      <c r="AA91" s="391"/>
+      <c r="AB91" s="391"/>
+      <c r="AC91" s="391"/>
+      <c r="AD91" s="392"/>
+      <c r="AE91" s="390"/>
+      <c r="AF91" s="459"/>
+      <c r="AG91" s="459"/>
+      <c r="AH91" s="460"/>
     </row>
     <row r="92" spans="3:67" ht="67.5" customHeight="1">
       <c r="F92" s="146">
         <v>6</v>
       </c>
-      <c r="G92" s="465" t="s">
+      <c r="G92" s="464" t="s">
         <v>464</v>
       </c>
-      <c r="H92" s="465"/>
-      <c r="I92" s="465"/>
-      <c r="J92" s="465"/>
-      <c r="K92" s="465" t="s">
+      <c r="H92" s="464"/>
+      <c r="I92" s="464"/>
+      <c r="J92" s="464"/>
+      <c r="K92" s="464" t="s">
         <v>463</v>
       </c>
-      <c r="L92" s="465"/>
-      <c r="M92" s="465"/>
-      <c r="N92" s="465"/>
-      <c r="O92" s="421" t="s">
+      <c r="L92" s="464"/>
+      <c r="M92" s="464"/>
+      <c r="N92" s="464"/>
+      <c r="O92" s="423" t="s">
         <v>446</v>
       </c>
-      <c r="P92" s="380"/>
-      <c r="Q92" s="380"/>
-      <c r="R92" s="380"/>
-      <c r="S92" s="380"/>
-      <c r="T92" s="435" t="s">
+      <c r="P92" s="381"/>
+      <c r="Q92" s="381"/>
+      <c r="R92" s="381"/>
+      <c r="S92" s="381"/>
+      <c r="T92" s="437" t="s">
         <v>450</v>
       </c>
       <c r="U92" s="364"/>
       <c r="V92" s="364"/>
       <c r="W92" s="364"/>
-      <c r="X92" s="388" t="s">
+      <c r="X92" s="390" t="s">
         <v>454</v>
       </c>
-      <c r="Y92" s="389"/>
-      <c r="Z92" s="389"/>
-      <c r="AA92" s="389"/>
-      <c r="AB92" s="389"/>
-      <c r="AC92" s="389"/>
-      <c r="AD92" s="390"/>
-      <c r="AE92" s="388"/>
-      <c r="AF92" s="457"/>
-      <c r="AG92" s="457"/>
-      <c r="AH92" s="458"/>
+      <c r="Y92" s="391"/>
+      <c r="Z92" s="391"/>
+      <c r="AA92" s="391"/>
+      <c r="AB92" s="391"/>
+      <c r="AC92" s="391"/>
+      <c r="AD92" s="392"/>
+      <c r="AE92" s="390"/>
+      <c r="AF92" s="459"/>
+      <c r="AG92" s="459"/>
+      <c r="AH92" s="460"/>
     </row>
     <row r="93" spans="3:67" ht="22.5" customHeight="1">
       <c r="F93" s="146">
         <v>7</v>
       </c>
-      <c r="G93" s="465" t="s">
+      <c r="G93" s="464" t="s">
         <v>466</v>
       </c>
-      <c r="H93" s="465"/>
-      <c r="I93" s="465"/>
-      <c r="J93" s="465"/>
-      <c r="K93" s="465" t="s">
+      <c r="H93" s="464"/>
+      <c r="I93" s="464"/>
+      <c r="J93" s="464"/>
+      <c r="K93" s="464" t="s">
         <v>465</v>
       </c>
-      <c r="L93" s="465"/>
-      <c r="M93" s="465"/>
-      <c r="N93" s="465"/>
-      <c r="O93" s="421" t="s">
+      <c r="L93" s="464"/>
+      <c r="M93" s="464"/>
+      <c r="N93" s="464"/>
+      <c r="O93" s="423" t="s">
         <v>446</v>
       </c>
-      <c r="P93" s="380"/>
-      <c r="Q93" s="380"/>
-      <c r="R93" s="380"/>
-      <c r="S93" s="380"/>
+      <c r="P93" s="381"/>
+      <c r="Q93" s="381"/>
+      <c r="R93" s="381"/>
+      <c r="S93" s="381"/>
       <c r="T93" s="476" t="s">
         <v>451</v>
       </c>
       <c r="U93" s="477"/>
       <c r="V93" s="477"/>
       <c r="W93" s="478"/>
-      <c r="X93" s="388" t="s">
+      <c r="X93" s="390" t="s">
         <v>441</v>
       </c>
-      <c r="Y93" s="389"/>
-      <c r="Z93" s="389"/>
-      <c r="AA93" s="389"/>
-      <c r="AB93" s="389"/>
-      <c r="AC93" s="389"/>
-      <c r="AD93" s="390"/>
-      <c r="AE93" s="388"/>
-      <c r="AF93" s="457"/>
-      <c r="AG93" s="457"/>
-      <c r="AH93" s="458"/>
+      <c r="Y93" s="391"/>
+      <c r="Z93" s="391"/>
+      <c r="AA93" s="391"/>
+      <c r="AB93" s="391"/>
+      <c r="AC93" s="391"/>
+      <c r="AD93" s="392"/>
+      <c r="AE93" s="390"/>
+      <c r="AF93" s="459"/>
+      <c r="AG93" s="459"/>
+      <c r="AH93" s="460"/>
     </row>
     <row r="94" spans="3:67" ht="67.5" customHeight="1">
       <c r="F94" s="146">
         <v>8</v>
       </c>
-      <c r="G94" s="465" t="s">
+      <c r="G94" s="464" t="s">
         <v>609</v>
       </c>
-      <c r="H94" s="465"/>
-      <c r="I94" s="465"/>
-      <c r="J94" s="465"/>
-      <c r="K94" s="465" t="s">
+      <c r="H94" s="464"/>
+      <c r="I94" s="464"/>
+      <c r="J94" s="464"/>
+      <c r="K94" s="464" t="s">
         <v>467</v>
       </c>
-      <c r="L94" s="465"/>
-      <c r="M94" s="465"/>
-      <c r="N94" s="465"/>
-      <c r="O94" s="421" t="s">
+      <c r="L94" s="464"/>
+      <c r="M94" s="464"/>
+      <c r="N94" s="464"/>
+      <c r="O94" s="423" t="s">
         <v>446</v>
       </c>
-      <c r="P94" s="380"/>
-      <c r="Q94" s="380"/>
-      <c r="R94" s="380"/>
-      <c r="S94" s="380"/>
-      <c r="T94" s="435" t="s">
+      <c r="P94" s="381"/>
+      <c r="Q94" s="381"/>
+      <c r="R94" s="381"/>
+      <c r="S94" s="381"/>
+      <c r="T94" s="437" t="s">
         <v>452</v>
       </c>
       <c r="U94" s="364"/>
       <c r="V94" s="364"/>
       <c r="W94" s="364"/>
-      <c r="X94" s="388" t="s">
+      <c r="X94" s="390" t="s">
         <v>607</v>
       </c>
-      <c r="Y94" s="389"/>
-      <c r="Z94" s="389"/>
-      <c r="AA94" s="389"/>
-      <c r="AB94" s="389"/>
-      <c r="AC94" s="389"/>
-      <c r="AD94" s="390"/>
-      <c r="AE94" s="388"/>
-      <c r="AF94" s="457"/>
-      <c r="AG94" s="457"/>
-      <c r="AH94" s="458"/>
+      <c r="Y94" s="391"/>
+      <c r="Z94" s="391"/>
+      <c r="AA94" s="391"/>
+      <c r="AB94" s="391"/>
+      <c r="AC94" s="391"/>
+      <c r="AD94" s="392"/>
+      <c r="AE94" s="390"/>
+      <c r="AF94" s="459"/>
+      <c r="AG94" s="459"/>
+      <c r="AH94" s="460"/>
     </row>
     <row r="95" spans="3:67">
       <c r="C95" s="22"/>
@@ -41018,33 +40988,33 @@
     </row>
     <row r="16" spans="1:35">
       <c r="D16" s="136"/>
-      <c r="E16" s="374" t="s">
+      <c r="E16" s="375" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="375"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="374" t="s">
+      <c r="F16" s="376"/>
+      <c r="G16" s="377"/>
+      <c r="H16" s="375" t="s">
         <v>234</v>
       </c>
-      <c r="I16" s="375"/>
-      <c r="J16" s="376"/>
-      <c r="K16" s="374" t="s">
+      <c r="I16" s="376"/>
+      <c r="J16" s="377"/>
+      <c r="K16" s="375" t="s">
         <v>235</v>
       </c>
-      <c r="L16" s="375"/>
-      <c r="M16" s="376"/>
+      <c r="L16" s="376"/>
+      <c r="M16" s="377"/>
       <c r="O16" s="136"/>
-      <c r="P16" s="374" t="s">
+      <c r="P16" s="375" t="s">
         <v>236</v>
       </c>
-      <c r="Q16" s="375"/>
-      <c r="R16" s="376"/>
-      <c r="S16" s="374" t="s">
+      <c r="Q16" s="376"/>
+      <c r="R16" s="377"/>
+      <c r="S16" s="375" t="s">
         <v>237</v>
       </c>
-      <c r="T16" s="375"/>
-      <c r="U16" s="375"/>
-      <c r="V16" s="376"/>
+      <c r="T16" s="376"/>
+      <c r="U16" s="376"/>
+      <c r="V16" s="377"/>
       <c r="X16" s="136"/>
     </row>
     <row r="17" spans="3:34">
@@ -41293,50 +41263,50 @@
     <row r="25" spans="3:34">
       <c r="C25" s="136"/>
       <c r="D25" s="136"/>
-      <c r="E25" s="374" t="s">
+      <c r="E25" s="375" t="s">
         <v>233</v>
       </c>
-      <c r="F25" s="375"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="374" t="s">
+      <c r="F25" s="376"/>
+      <c r="G25" s="377"/>
+      <c r="H25" s="375" t="s">
         <v>234</v>
       </c>
-      <c r="I25" s="375"/>
-      <c r="J25" s="376"/>
-      <c r="K25" s="374" t="s">
+      <c r="I25" s="376"/>
+      <c r="J25" s="377"/>
+      <c r="K25" s="375" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="375"/>
-      <c r="M25" s="376"/>
+      <c r="L25" s="376"/>
+      <c r="M25" s="377"/>
       <c r="N25" s="136"/>
       <c r="O25" s="136"/>
-      <c r="P25" s="374" t="s">
+      <c r="P25" s="375" t="s">
         <v>250</v>
       </c>
-      <c r="Q25" s="375"/>
-      <c r="R25" s="376"/>
-      <c r="S25" s="374" t="s">
+      <c r="Q25" s="376"/>
+      <c r="R25" s="377"/>
+      <c r="S25" s="375" t="s">
         <v>233</v>
       </c>
-      <c r="T25" s="375"/>
-      <c r="U25" s="376"/>
-      <c r="V25" s="374" t="s">
+      <c r="T25" s="376"/>
+      <c r="U25" s="377"/>
+      <c r="V25" s="375" t="s">
         <v>251</v>
       </c>
-      <c r="W25" s="375"/>
-      <c r="X25" s="376"/>
+      <c r="W25" s="376"/>
+      <c r="X25" s="377"/>
       <c r="Z25" s="136"/>
-      <c r="AA25" s="374" t="s">
+      <c r="AA25" s="375" t="s">
         <v>252</v>
       </c>
-      <c r="AB25" s="375"/>
-      <c r="AC25" s="376"/>
-      <c r="AD25" s="374" t="s">
+      <c r="AB25" s="376"/>
+      <c r="AC25" s="377"/>
+      <c r="AD25" s="375" t="s">
         <v>237</v>
       </c>
-      <c r="AE25" s="375"/>
-      <c r="AF25" s="375"/>
-      <c r="AG25" s="376"/>
+      <c r="AE25" s="376"/>
+      <c r="AF25" s="376"/>
+      <c r="AG25" s="377"/>
     </row>
     <row r="26" spans="3:34">
       <c r="C26" s="136"/>
